--- a/GestionDeProjet/Commandes/Commandes.xlsx
+++ b/GestionDeProjet/Commandes/Commandes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\Commandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FAC5AA-FEED-4E04-829A-B630608D0F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E50A135-7BDF-454B-B03E-DF524EAE7B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commande_1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
   <si>
     <t>Farnell</t>
   </si>
@@ -184,7 +184,16 @@
     <t>PMOD USB TO UART</t>
   </si>
   <si>
-    <t>https://www.amazon.fr/gp/product/B01I8XU6V8/ref=sw_img_1?smid=A22LNS21YINDTM&amp;psc=1</t>
+    <t>Ensemble de câbles 2,1 mm de diamètre intérieur, 5,5 mm de diamètre extérieur Fiche à fiche Plate 3,00pi (915,00mm)</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>https://www.digikey.fr/fr/products/detail/tensility-international-corp/10-02555/7606545</t>
+  </si>
+  <si>
+    <t>https://www.digikey.fr/fr/products/detail/digilent-inc/410-212/4090089</t>
   </si>
 </sst>
 </file>
@@ -196,7 +205,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +262,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -286,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -436,6 +460,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -445,7 +500,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,8 +636,84 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5633,175 +5764,4452 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78FD3A7-AAA8-4DA6-80F7-AFBE0615DCAC}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I973"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="1:9" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="54">
+        <v>3.83</v>
+      </c>
+      <c r="E3" s="55">
+        <v>1</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57">
+        <f>D3*E3</f>
+        <v>3.83</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="27">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="B4" s="75"/>
+      <c r="C4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="60">
+        <v>9.99</v>
+      </c>
+      <c r="E4" s="55">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
-        <v>4.99</v>
-      </c>
-      <c r="G3" s="27">
-        <f>D3*E3</f>
-        <v>17.309999999999999</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="F4" s="61">
+        <v>18</v>
+      </c>
+      <c r="G4" s="57">
+        <f>D4*E4</f>
+        <v>9.99</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="24">
-        <v>20.74</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D6" s="62">
+        <v>20.37</v>
+      </c>
+      <c r="E6" s="55">
         <v>2</v>
       </c>
-      <c r="F5" s="15">
-        <v>3.64</v>
-      </c>
-      <c r="G5" s="37">
-        <f t="shared" ref="G5" si="0">D5*E5</f>
-        <v>41.48</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="F6" s="61">
+        <v>3.58</v>
+      </c>
+      <c r="G6" s="63">
+        <f t="shared" ref="G6" si="0">D6*E6</f>
+        <v>40.74</v>
+      </c>
+      <c r="H6" s="64" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="28" t="s">
+      <c r="I6" s="76"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="41">
-        <f>SUM(F3:F5)</f>
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="G6" s="38">
-        <f>SUM(G3:G5)</f>
-        <v>58.789999999999992</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="28" t="s">
+      <c r="F7" s="41">
+        <f>SUM(F3:F6)</f>
+        <v>21.58</v>
+      </c>
+      <c r="G7" s="77">
+        <f>SUM(G3:G6)</f>
+        <v>54.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="67"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="29">
-        <f>F6+G6</f>
-        <v>67.419999999999987</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F10" s="70">
+        <f>F7+G7</f>
+        <v>76.14</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="H11" s="67"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="H12" s="67"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="H14" s="67"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="67"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="67"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="67"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="67"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="67"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="67"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="67"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="67"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="67"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="67"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="67"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="67"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="67"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="67"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="67"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="67"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="67"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="67"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="67"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="67"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="67"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="67"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="67"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="67"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="67"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="67"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="67"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="67"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="67"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="67"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="67"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="67"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="67"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="67"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="68"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="67"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="67"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="67"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="67"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="67"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="67"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="67"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="67"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="67"/>
+      <c r="B112" s="67"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="67"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="67"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="67"/>
+      <c r="B115" s="67"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="67"/>
+      <c r="H115" s="67"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="67"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="67"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="67"/>
+      <c r="B118" s="67"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="67"/>
+      <c r="G118" s="67"/>
+      <c r="H118" s="67"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="67"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="67"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="67"/>
+      <c r="G120" s="67"/>
+      <c r="H120" s="67"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="67"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="67"/>
+      <c r="H121" s="67"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="67"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="67"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="67"/>
+      <c r="B124" s="67"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="67"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="67"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="67"/>
+      <c r="B127" s="67"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="67"/>
+      <c r="B128" s="67"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="67"/>
+      <c r="B129" s="67"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="67"/>
+      <c r="H129" s="67"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="67"/>
+      <c r="B130" s="67"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="67"/>
+      <c r="B131" s="67"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="67"/>
+      <c r="B132" s="67"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="68"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="67"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="67"/>
+      <c r="G133" s="67"/>
+      <c r="H133" s="67"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="67"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
+      <c r="H134" s="67"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="67"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="67"/>
+      <c r="H135" s="67"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="67"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="67"/>
+      <c r="G136" s="67"/>
+      <c r="H136" s="67"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="67"/>
+      <c r="B137" s="67"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="67"/>
+      <c r="G137" s="67"/>
+      <c r="H137" s="67"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="67"/>
+      <c r="B138" s="67"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="67"/>
+      <c r="G138" s="67"/>
+      <c r="H138" s="67"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="67"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="67"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="67"/>
+      <c r="G140" s="67"/>
+      <c r="H140" s="67"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="67"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="67"/>
+      <c r="G141" s="67"/>
+      <c r="H141" s="67"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="67"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="67"/>
+      <c r="H142" s="67"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="67"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="67"/>
+      <c r="G143" s="67"/>
+      <c r="H143" s="67"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="67"/>
+      <c r="B144" s="67"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="67"/>
+      <c r="F144" s="67"/>
+      <c r="G144" s="67"/>
+      <c r="H144" s="67"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="67"/>
+      <c r="B145" s="67"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="67"/>
+      <c r="F145" s="67"/>
+      <c r="G145" s="67"/>
+      <c r="H145" s="67"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="67"/>
+      <c r="B146" s="67"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="68"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="67"/>
+      <c r="G146" s="67"/>
+      <c r="H146" s="67"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="67"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="67"/>
+      <c r="F147" s="67"/>
+      <c r="G147" s="67"/>
+      <c r="H147" s="67"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="67"/>
+      <c r="B148" s="67"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="68"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="67"/>
+      <c r="G148" s="67"/>
+      <c r="H148" s="67"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="67"/>
+      <c r="B149" s="67"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="67"/>
+      <c r="G149" s="67"/>
+      <c r="H149" s="67"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="67"/>
+      <c r="B150" s="67"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="68"/>
+      <c r="E150" s="67"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="67"/>
+      <c r="H150" s="67"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="67"/>
+      <c r="B151" s="67"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="67"/>
+      <c r="F151" s="67"/>
+      <c r="G151" s="67"/>
+      <c r="H151" s="67"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="67"/>
+      <c r="B152" s="67"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="67"/>
+      <c r="F152" s="67"/>
+      <c r="G152" s="67"/>
+      <c r="H152" s="67"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="67"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="67"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="67"/>
+      <c r="H153" s="67"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="67"/>
+      <c r="B154" s="67"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="67"/>
+      <c r="F154" s="67"/>
+      <c r="G154" s="67"/>
+      <c r="H154" s="67"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="67"/>
+      <c r="B155" s="67"/>
+      <c r="C155" s="67"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="67"/>
+      <c r="F155" s="67"/>
+      <c r="G155" s="67"/>
+      <c r="H155" s="67"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="67"/>
+      <c r="B156" s="67"/>
+      <c r="C156" s="67"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="67"/>
+      <c r="F156" s="67"/>
+      <c r="G156" s="67"/>
+      <c r="H156" s="67"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="67"/>
+      <c r="B157" s="67"/>
+      <c r="C157" s="67"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="67"/>
+      <c r="F157" s="67"/>
+      <c r="G157" s="67"/>
+      <c r="H157" s="67"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="67"/>
+      <c r="B158" s="67"/>
+      <c r="C158" s="67"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="67"/>
+      <c r="F158" s="67"/>
+      <c r="G158" s="67"/>
+      <c r="H158" s="67"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="67"/>
+      <c r="B159" s="67"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="67"/>
+      <c r="H159" s="67"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="67"/>
+      <c r="B160" s="67"/>
+      <c r="C160" s="67"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="67"/>
+      <c r="F160" s="67"/>
+      <c r="G160" s="67"/>
+      <c r="H160" s="67"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="67"/>
+      <c r="B161" s="67"/>
+      <c r="C161" s="67"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="67"/>
+      <c r="F161" s="67"/>
+      <c r="G161" s="67"/>
+      <c r="H161" s="67"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="67"/>
+      <c r="B162" s="67"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="67"/>
+      <c r="H162" s="67"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="67"/>
+      <c r="B163" s="67"/>
+      <c r="C163" s="67"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="67"/>
+      <c r="F163" s="67"/>
+      <c r="G163" s="67"/>
+      <c r="H163" s="67"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="67"/>
+      <c r="B164" s="67"/>
+      <c r="C164" s="67"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="67"/>
+      <c r="F164" s="67"/>
+      <c r="G164" s="67"/>
+      <c r="H164" s="67"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="67"/>
+      <c r="B165" s="67"/>
+      <c r="C165" s="67"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="67"/>
+      <c r="F165" s="67"/>
+      <c r="G165" s="67"/>
+      <c r="H165" s="67"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="67"/>
+      <c r="B166" s="67"/>
+      <c r="C166" s="67"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="67"/>
+      <c r="F166" s="67"/>
+      <c r="G166" s="67"/>
+      <c r="H166" s="67"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="67"/>
+      <c r="B167" s="67"/>
+      <c r="C167" s="67"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="67"/>
+      <c r="F167" s="67"/>
+      <c r="G167" s="67"/>
+      <c r="H167" s="67"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="67"/>
+      <c r="B168" s="67"/>
+      <c r="C168" s="67"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="67"/>
+      <c r="F168" s="67"/>
+      <c r="G168" s="67"/>
+      <c r="H168" s="67"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="67"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="67"/>
+      <c r="F169" s="67"/>
+      <c r="G169" s="67"/>
+      <c r="H169" s="67"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="67"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="67"/>
+      <c r="G170" s="67"/>
+      <c r="H170" s="67"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="67"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="67"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="67"/>
+      <c r="F171" s="67"/>
+      <c r="G171" s="67"/>
+      <c r="H171" s="67"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="67"/>
+      <c r="B172" s="67"/>
+      <c r="C172" s="67"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="67"/>
+      <c r="F172" s="67"/>
+      <c r="G172" s="67"/>
+      <c r="H172" s="67"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="67"/>
+      <c r="B173" s="67"/>
+      <c r="C173" s="67"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="67"/>
+      <c r="F173" s="67"/>
+      <c r="G173" s="67"/>
+      <c r="H173" s="67"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="67"/>
+      <c r="B174" s="67"/>
+      <c r="C174" s="67"/>
+      <c r="D174" s="68"/>
+      <c r="E174" s="67"/>
+      <c r="F174" s="67"/>
+      <c r="G174" s="67"/>
+      <c r="H174" s="67"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="67"/>
+      <c r="B175" s="67"/>
+      <c r="C175" s="67"/>
+      <c r="D175" s="68"/>
+      <c r="E175" s="67"/>
+      <c r="F175" s="67"/>
+      <c r="G175" s="67"/>
+      <c r="H175" s="67"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="67"/>
+      <c r="B176" s="67"/>
+      <c r="C176" s="67"/>
+      <c r="D176" s="68"/>
+      <c r="E176" s="67"/>
+      <c r="F176" s="67"/>
+      <c r="G176" s="67"/>
+      <c r="H176" s="67"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="67"/>
+      <c r="B177" s="67"/>
+      <c r="C177" s="67"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="67"/>
+      <c r="F177" s="67"/>
+      <c r="G177" s="67"/>
+      <c r="H177" s="67"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="67"/>
+      <c r="B178" s="67"/>
+      <c r="C178" s="67"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="67"/>
+      <c r="F178" s="67"/>
+      <c r="G178" s="67"/>
+      <c r="H178" s="67"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="67"/>
+      <c r="B179" s="67"/>
+      <c r="C179" s="67"/>
+      <c r="D179" s="68"/>
+      <c r="E179" s="67"/>
+      <c r="F179" s="67"/>
+      <c r="G179" s="67"/>
+      <c r="H179" s="67"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="67"/>
+      <c r="B180" s="67"/>
+      <c r="C180" s="67"/>
+      <c r="D180" s="68"/>
+      <c r="E180" s="67"/>
+      <c r="F180" s="67"/>
+      <c r="G180" s="67"/>
+      <c r="H180" s="67"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="67"/>
+      <c r="B181" s="67"/>
+      <c r="C181" s="67"/>
+      <c r="D181" s="68"/>
+      <c r="E181" s="67"/>
+      <c r="F181" s="67"/>
+      <c r="G181" s="67"/>
+      <c r="H181" s="67"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="67"/>
+      <c r="B182" s="67"/>
+      <c r="C182" s="67"/>
+      <c r="D182" s="68"/>
+      <c r="E182" s="67"/>
+      <c r="F182" s="67"/>
+      <c r="G182" s="67"/>
+      <c r="H182" s="67"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="67"/>
+      <c r="B183" s="67"/>
+      <c r="C183" s="67"/>
+      <c r="D183" s="68"/>
+      <c r="E183" s="67"/>
+      <c r="F183" s="67"/>
+      <c r="G183" s="67"/>
+      <c r="H183" s="67"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="67"/>
+      <c r="B184" s="67"/>
+      <c r="C184" s="67"/>
+      <c r="D184" s="68"/>
+      <c r="E184" s="67"/>
+      <c r="F184" s="67"/>
+      <c r="G184" s="67"/>
+      <c r="H184" s="67"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="67"/>
+      <c r="B185" s="67"/>
+      <c r="C185" s="67"/>
+      <c r="D185" s="68"/>
+      <c r="E185" s="67"/>
+      <c r="F185" s="67"/>
+      <c r="G185" s="67"/>
+      <c r="H185" s="67"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="67"/>
+      <c r="B186" s="67"/>
+      <c r="C186" s="67"/>
+      <c r="D186" s="68"/>
+      <c r="E186" s="67"/>
+      <c r="F186" s="67"/>
+      <c r="G186" s="67"/>
+      <c r="H186" s="67"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="67"/>
+      <c r="B187" s="67"/>
+      <c r="C187" s="67"/>
+      <c r="D187" s="68"/>
+      <c r="E187" s="67"/>
+      <c r="F187" s="67"/>
+      <c r="G187" s="67"/>
+      <c r="H187" s="67"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="67"/>
+      <c r="B188" s="67"/>
+      <c r="C188" s="67"/>
+      <c r="D188" s="68"/>
+      <c r="E188" s="67"/>
+      <c r="F188" s="67"/>
+      <c r="G188" s="67"/>
+      <c r="H188" s="67"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="67"/>
+      <c r="B189" s="67"/>
+      <c r="C189" s="67"/>
+      <c r="D189" s="68"/>
+      <c r="E189" s="67"/>
+      <c r="F189" s="67"/>
+      <c r="G189" s="67"/>
+      <c r="H189" s="67"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="67"/>
+      <c r="B190" s="67"/>
+      <c r="C190" s="67"/>
+      <c r="D190" s="68"/>
+      <c r="E190" s="67"/>
+      <c r="F190" s="67"/>
+      <c r="G190" s="67"/>
+      <c r="H190" s="67"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="67"/>
+      <c r="B191" s="67"/>
+      <c r="C191" s="67"/>
+      <c r="D191" s="68"/>
+      <c r="E191" s="67"/>
+      <c r="F191" s="67"/>
+      <c r="G191" s="67"/>
+      <c r="H191" s="67"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="67"/>
+      <c r="B192" s="67"/>
+      <c r="C192" s="67"/>
+      <c r="D192" s="68"/>
+      <c r="E192" s="67"/>
+      <c r="F192" s="67"/>
+      <c r="G192" s="67"/>
+      <c r="H192" s="67"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="67"/>
+      <c r="B193" s="67"/>
+      <c r="C193" s="67"/>
+      <c r="D193" s="68"/>
+      <c r="E193" s="67"/>
+      <c r="F193" s="67"/>
+      <c r="G193" s="67"/>
+      <c r="H193" s="67"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="67"/>
+      <c r="B194" s="67"/>
+      <c r="C194" s="67"/>
+      <c r="D194" s="68"/>
+      <c r="E194" s="67"/>
+      <c r="F194" s="67"/>
+      <c r="G194" s="67"/>
+      <c r="H194" s="67"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="67"/>
+      <c r="B195" s="67"/>
+      <c r="C195" s="67"/>
+      <c r="D195" s="68"/>
+      <c r="E195" s="67"/>
+      <c r="F195" s="67"/>
+      <c r="G195" s="67"/>
+      <c r="H195" s="67"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="67"/>
+      <c r="B196" s="67"/>
+      <c r="C196" s="67"/>
+      <c r="D196" s="68"/>
+      <c r="E196" s="67"/>
+      <c r="F196" s="67"/>
+      <c r="G196" s="67"/>
+      <c r="H196" s="67"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="71"/>
+      <c r="B197" s="71"/>
+      <c r="C197" s="71"/>
+      <c r="D197" s="72"/>
+      <c r="E197" s="71"/>
+      <c r="F197" s="71"/>
+      <c r="G197" s="71"/>
+      <c r="H197" s="71"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="71"/>
+      <c r="B198" s="71"/>
+      <c r="C198" s="71"/>
+      <c r="D198" s="72"/>
+      <c r="E198" s="71"/>
+      <c r="F198" s="71"/>
+      <c r="G198" s="71"/>
+      <c r="H198" s="71"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="71"/>
+      <c r="B199" s="71"/>
+      <c r="C199" s="71"/>
+      <c r="D199" s="72"/>
+      <c r="E199" s="71"/>
+      <c r="F199" s="71"/>
+      <c r="G199" s="71"/>
+      <c r="H199" s="71"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="71"/>
+      <c r="B200" s="71"/>
+      <c r="C200" s="71"/>
+      <c r="D200" s="72"/>
+      <c r="E200" s="71"/>
+      <c r="F200" s="71"/>
+      <c r="G200" s="71"/>
+      <c r="H200" s="71"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="71"/>
+      <c r="B201" s="71"/>
+      <c r="C201" s="71"/>
+      <c r="D201" s="72"/>
+      <c r="E201" s="71"/>
+      <c r="F201" s="71"/>
+      <c r="G201" s="71"/>
+      <c r="H201" s="71"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="71"/>
+      <c r="B202" s="71"/>
+      <c r="C202" s="71"/>
+      <c r="D202" s="72"/>
+      <c r="E202" s="71"/>
+      <c r="F202" s="71"/>
+      <c r="G202" s="71"/>
+      <c r="H202" s="71"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="71"/>
+      <c r="B203" s="71"/>
+      <c r="C203" s="71"/>
+      <c r="D203" s="72"/>
+      <c r="E203" s="71"/>
+      <c r="F203" s="71"/>
+      <c r="G203" s="71"/>
+      <c r="H203" s="71"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="71"/>
+      <c r="B204" s="71"/>
+      <c r="C204" s="71"/>
+      <c r="D204" s="72"/>
+      <c r="E204" s="71"/>
+      <c r="F204" s="71"/>
+      <c r="G204" s="71"/>
+      <c r="H204" s="71"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="71"/>
+      <c r="B205" s="71"/>
+      <c r="C205" s="71"/>
+      <c r="D205" s="72"/>
+      <c r="E205" s="71"/>
+      <c r="F205" s="71"/>
+      <c r="G205" s="71"/>
+      <c r="H205" s="71"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="71"/>
+      <c r="B206" s="71"/>
+      <c r="C206" s="71"/>
+      <c r="D206" s="72"/>
+      <c r="E206" s="71"/>
+      <c r="F206" s="71"/>
+      <c r="G206" s="71"/>
+      <c r="H206" s="71"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="71"/>
+      <c r="B207" s="71"/>
+      <c r="C207" s="71"/>
+      <c r="D207" s="72"/>
+      <c r="E207" s="71"/>
+      <c r="F207" s="71"/>
+      <c r="G207" s="71"/>
+      <c r="H207" s="71"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="71"/>
+      <c r="B208" s="71"/>
+      <c r="C208" s="71"/>
+      <c r="D208" s="72"/>
+      <c r="E208" s="71"/>
+      <c r="F208" s="71"/>
+      <c r="G208" s="71"/>
+      <c r="H208" s="71"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="72"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="72"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="72"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="72"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="72"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" s="72"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" s="72"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" s="72"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" s="72"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" s="72"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" s="72"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" s="72"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" s="72"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" s="72"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" s="72"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" s="72"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="72"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" s="72"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227" s="72"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228" s="72"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229" s="72"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" s="72"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231" s="72"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232" s="72"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233" s="72"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234" s="72"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235" s="72"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236" s="72"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237" s="72"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238" s="72"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239" s="72"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240" s="72"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241" s="72"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242" s="72"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243" s="72"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244" s="72"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" s="72"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" s="72"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247" s="72"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248" s="72"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249" s="72"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" s="72"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" s="72"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252" s="72"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253" s="72"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254" s="72"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255" s="72"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256" s="72"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257" s="72"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258" s="72"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D259" s="72"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D260" s="72"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D261" s="72"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D262" s="72"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D263" s="72"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D264" s="72"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D265" s="72"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D266" s="72"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D267" s="72"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D268" s="72"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D269" s="72"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D270" s="72"/>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D271" s="72"/>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D272" s="72"/>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D273" s="72"/>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D274" s="72"/>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D275" s="72"/>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D276" s="72"/>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D277" s="72"/>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D278" s="72"/>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D279" s="72"/>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D280" s="72"/>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D281" s="72"/>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D282" s="72"/>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D283" s="72"/>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D284" s="72"/>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D285" s="72"/>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D286" s="72"/>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D287" s="72"/>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D288" s="72"/>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D289" s="72"/>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D290" s="72"/>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D291" s="72"/>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D292" s="72"/>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D293" s="72"/>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D294" s="72"/>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D295" s="72"/>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D296" s="72"/>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D297" s="72"/>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D298" s="72"/>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D299" s="72"/>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D300" s="72"/>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D301" s="72"/>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D302" s="72"/>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D303" s="72"/>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D304" s="72"/>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D305" s="72"/>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D306" s="72"/>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D307" s="72"/>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D308" s="72"/>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D309" s="72"/>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D310" s="72"/>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D311" s="72"/>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D312" s="72"/>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D313" s="72"/>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D314" s="72"/>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D315" s="72"/>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D316" s="72"/>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D317" s="72"/>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D318" s="72"/>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D319" s="72"/>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D320" s="72"/>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D321" s="72"/>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D322" s="72"/>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D323" s="72"/>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D324" s="72"/>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D325" s="72"/>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D326" s="72"/>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D327" s="72"/>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D328" s="72"/>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D329" s="72"/>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D330" s="72"/>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D331" s="72"/>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D332" s="72"/>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D333" s="72"/>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D334" s="72"/>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D335" s="72"/>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D336" s="72"/>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D337" s="72"/>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D338" s="72"/>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D339" s="72"/>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D340" s="72"/>
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D341" s="72"/>
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D342" s="72"/>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D343" s="72"/>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D344" s="72"/>
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D345" s="72"/>
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D346" s="72"/>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D347" s="72"/>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D348" s="72"/>
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D349" s="72"/>
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D350" s="72"/>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D351" s="72"/>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D352" s="72"/>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D353" s="72"/>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D354" s="72"/>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D355" s="72"/>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D356" s="72"/>
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D357" s="72"/>
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D358" s="72"/>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D359" s="72"/>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D360" s="72"/>
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D361" s="72"/>
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D362" s="72"/>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D363" s="72"/>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D364" s="72"/>
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D365" s="72"/>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D366" s="72"/>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D367" s="72"/>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D368" s="72"/>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D369" s="72"/>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D370" s="72"/>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D371" s="72"/>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D372" s="72"/>
+    </row>
+    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D373" s="72"/>
+    </row>
+    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D374" s="72"/>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D375" s="72"/>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D376" s="72"/>
+    </row>
+    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D377" s="72"/>
+    </row>
+    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D378" s="72"/>
+    </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D379" s="72"/>
+    </row>
+    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D380" s="72"/>
+    </row>
+    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D381" s="72"/>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D382" s="72"/>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D383" s="72"/>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D384" s="72"/>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D385" s="72"/>
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D386" s="72"/>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D387" s="72"/>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D388" s="72"/>
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D389" s="72"/>
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D390" s="72"/>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D391" s="72"/>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D392" s="72"/>
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D393" s="72"/>
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D394" s="72"/>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D395" s="72"/>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D396" s="72"/>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D397" s="72"/>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D398" s="72"/>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D399" s="72"/>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D400" s="72"/>
+    </row>
+    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D401" s="72"/>
+    </row>
+    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D402" s="72"/>
+    </row>
+    <row r="403" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D403" s="72"/>
+    </row>
+    <row r="404" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D404" s="72"/>
+    </row>
+    <row r="405" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D405" s="72"/>
+    </row>
+    <row r="406" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D406" s="72"/>
+    </row>
+    <row r="407" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D407" s="72"/>
+    </row>
+    <row r="408" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D408" s="72"/>
+    </row>
+    <row r="409" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D409" s="72"/>
+    </row>
+    <row r="410" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D410" s="72"/>
+    </row>
+    <row r="411" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D411" s="72"/>
+    </row>
+    <row r="412" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D412" s="72"/>
+    </row>
+    <row r="413" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D413" s="72"/>
+    </row>
+    <row r="414" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D414" s="72"/>
+    </row>
+    <row r="415" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D415" s="72"/>
+    </row>
+    <row r="416" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D416" s="72"/>
+    </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D417" s="72"/>
+    </row>
+    <row r="418" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D418" s="72"/>
+    </row>
+    <row r="419" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D419" s="72"/>
+    </row>
+    <row r="420" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D420" s="72"/>
+    </row>
+    <row r="421" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D421" s="72"/>
+    </row>
+    <row r="422" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D422" s="72"/>
+    </row>
+    <row r="423" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D423" s="72"/>
+    </row>
+    <row r="424" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D424" s="72"/>
+    </row>
+    <row r="425" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D425" s="72"/>
+    </row>
+    <row r="426" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D426" s="72"/>
+    </row>
+    <row r="427" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D427" s="72"/>
+    </row>
+    <row r="428" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D428" s="72"/>
+    </row>
+    <row r="429" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D429" s="72"/>
+    </row>
+    <row r="430" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D430" s="72"/>
+    </row>
+    <row r="431" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D431" s="72"/>
+    </row>
+    <row r="432" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D432" s="72"/>
+    </row>
+    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D433" s="72"/>
+    </row>
+    <row r="434" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D434" s="72"/>
+    </row>
+    <row r="435" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D435" s="72"/>
+    </row>
+    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D436" s="72"/>
+    </row>
+    <row r="437" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D437" s="72"/>
+    </row>
+    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D438" s="72"/>
+    </row>
+    <row r="439" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D439" s="72"/>
+    </row>
+    <row r="440" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D440" s="72"/>
+    </row>
+    <row r="441" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D441" s="72"/>
+    </row>
+    <row r="442" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D442" s="72"/>
+    </row>
+    <row r="443" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D443" s="72"/>
+    </row>
+    <row r="444" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D444" s="72"/>
+    </row>
+    <row r="445" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D445" s="72"/>
+    </row>
+    <row r="446" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D446" s="72"/>
+    </row>
+    <row r="447" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D447" s="72"/>
+    </row>
+    <row r="448" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D448" s="72"/>
+    </row>
+    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D449" s="72"/>
+    </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D450" s="72"/>
+    </row>
+    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D451" s="72"/>
+    </row>
+    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D452" s="72"/>
+    </row>
+    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D453" s="72"/>
+    </row>
+    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D454" s="72"/>
+    </row>
+    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D455" s="72"/>
+    </row>
+    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D456" s="72"/>
+    </row>
+    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D457" s="72"/>
+    </row>
+    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D458" s="72"/>
+    </row>
+    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D459" s="72"/>
+    </row>
+    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D460" s="72"/>
+    </row>
+    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D461" s="72"/>
+    </row>
+    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D462" s="72"/>
+    </row>
+    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D463" s="72"/>
+    </row>
+    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D464" s="72"/>
+    </row>
+    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D465" s="72"/>
+    </row>
+    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D466" s="72"/>
+    </row>
+    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D467" s="72"/>
+    </row>
+    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D468" s="72"/>
+    </row>
+    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D469" s="72"/>
+    </row>
+    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D470" s="72"/>
+    </row>
+    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D471" s="72"/>
+    </row>
+    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D472" s="72"/>
+    </row>
+    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D473" s="72"/>
+    </row>
+    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D474" s="72"/>
+    </row>
+    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D475" s="72"/>
+    </row>
+    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D476" s="72"/>
+    </row>
+    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D477" s="72"/>
+    </row>
+    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D478" s="72"/>
+    </row>
+    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D479" s="72"/>
+    </row>
+    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D480" s="72"/>
+    </row>
+    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D481" s="72"/>
+    </row>
+    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D482" s="72"/>
+    </row>
+    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D483" s="72"/>
+    </row>
+    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D484" s="72"/>
+    </row>
+    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D485" s="72"/>
+    </row>
+    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D486" s="72"/>
+    </row>
+    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D487" s="72"/>
+    </row>
+    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D488" s="72"/>
+    </row>
+    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D489" s="72"/>
+    </row>
+    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D490" s="72"/>
+    </row>
+    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D491" s="72"/>
+    </row>
+    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D492" s="72"/>
+    </row>
+    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D493" s="72"/>
+    </row>
+    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D494" s="72"/>
+    </row>
+    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D495" s="72"/>
+    </row>
+    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D496" s="72"/>
+    </row>
+    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D497" s="72"/>
+    </row>
+    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D498" s="72"/>
+    </row>
+    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D499" s="72"/>
+    </row>
+    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D500" s="72"/>
+    </row>
+    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D501" s="72"/>
+    </row>
+    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D502" s="72"/>
+    </row>
+    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D503" s="72"/>
+    </row>
+    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D504" s="72"/>
+    </row>
+    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D505" s="72"/>
+    </row>
+    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D506" s="72"/>
+    </row>
+    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D507" s="72"/>
+    </row>
+    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D508" s="72"/>
+    </row>
+    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D509" s="72"/>
+    </row>
+    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D510" s="72"/>
+    </row>
+    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D511" s="72"/>
+    </row>
+    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D512" s="72"/>
+    </row>
+    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D513" s="72"/>
+    </row>
+    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D514" s="72"/>
+    </row>
+    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D515" s="72"/>
+    </row>
+    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D516" s="72"/>
+    </row>
+    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D517" s="72"/>
+    </row>
+    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D518" s="72"/>
+    </row>
+    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D519" s="72"/>
+    </row>
+    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D520" s="72"/>
+    </row>
+    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D521" s="72"/>
+    </row>
+    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D522" s="72"/>
+    </row>
+    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D523" s="72"/>
+    </row>
+    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D524" s="72"/>
+    </row>
+    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D525" s="72"/>
+    </row>
+    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D526" s="72"/>
+    </row>
+    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D527" s="72"/>
+    </row>
+    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D528" s="72"/>
+    </row>
+    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D529" s="72"/>
+    </row>
+    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D530" s="72"/>
+    </row>
+    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D531" s="72"/>
+    </row>
+    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D532" s="72"/>
+    </row>
+    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D533" s="72"/>
+    </row>
+    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D534" s="72"/>
+    </row>
+    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D535" s="72"/>
+    </row>
+    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D536" s="72"/>
+    </row>
+    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D537" s="72"/>
+    </row>
+    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D538" s="72"/>
+    </row>
+    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D539" s="72"/>
+    </row>
+    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D540" s="72"/>
+    </row>
+    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D541" s="72"/>
+    </row>
+    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D542" s="72"/>
+    </row>
+    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D543" s="72"/>
+    </row>
+    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D544" s="72"/>
+    </row>
+    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D545" s="72"/>
+    </row>
+    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D546" s="72"/>
+    </row>
+    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D547" s="72"/>
+    </row>
+    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D548" s="72"/>
+    </row>
+    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D549" s="72"/>
+    </row>
+    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D550" s="72"/>
+    </row>
+    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D551" s="72"/>
+    </row>
+    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D552" s="72"/>
+    </row>
+    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D553" s="72"/>
+    </row>
+    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D554" s="72"/>
+    </row>
+    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D555" s="72"/>
+    </row>
+    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D556" s="72"/>
+    </row>
+    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D557" s="72"/>
+    </row>
+    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D558" s="72"/>
+    </row>
+    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D559" s="72"/>
+    </row>
+    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D560" s="72"/>
+    </row>
+    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D561" s="72"/>
+    </row>
+    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D562" s="72"/>
+    </row>
+    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D563" s="72"/>
+    </row>
+    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D564" s="72"/>
+    </row>
+    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D565" s="72"/>
+    </row>
+    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D566" s="72"/>
+    </row>
+    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D567" s="72"/>
+    </row>
+    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D568" s="72"/>
+    </row>
+    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D569" s="72"/>
+    </row>
+    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D570" s="72"/>
+    </row>
+    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D571" s="72"/>
+    </row>
+    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D572" s="72"/>
+    </row>
+    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D573" s="72"/>
+    </row>
+    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D574" s="72"/>
+    </row>
+    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D575" s="72"/>
+    </row>
+    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D576" s="72"/>
+    </row>
+    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D577" s="72"/>
+    </row>
+    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D578" s="72"/>
+    </row>
+    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D579" s="72"/>
+    </row>
+    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D580" s="72"/>
+    </row>
+    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D581" s="72"/>
+    </row>
+    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D582" s="72"/>
+    </row>
+    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D583" s="72"/>
+    </row>
+    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D584" s="72"/>
+    </row>
+    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D585" s="72"/>
+    </row>
+    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D586" s="72"/>
+    </row>
+    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D587" s="72"/>
+    </row>
+    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D588" s="72"/>
+    </row>
+    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D589" s="72"/>
+    </row>
+    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D590" s="72"/>
+    </row>
+    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D591" s="72"/>
+    </row>
+    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D592" s="72"/>
+    </row>
+    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D593" s="72"/>
+    </row>
+    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D594" s="72"/>
+    </row>
+    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D595" s="72"/>
+    </row>
+    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D596" s="72"/>
+    </row>
+    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D597" s="72"/>
+    </row>
+    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D598" s="72"/>
+    </row>
+    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D599" s="72"/>
+    </row>
+    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D600" s="72"/>
+    </row>
+    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D601" s="72"/>
+    </row>
+    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D602" s="72"/>
+    </row>
+    <row r="603" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D603" s="72"/>
+    </row>
+    <row r="604" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D604" s="72"/>
+    </row>
+    <row r="605" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D605" s="72"/>
+    </row>
+    <row r="606" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D606" s="72"/>
+    </row>
+    <row r="607" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D607" s="72"/>
+    </row>
+    <row r="608" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D608" s="72"/>
+    </row>
+    <row r="609" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D609" s="72"/>
+    </row>
+    <row r="610" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D610" s="72"/>
+    </row>
+    <row r="611" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D611" s="72"/>
+    </row>
+    <row r="612" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D612" s="72"/>
+    </row>
+    <row r="613" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D613" s="72"/>
+    </row>
+    <row r="614" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D614" s="72"/>
+    </row>
+    <row r="615" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D615" s="72"/>
+    </row>
+    <row r="616" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D616" s="72"/>
+    </row>
+    <row r="617" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D617" s="72"/>
+    </row>
+    <row r="618" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D618" s="72"/>
+    </row>
+    <row r="619" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D619" s="72"/>
+    </row>
+    <row r="620" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D620" s="72"/>
+    </row>
+    <row r="621" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D621" s="72"/>
+    </row>
+    <row r="622" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D622" s="72"/>
+    </row>
+    <row r="623" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D623" s="72"/>
+    </row>
+    <row r="624" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D624" s="72"/>
+    </row>
+    <row r="625" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D625" s="72"/>
+    </row>
+    <row r="626" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D626" s="72"/>
+    </row>
+    <row r="627" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D627" s="72"/>
+    </row>
+    <row r="628" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D628" s="72"/>
+    </row>
+    <row r="629" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D629" s="72"/>
+    </row>
+    <row r="630" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D630" s="72"/>
+    </row>
+    <row r="631" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D631" s="72"/>
+    </row>
+    <row r="632" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D632" s="72"/>
+    </row>
+    <row r="633" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D633" s="72"/>
+    </row>
+    <row r="634" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D634" s="72"/>
+    </row>
+    <row r="635" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D635" s="72"/>
+    </row>
+    <row r="636" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D636" s="72"/>
+    </row>
+    <row r="637" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D637" s="72"/>
+    </row>
+    <row r="638" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D638" s="72"/>
+    </row>
+    <row r="639" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D639" s="72"/>
+    </row>
+    <row r="640" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D640" s="72"/>
+    </row>
+    <row r="641" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D641" s="72"/>
+    </row>
+    <row r="642" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D642" s="72"/>
+    </row>
+    <row r="643" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D643" s="72"/>
+    </row>
+    <row r="644" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D644" s="72"/>
+    </row>
+    <row r="645" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D645" s="72"/>
+    </row>
+    <row r="646" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D646" s="72"/>
+    </row>
+    <row r="647" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D647" s="72"/>
+    </row>
+    <row r="648" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D648" s="72"/>
+    </row>
+    <row r="649" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D649" s="72"/>
+    </row>
+    <row r="650" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D650" s="72"/>
+    </row>
+    <row r="651" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D651" s="72"/>
+    </row>
+    <row r="652" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D652" s="72"/>
+    </row>
+    <row r="653" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D653" s="72"/>
+    </row>
+    <row r="654" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D654" s="72"/>
+    </row>
+    <row r="655" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D655" s="72"/>
+    </row>
+    <row r="656" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D656" s="72"/>
+    </row>
+    <row r="657" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D657" s="72"/>
+    </row>
+    <row r="658" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D658" s="72"/>
+    </row>
+    <row r="659" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D659" s="72"/>
+    </row>
+    <row r="660" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D660" s="72"/>
+    </row>
+    <row r="661" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D661" s="72"/>
+    </row>
+    <row r="662" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D662" s="72"/>
+    </row>
+    <row r="663" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D663" s="72"/>
+    </row>
+    <row r="664" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D664" s="72"/>
+    </row>
+    <row r="665" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D665" s="72"/>
+    </row>
+    <row r="666" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D666" s="72"/>
+    </row>
+    <row r="667" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D667" s="72"/>
+    </row>
+    <row r="668" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D668" s="72"/>
+    </row>
+    <row r="669" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D669" s="72"/>
+    </row>
+    <row r="670" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D670" s="72"/>
+    </row>
+    <row r="671" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D671" s="72"/>
+    </row>
+    <row r="672" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D672" s="72"/>
+    </row>
+    <row r="673" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D673" s="72"/>
+    </row>
+    <row r="674" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D674" s="72"/>
+    </row>
+    <row r="675" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D675" s="72"/>
+    </row>
+    <row r="676" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D676" s="72"/>
+    </row>
+    <row r="677" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D677" s="72"/>
+    </row>
+    <row r="678" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D678" s="72"/>
+    </row>
+    <row r="679" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D679" s="72"/>
+    </row>
+    <row r="680" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D680" s="72"/>
+    </row>
+    <row r="681" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D681" s="72"/>
+    </row>
+    <row r="682" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D682" s="72"/>
+    </row>
+    <row r="683" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D683" s="72"/>
+    </row>
+    <row r="684" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D684" s="72"/>
+    </row>
+    <row r="685" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D685" s="72"/>
+    </row>
+    <row r="686" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D686" s="72"/>
+    </row>
+    <row r="687" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D687" s="72"/>
+    </row>
+    <row r="688" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D688" s="72"/>
+    </row>
+    <row r="689" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D689" s="72"/>
+    </row>
+    <row r="690" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D690" s="72"/>
+    </row>
+    <row r="691" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D691" s="72"/>
+    </row>
+    <row r="692" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D692" s="72"/>
+    </row>
+    <row r="693" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D693" s="72"/>
+    </row>
+    <row r="694" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D694" s="72"/>
+    </row>
+    <row r="695" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D695" s="72"/>
+    </row>
+    <row r="696" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D696" s="72"/>
+    </row>
+    <row r="697" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D697" s="72"/>
+    </row>
+    <row r="698" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D698" s="72"/>
+    </row>
+    <row r="699" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D699" s="72"/>
+    </row>
+    <row r="700" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D700" s="72"/>
+    </row>
+    <row r="701" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D701" s="72"/>
+    </row>
+    <row r="702" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D702" s="72"/>
+    </row>
+    <row r="703" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D703" s="72"/>
+    </row>
+    <row r="704" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D704" s="72"/>
+    </row>
+    <row r="705" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D705" s="72"/>
+    </row>
+    <row r="706" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D706" s="72"/>
+    </row>
+    <row r="707" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D707" s="72"/>
+    </row>
+    <row r="708" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D708" s="72"/>
+    </row>
+    <row r="709" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D709" s="72"/>
+    </row>
+    <row r="710" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D710" s="72"/>
+    </row>
+    <row r="711" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D711" s="72"/>
+    </row>
+    <row r="712" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D712" s="72"/>
+    </row>
+    <row r="713" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D713" s="72"/>
+    </row>
+    <row r="714" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D714" s="72"/>
+    </row>
+    <row r="715" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D715" s="72"/>
+    </row>
+    <row r="716" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D716" s="72"/>
+    </row>
+    <row r="717" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D717" s="72"/>
+    </row>
+    <row r="718" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D718" s="72"/>
+    </row>
+    <row r="719" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D719" s="72"/>
+    </row>
+    <row r="720" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D720" s="72"/>
+    </row>
+    <row r="721" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D721" s="72"/>
+    </row>
+    <row r="722" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D722" s="72"/>
+    </row>
+    <row r="723" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D723" s="72"/>
+    </row>
+    <row r="724" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D724" s="72"/>
+    </row>
+    <row r="725" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D725" s="72"/>
+    </row>
+    <row r="726" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D726" s="72"/>
+    </row>
+    <row r="727" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D727" s="72"/>
+    </row>
+    <row r="728" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D728" s="72"/>
+    </row>
+    <row r="729" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D729" s="72"/>
+    </row>
+    <row r="730" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D730" s="72"/>
+    </row>
+    <row r="731" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D731" s="72"/>
+    </row>
+    <row r="732" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D732" s="72"/>
+    </row>
+    <row r="733" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D733" s="72"/>
+    </row>
+    <row r="734" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D734" s="72"/>
+    </row>
+    <row r="735" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D735" s="72"/>
+    </row>
+    <row r="736" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D736" s="72"/>
+    </row>
+    <row r="737" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D737" s="72"/>
+    </row>
+    <row r="738" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D738" s="72"/>
+    </row>
+    <row r="739" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D739" s="72"/>
+    </row>
+    <row r="740" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D740" s="72"/>
+    </row>
+    <row r="741" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D741" s="72"/>
+    </row>
+    <row r="742" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D742" s="72"/>
+    </row>
+    <row r="743" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D743" s="72"/>
+    </row>
+    <row r="744" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D744" s="72"/>
+    </row>
+    <row r="745" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D745" s="72"/>
+    </row>
+    <row r="746" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D746" s="72"/>
+    </row>
+    <row r="747" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D747" s="72"/>
+    </row>
+    <row r="748" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D748" s="72"/>
+    </row>
+    <row r="749" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D749" s="72"/>
+    </row>
+    <row r="750" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D750" s="72"/>
+    </row>
+    <row r="751" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D751" s="72"/>
+    </row>
+    <row r="752" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D752" s="72"/>
+    </row>
+    <row r="753" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D753" s="72"/>
+    </row>
+    <row r="754" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D754" s="72"/>
+    </row>
+    <row r="755" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D755" s="72"/>
+    </row>
+    <row r="756" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D756" s="72"/>
+    </row>
+    <row r="757" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D757" s="72"/>
+    </row>
+    <row r="758" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D758" s="72"/>
+    </row>
+    <row r="759" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D759" s="72"/>
+    </row>
+    <row r="760" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D760" s="72"/>
+    </row>
+    <row r="761" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D761" s="72"/>
+    </row>
+    <row r="762" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D762" s="72"/>
+    </row>
+    <row r="763" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D763" s="72"/>
+    </row>
+    <row r="764" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D764" s="72"/>
+    </row>
+    <row r="765" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D765" s="72"/>
+    </row>
+    <row r="766" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D766" s="72"/>
+    </row>
+    <row r="767" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D767" s="72"/>
+    </row>
+    <row r="768" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D768" s="72"/>
+    </row>
+    <row r="769" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D769" s="72"/>
+    </row>
+    <row r="770" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D770" s="72"/>
+    </row>
+    <row r="771" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D771" s="72"/>
+    </row>
+    <row r="772" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D772" s="72"/>
+    </row>
+    <row r="773" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D773" s="72"/>
+    </row>
+    <row r="774" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D774" s="72"/>
+    </row>
+    <row r="775" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D775" s="72"/>
+    </row>
+    <row r="776" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D776" s="72"/>
+    </row>
+    <row r="777" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D777" s="72"/>
+    </row>
+    <row r="778" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D778" s="72"/>
+    </row>
+    <row r="779" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D779" s="72"/>
+    </row>
+    <row r="780" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D780" s="72"/>
+    </row>
+    <row r="781" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D781" s="72"/>
+    </row>
+    <row r="782" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D782" s="72"/>
+    </row>
+    <row r="783" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D783" s="72"/>
+    </row>
+    <row r="784" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D784" s="72"/>
+    </row>
+    <row r="785" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D785" s="72"/>
+    </row>
+    <row r="786" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D786" s="72"/>
+    </row>
+    <row r="787" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D787" s="72"/>
+    </row>
+    <row r="788" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D788" s="72"/>
+    </row>
+    <row r="789" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D789" s="72"/>
+    </row>
+    <row r="790" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D790" s="72"/>
+    </row>
+    <row r="791" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D791" s="72"/>
+    </row>
+    <row r="792" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D792" s="72"/>
+    </row>
+    <row r="793" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D793" s="72"/>
+    </row>
+    <row r="794" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D794" s="72"/>
+    </row>
+    <row r="795" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D795" s="72"/>
+    </row>
+    <row r="796" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D796" s="72"/>
+    </row>
+    <row r="797" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D797" s="72"/>
+    </row>
+    <row r="798" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D798" s="72"/>
+    </row>
+    <row r="799" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D799" s="72"/>
+    </row>
+    <row r="800" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D800" s="72"/>
+    </row>
+    <row r="801" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D801" s="72"/>
+    </row>
+    <row r="802" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D802" s="72"/>
+    </row>
+    <row r="803" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D803" s="72"/>
+    </row>
+    <row r="804" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D804" s="72"/>
+    </row>
+    <row r="805" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D805" s="72"/>
+    </row>
+    <row r="806" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D806" s="72"/>
+    </row>
+    <row r="807" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D807" s="72"/>
+    </row>
+    <row r="808" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D808" s="72"/>
+    </row>
+    <row r="809" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D809" s="72"/>
+    </row>
+    <row r="810" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D810" s="72"/>
+    </row>
+    <row r="811" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D811" s="72"/>
+    </row>
+    <row r="812" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D812" s="72"/>
+    </row>
+    <row r="813" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D813" s="72"/>
+    </row>
+    <row r="814" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D814" s="72"/>
+    </row>
+    <row r="815" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D815" s="72"/>
+    </row>
+    <row r="816" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D816" s="72"/>
+    </row>
+    <row r="817" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D817" s="72"/>
+    </row>
+    <row r="818" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D818" s="72"/>
+    </row>
+    <row r="819" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D819" s="72"/>
+    </row>
+    <row r="820" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D820" s="72"/>
+    </row>
+    <row r="821" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D821" s="72"/>
+    </row>
+    <row r="822" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D822" s="72"/>
+    </row>
+    <row r="823" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D823" s="72"/>
+    </row>
+    <row r="824" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D824" s="72"/>
+    </row>
+    <row r="825" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D825" s="72"/>
+    </row>
+    <row r="826" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D826" s="72"/>
+    </row>
+    <row r="827" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D827" s="72"/>
+    </row>
+    <row r="828" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D828" s="72"/>
+    </row>
+    <row r="829" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D829" s="72"/>
+    </row>
+    <row r="830" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D830" s="72"/>
+    </row>
+    <row r="831" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D831" s="72"/>
+    </row>
+    <row r="832" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D832" s="72"/>
+    </row>
+    <row r="833" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D833" s="72"/>
+    </row>
+    <row r="834" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D834" s="72"/>
+    </row>
+    <row r="835" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D835" s="72"/>
+    </row>
+    <row r="836" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D836" s="72"/>
+    </row>
+    <row r="837" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D837" s="72"/>
+    </row>
+    <row r="838" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D838" s="72"/>
+    </row>
+    <row r="839" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D839" s="72"/>
+    </row>
+    <row r="840" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D840" s="72"/>
+    </row>
+    <row r="841" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D841" s="72"/>
+    </row>
+    <row r="842" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D842" s="72"/>
+    </row>
+    <row r="843" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D843" s="72"/>
+    </row>
+    <row r="844" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D844" s="72"/>
+    </row>
+    <row r="845" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D845" s="72"/>
+    </row>
+    <row r="846" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D846" s="72"/>
+    </row>
+    <row r="847" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D847" s="72"/>
+    </row>
+    <row r="848" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D848" s="72"/>
+    </row>
+    <row r="849" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D849" s="72"/>
+    </row>
+    <row r="850" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D850" s="72"/>
+    </row>
+    <row r="851" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D851" s="72"/>
+    </row>
+    <row r="852" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D852" s="72"/>
+    </row>
+    <row r="853" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D853" s="72"/>
+    </row>
+    <row r="854" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D854" s="72"/>
+    </row>
+    <row r="855" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D855" s="72"/>
+    </row>
+    <row r="856" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D856" s="72"/>
+    </row>
+    <row r="857" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D857" s="72"/>
+    </row>
+    <row r="858" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D858" s="72"/>
+    </row>
+    <row r="859" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D859" s="72"/>
+    </row>
+    <row r="860" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D860" s="72"/>
+    </row>
+    <row r="861" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D861" s="72"/>
+    </row>
+    <row r="862" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D862" s="72"/>
+    </row>
+    <row r="863" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D863" s="72"/>
+    </row>
+    <row r="864" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D864" s="72"/>
+    </row>
+    <row r="865" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D865" s="72"/>
+    </row>
+    <row r="866" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D866" s="72"/>
+    </row>
+    <row r="867" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D867" s="72"/>
+    </row>
+    <row r="868" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D868" s="72"/>
+    </row>
+    <row r="869" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D869" s="72"/>
+    </row>
+    <row r="870" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D870" s="72"/>
+    </row>
+    <row r="871" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D871" s="72"/>
+    </row>
+    <row r="872" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D872" s="72"/>
+    </row>
+    <row r="873" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D873" s="72"/>
+    </row>
+    <row r="874" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D874" s="72"/>
+    </row>
+    <row r="875" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D875" s="72"/>
+    </row>
+    <row r="876" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D876" s="72"/>
+    </row>
+    <row r="877" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D877" s="72"/>
+    </row>
+    <row r="878" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D878" s="72"/>
+    </row>
+    <row r="879" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D879" s="72"/>
+    </row>
+    <row r="880" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D880" s="72"/>
+    </row>
+    <row r="881" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D881" s="72"/>
+    </row>
+    <row r="882" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D882" s="72"/>
+    </row>
+    <row r="883" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D883" s="72"/>
+    </row>
+    <row r="884" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D884" s="72"/>
+    </row>
+    <row r="885" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D885" s="72"/>
+    </row>
+    <row r="886" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D886" s="72"/>
+    </row>
+    <row r="887" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D887" s="72"/>
+    </row>
+    <row r="888" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D888" s="72"/>
+    </row>
+    <row r="889" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D889" s="72"/>
+    </row>
+    <row r="890" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D890" s="72"/>
+    </row>
+    <row r="891" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D891" s="72"/>
+    </row>
+    <row r="892" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D892" s="72"/>
+    </row>
+    <row r="893" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D893" s="72"/>
+    </row>
+    <row r="894" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D894" s="72"/>
+    </row>
+    <row r="895" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D895" s="72"/>
+    </row>
+    <row r="896" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D896" s="72"/>
+    </row>
+    <row r="897" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D897" s="72"/>
+    </row>
+    <row r="898" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D898" s="72"/>
+    </row>
+    <row r="899" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D899" s="72"/>
+    </row>
+    <row r="900" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D900" s="72"/>
+    </row>
+    <row r="901" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D901" s="72"/>
+    </row>
+    <row r="902" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D902" s="72"/>
+    </row>
+    <row r="903" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D903" s="72"/>
+    </row>
+    <row r="904" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D904" s="72"/>
+    </row>
+    <row r="905" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D905" s="72"/>
+    </row>
+    <row r="906" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D906" s="72"/>
+    </row>
+    <row r="907" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D907" s="72"/>
+    </row>
+    <row r="908" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D908" s="72"/>
+    </row>
+    <row r="909" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D909" s="72"/>
+    </row>
+    <row r="910" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D910" s="72"/>
+    </row>
+    <row r="911" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D911" s="72"/>
+    </row>
+    <row r="912" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D912" s="72"/>
+    </row>
+    <row r="913" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D913" s="72"/>
+    </row>
+    <row r="914" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D914" s="72"/>
+    </row>
+    <row r="915" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D915" s="72"/>
+    </row>
+    <row r="916" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D916" s="72"/>
+    </row>
+    <row r="917" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D917" s="72"/>
+    </row>
+    <row r="918" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D918" s="72"/>
+    </row>
+    <row r="919" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D919" s="72"/>
+    </row>
+    <row r="920" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D920" s="72"/>
+    </row>
+    <row r="921" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D921" s="72"/>
+    </row>
+    <row r="922" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D922" s="72"/>
+    </row>
+    <row r="923" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D923" s="72"/>
+    </row>
+    <row r="924" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D924" s="72"/>
+    </row>
+    <row r="925" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D925" s="72"/>
+    </row>
+    <row r="926" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D926" s="72"/>
+    </row>
+    <row r="927" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D927" s="72"/>
+    </row>
+    <row r="928" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D928" s="72"/>
+    </row>
+    <row r="929" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D929" s="72"/>
+    </row>
+    <row r="930" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D930" s="72"/>
+    </row>
+    <row r="931" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D931" s="72"/>
+    </row>
+    <row r="932" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D932" s="72"/>
+    </row>
+    <row r="933" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D933" s="72"/>
+    </row>
+    <row r="934" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D934" s="72"/>
+    </row>
+    <row r="935" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D935" s="72"/>
+    </row>
+    <row r="936" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D936" s="72"/>
+    </row>
+    <row r="937" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D937" s="72"/>
+    </row>
+    <row r="938" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D938" s="72"/>
+    </row>
+    <row r="939" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D939" s="72"/>
+    </row>
+    <row r="940" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D940" s="72"/>
+    </row>
+    <row r="941" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D941" s="72"/>
+    </row>
+    <row r="942" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D942" s="72"/>
+    </row>
+    <row r="943" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D943" s="72"/>
+    </row>
+    <row r="944" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D944" s="72"/>
+    </row>
+    <row r="945" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D945" s="72"/>
+    </row>
+    <row r="946" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D946" s="72"/>
+    </row>
+    <row r="947" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D947" s="72"/>
+    </row>
+    <row r="948" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D948" s="72"/>
+    </row>
+    <row r="949" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D949" s="72"/>
+    </row>
+    <row r="950" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D950" s="72"/>
+    </row>
+    <row r="951" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D951" s="72"/>
+    </row>
+    <row r="952" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D952" s="72"/>
+    </row>
+    <row r="953" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D953" s="72"/>
+    </row>
+    <row r="954" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D954" s="72"/>
+    </row>
+    <row r="955" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D955" s="72"/>
+    </row>
+    <row r="956" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D956" s="72"/>
+    </row>
+    <row r="957" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D957" s="72"/>
+    </row>
+    <row r="958" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D958" s="72"/>
+    </row>
+    <row r="959" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D959" s="72"/>
+    </row>
+    <row r="960" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D960" s="72"/>
+    </row>
+    <row r="961" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D961" s="72"/>
+    </row>
+    <row r="962" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D962" s="72"/>
+    </row>
+    <row r="963" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D963" s="72"/>
+    </row>
+    <row r="964" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D964" s="72"/>
+    </row>
+    <row r="965" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D965" s="72"/>
+    </row>
+    <row r="966" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D966" s="72"/>
+    </row>
+    <row r="967" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D967" s="72"/>
+    </row>
+    <row r="968" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D968" s="72"/>
+    </row>
+    <row r="969" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D969" s="72"/>
+    </row>
+    <row r="970" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D970" s="72"/>
+    </row>
+    <row r="971" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D971" s="72"/>
+    </row>
+    <row r="972" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D972" s="72"/>
+    </row>
+    <row r="973" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D973" s="72"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{EB3209EA-33FC-4EFD-B7D2-ECB1D026C5EA}"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{AC18B8B0-D47E-4CAD-8B84-B460BB242E0B}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{4AC07E05-E31F-4B5D-A322-B4DBA6AD3C60}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{87C6CD73-776E-4389-A8BD-F96928AB3688}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5811,8 +10219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6956C556-3A37-4B72-AFDC-C20EB71A0CB6}">
   <dimension ref="A1:J986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6277,104 +10685,122 @@
       <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="45"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="53">
         <v>2</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="54">
+        <v>3.83</v>
+      </c>
+      <c r="F21" s="55">
+        <v>1</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57">
+        <f>E21*F21</f>
+        <v>3.83</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="58"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="24">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="F21" s="14">
+      <c r="D22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="60">
+        <v>9.99</v>
+      </c>
+      <c r="F22" s="55">
         <v>1</v>
       </c>
-      <c r="G21" s="15">
-        <v>4.99</v>
-      </c>
-      <c r="H21" s="27">
-        <f>E21*F21</f>
-        <v>17.309999999999999</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="44">
-        <v>44680</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="45"/>
-    </row>
-    <row r="23" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
+      <c r="G22" s="61">
+        <v>18</v>
+      </c>
+      <c r="H22" s="57">
+        <f>E22*F22</f>
+        <v>9.99</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+    </row>
+    <row r="24" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="24">
-        <v>20.74</v>
-      </c>
-      <c r="F23" s="14">
+      <c r="E24" s="62">
+        <v>20.37</v>
+      </c>
+      <c r="F24" s="55">
         <v>2</v>
       </c>
-      <c r="G23" s="15">
-        <v>3.64</v>
-      </c>
-      <c r="H23" s="37">
-        <f t="shared" ref="H23" si="1">E23*F23</f>
-        <v>41.48</v>
-      </c>
-      <c r="I23" s="9" t="s">
+      <c r="G24" s="61">
+        <v>3.58</v>
+      </c>
+      <c r="H24" s="63">
+        <f t="shared" ref="H24" si="1">E24*F24</f>
+        <v>40.74</v>
+      </c>
+      <c r="I24" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="44"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="28" t="s">
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="41">
-        <f>SUM(G2:G23)</f>
-        <v>57.160000000000004</v>
-      </c>
-      <c r="H24" s="38">
-        <f>+SUM(H2:H23)</f>
-        <v>543.92999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="41">
+        <f>SUM(G2:G24)</f>
+        <v>70.11</v>
+      </c>
+      <c r="H25" s="38">
+        <f>+SUM(H2:H24)</f>
+        <v>539.69999999999993</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F26" s="39"/>
@@ -6382,14 +10808,19 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="29">
-        <f>G24+H24</f>
-        <v>601.08999999999992</v>
-      </c>
-      <c r="H27" s="3"/>
+      <c r="G28" s="29">
+        <f>G25+H25</f>
+        <v>609.80999999999995</v>
+      </c>
+      <c r="H28" s="3"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
@@ -10567,7 +14998,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A19"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -10583,9 +15014,11 @@
     <hyperlink ref="I19" r:id="rId10" xr:uid="{09C581F8-5D80-4133-B971-8C2D483E3FB9}"/>
     <hyperlink ref="I9" r:id="rId11" display="https://www.amazon.fr/ELEGOO-Ultrason-Distance-MEGA2560-Ultrasonic/dp/B06XSJPVW9/ref=sr_1_1_sspa?keywords=US+HC-SR04&amp;qid=1650984368&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyMzNNNE8xSDU5MjVCJmVuY3J5cHRlZElkPUEwNDIyMjQyMUJKMkROMkNWREdDNCZlbmNyeXB0ZWRBZElkPUEwNDgwNjA0MzZJTlFLRURORVlQQyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=" xr:uid="{298EA625-A76C-4792-80BF-9CE9217A0174}"/>
     <hyperlink ref="I10" r:id="rId12" xr:uid="{E919EC81-9C51-468A-AE1B-D9D46C33330C}"/>
-    <hyperlink ref="I23" r:id="rId13" xr:uid="{C5877A85-7759-4B85-92BD-C9FDEDB90BD4}"/>
+    <hyperlink ref="I24" r:id="rId13" xr:uid="{D8E9D246-95FF-47F5-9220-B513E04EEB0B}"/>
+    <hyperlink ref="I21" r:id="rId14" xr:uid="{831DCAB6-392B-4C3C-9E51-7D40238DC9F7}"/>
+    <hyperlink ref="I22" r:id="rId15" xr:uid="{127F38AF-B444-48C7-9B15-2B98192926B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/GestionDeProjet/Commandes/Commandes.xlsx
+++ b/GestionDeProjet/Commandes/Commandes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\Commandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E50A135-7BDF-454B-B03E-DF524EAE7B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D42B4-315F-44D6-BBD1-62957C68B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commande_1" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -627,15 +627,6 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -648,9 +639,6 @@
     <xf numFmtId="14" fontId="10" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -661,9 +649,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -715,6 +700,42 @@
     <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -999,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H987"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5767,7 +5788,7 @@
   <dimension ref="A1:I973"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5781,42 +5802,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="49"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -5826,18 +5847,18 @@
       <c r="C3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="50">
         <v>3.83</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="51">
         <v>1</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57">
+      <c r="F3" s="52"/>
+      <c r="G3" s="53">
         <f>D3*E3</f>
         <v>3.83</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="54" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5845,20 +5866,20 @@
       <c r="A4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="55">
         <v>9.99</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="51">
         <v>1</v>
       </c>
-      <c r="F4" s="61">
-        <v>18</v>
-      </c>
-      <c r="G4" s="57">
+      <c r="F4" s="56">
+        <v>30</v>
+      </c>
+      <c r="G4" s="53">
         <f>D4*E4</f>
         <v>9.99</v>
       </c>
@@ -5867,4343 +5888,4343 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="70" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="57">
         <v>20.37</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="51">
         <v>2</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="56">
         <v>3.58</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="58">
         <f t="shared" ref="G6" si="0">D6*E6</f>
         <v>40.74</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="76"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="64" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="41">
         <f>SUM(F3:F6)</f>
-        <v>21.58</v>
-      </c>
-      <c r="G7" s="77">
+        <v>33.58</v>
+      </c>
+      <c r="G7" s="72">
         <f>SUM(G3:G6)</f>
         <v>54.56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="67"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="67"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="65">
         <f>F7+G7</f>
-        <v>76.14</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
+        <v>88.14</v>
+      </c>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="H11" s="67"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="H12" s="67"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="H13" s="67"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="H14" s="67"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="67"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
-      <c r="B69" s="67"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
-      <c r="B79" s="67"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="67"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="67"/>
-      <c r="B82" s="67"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="62"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
-      <c r="B87" s="67"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="67"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
-      <c r="B89" s="67"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
+      <c r="A89" s="62"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="62"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
-      <c r="B90" s="67"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
-      <c r="B91" s="67"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
+      <c r="A91" s="62"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="62"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="67"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
-      <c r="B93" s="67"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="62"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
-      <c r="B94" s="67"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="62"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
-      <c r="B95" s="67"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
+      <c r="A95" s="62"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="62"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="67"/>
-      <c r="B96" s="67"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
-      <c r="B97" s="67"/>
-      <c r="C97" s="67"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
+      <c r="A97" s="62"/>
+      <c r="B97" s="62"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="67"/>
-      <c r="B98" s="67"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
+      <c r="A98" s="62"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="62"/>
+      <c r="H98" s="62"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
+      <c r="A99" s="62"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
+      <c r="A100" s="62"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="62"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
-      <c r="B101" s="67"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
+      <c r="A101" s="62"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="62"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
+      <c r="A102" s="62"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
+      <c r="A103" s="62"/>
+      <c r="B103" s="62"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
-      <c r="B104" s="67"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
+      <c r="A104" s="62"/>
+      <c r="B104" s="62"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="62"/>
+      <c r="H104" s="62"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
+      <c r="A105" s="62"/>
+      <c r="B105" s="62"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="67"/>
+      <c r="A106" s="62"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
-      <c r="B107" s="67"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
+      <c r="A107" s="62"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="67"/>
-      <c r="B108" s="67"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
+      <c r="A108" s="62"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="62"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="62"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="62"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="62"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="62"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
-      <c r="B111" s="67"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
+      <c r="A111" s="62"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="62"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
-      <c r="B112" s="67"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="67"/>
-      <c r="H112" s="67"/>
+      <c r="A112" s="62"/>
+      <c r="B112" s="62"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
-      <c r="B113" s="67"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
+      <c r="A113" s="62"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="67"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
+      <c r="A114" s="62"/>
+      <c r="B114" s="62"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="62"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="68"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
+      <c r="A115" s="62"/>
+      <c r="B115" s="62"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="62"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="67"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="67"/>
-      <c r="H116" s="67"/>
+      <c r="A116" s="62"/>
+      <c r="B116" s="62"/>
+      <c r="C116" s="62"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="62"/>
+      <c r="H116" s="62"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="67"/>
-      <c r="B117" s="67"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
+      <c r="A117" s="62"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="62"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="67"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="67"/>
-      <c r="H118" s="67"/>
+      <c r="A118" s="62"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="62"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="62"/>
+      <c r="F118" s="62"/>
+      <c r="G118" s="62"/>
+      <c r="H118" s="62"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
-      <c r="B119" s="67"/>
-      <c r="C119" s="67"/>
-      <c r="D119" s="68"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
+      <c r="A119" s="62"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="62"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
-      <c r="B120" s="67"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="67"/>
+      <c r="A120" s="62"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="62"/>
+      <c r="D120" s="63"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="62"/>
+      <c r="G120" s="62"/>
+      <c r="H120" s="62"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
-      <c r="B121" s="67"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="67"/>
-      <c r="H121" s="67"/>
+      <c r="A121" s="62"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="62"/>
+      <c r="D121" s="63"/>
+      <c r="E121" s="62"/>
+      <c r="F121" s="62"/>
+      <c r="G121" s="62"/>
+      <c r="H121" s="62"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="67"/>
-      <c r="B122" s="67"/>
-      <c r="C122" s="67"/>
-      <c r="D122" s="68"/>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="67"/>
+      <c r="A122" s="62"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="62"/>
+      <c r="F122" s="62"/>
+      <c r="G122" s="62"/>
+      <c r="H122" s="62"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
-      <c r="B123" s="67"/>
-      <c r="C123" s="67"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="67"/>
-      <c r="H123" s="67"/>
+      <c r="A123" s="62"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="63"/>
+      <c r="E123" s="62"/>
+      <c r="F123" s="62"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="62"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
-      <c r="B124" s="67"/>
-      <c r="C124" s="67"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="67"/>
-      <c r="H124" s="67"/>
+      <c r="A124" s="62"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="62"/>
+      <c r="D124" s="63"/>
+      <c r="E124" s="62"/>
+      <c r="F124" s="62"/>
+      <c r="G124" s="62"/>
+      <c r="H124" s="62"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
-      <c r="B125" s="67"/>
-      <c r="C125" s="67"/>
-      <c r="D125" s="68"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="67"/>
-      <c r="H125" s="67"/>
+      <c r="A125" s="62"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="63"/>
+      <c r="E125" s="62"/>
+      <c r="F125" s="62"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="62"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
-      <c r="B126" s="67"/>
-      <c r="C126" s="67"/>
-      <c r="D126" s="68"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67"/>
-      <c r="H126" s="67"/>
+      <c r="A126" s="62"/>
+      <c r="B126" s="62"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="62"/>
+      <c r="F126" s="62"/>
+      <c r="G126" s="62"/>
+      <c r="H126" s="62"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
-      <c r="B127" s="67"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
+      <c r="A127" s="62"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="62"/>
+      <c r="F127" s="62"/>
+      <c r="G127" s="62"/>
+      <c r="H127" s="62"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
-      <c r="B128" s="67"/>
-      <c r="C128" s="67"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
+      <c r="A128" s="62"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="62"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="62"/>
+      <c r="H128" s="62"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
-      <c r="B129" s="67"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
+      <c r="A129" s="62"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="62"/>
+      <c r="F129" s="62"/>
+      <c r="G129" s="62"/>
+      <c r="H129" s="62"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="67"/>
-      <c r="B130" s="67"/>
-      <c r="C130" s="67"/>
-      <c r="D130" s="68"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="67"/>
-      <c r="H130" s="67"/>
+      <c r="A130" s="62"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="62"/>
+      <c r="D130" s="63"/>
+      <c r="E130" s="62"/>
+      <c r="F130" s="62"/>
+      <c r="G130" s="62"/>
+      <c r="H130" s="62"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
-      <c r="B131" s="67"/>
-      <c r="C131" s="67"/>
-      <c r="D131" s="68"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
+      <c r="A131" s="62"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="62"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="62"/>
+      <c r="F131" s="62"/>
+      <c r="G131" s="62"/>
+      <c r="H131" s="62"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
-      <c r="B132" s="67"/>
-      <c r="C132" s="67"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="67"/>
-      <c r="H132" s="67"/>
+      <c r="A132" s="62"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="62"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="62"/>
+      <c r="F132" s="62"/>
+      <c r="G132" s="62"/>
+      <c r="H132" s="62"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
-      <c r="B133" s="67"/>
-      <c r="C133" s="67"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="67"/>
-      <c r="F133" s="67"/>
-      <c r="G133" s="67"/>
-      <c r="H133" s="67"/>
+      <c r="A133" s="62"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="62"/>
+      <c r="F133" s="62"/>
+      <c r="G133" s="62"/>
+      <c r="H133" s="62"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="67"/>
-      <c r="B134" s="67"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="67"/>
-      <c r="F134" s="67"/>
-      <c r="G134" s="67"/>
-      <c r="H134" s="67"/>
+      <c r="A134" s="62"/>
+      <c r="B134" s="62"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="62"/>
+      <c r="F134" s="62"/>
+      <c r="G134" s="62"/>
+      <c r="H134" s="62"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
-      <c r="B135" s="67"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="67"/>
-      <c r="H135" s="67"/>
+      <c r="A135" s="62"/>
+      <c r="B135" s="62"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="62"/>
+      <c r="F135" s="62"/>
+      <c r="G135" s="62"/>
+      <c r="H135" s="62"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
-      <c r="B136" s="67"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="68"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="67"/>
-      <c r="G136" s="67"/>
-      <c r="H136" s="67"/>
+      <c r="A136" s="62"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="62"/>
+      <c r="F136" s="62"/>
+      <c r="G136" s="62"/>
+      <c r="H136" s="62"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
-      <c r="B137" s="67"/>
-      <c r="C137" s="67"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="67"/>
-      <c r="F137" s="67"/>
-      <c r="G137" s="67"/>
-      <c r="H137" s="67"/>
+      <c r="A137" s="62"/>
+      <c r="B137" s="62"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="62"/>
+      <c r="G137" s="62"/>
+      <c r="H137" s="62"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
-      <c r="B138" s="67"/>
-      <c r="C138" s="67"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="67"/>
-      <c r="F138" s="67"/>
-      <c r="G138" s="67"/>
-      <c r="H138" s="67"/>
+      <c r="A138" s="62"/>
+      <c r="B138" s="62"/>
+      <c r="C138" s="62"/>
+      <c r="D138" s="63"/>
+      <c r="E138" s="62"/>
+      <c r="F138" s="62"/>
+      <c r="G138" s="62"/>
+      <c r="H138" s="62"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
-      <c r="B139" s="67"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="67"/>
-      <c r="H139" s="67"/>
+      <c r="A139" s="62"/>
+      <c r="B139" s="62"/>
+      <c r="C139" s="62"/>
+      <c r="D139" s="63"/>
+      <c r="E139" s="62"/>
+      <c r="F139" s="62"/>
+      <c r="G139" s="62"/>
+      <c r="H139" s="62"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
-      <c r="B140" s="67"/>
-      <c r="C140" s="67"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="67"/>
-      <c r="G140" s="67"/>
-      <c r="H140" s="67"/>
+      <c r="A140" s="62"/>
+      <c r="B140" s="62"/>
+      <c r="C140" s="62"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="62"/>
+      <c r="F140" s="62"/>
+      <c r="G140" s="62"/>
+      <c r="H140" s="62"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
-      <c r="B141" s="67"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="67"/>
-      <c r="H141" s="67"/>
+      <c r="A141" s="62"/>
+      <c r="B141" s="62"/>
+      <c r="C141" s="62"/>
+      <c r="D141" s="63"/>
+      <c r="E141" s="62"/>
+      <c r="F141" s="62"/>
+      <c r="G141" s="62"/>
+      <c r="H141" s="62"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
-      <c r="B142" s="67"/>
-      <c r="C142" s="67"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="67"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="67"/>
-      <c r="H142" s="67"/>
+      <c r="A142" s="62"/>
+      <c r="B142" s="62"/>
+      <c r="C142" s="62"/>
+      <c r="D142" s="63"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="62"/>
+      <c r="H142" s="62"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
-      <c r="B143" s="67"/>
-      <c r="C143" s="67"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="67"/>
-      <c r="F143" s="67"/>
-      <c r="G143" s="67"/>
-      <c r="H143" s="67"/>
+      <c r="A143" s="62"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="62"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="62"/>
+      <c r="H143" s="62"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
-      <c r="B144" s="67"/>
-      <c r="C144" s="67"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="67"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="67"/>
-      <c r="H144" s="67"/>
+      <c r="A144" s="62"/>
+      <c r="B144" s="62"/>
+      <c r="C144" s="62"/>
+      <c r="D144" s="63"/>
+      <c r="E144" s="62"/>
+      <c r="F144" s="62"/>
+      <c r="G144" s="62"/>
+      <c r="H144" s="62"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="67"/>
-      <c r="B145" s="67"/>
-      <c r="C145" s="67"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="67"/>
-      <c r="H145" s="67"/>
+      <c r="A145" s="62"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="62"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="62"/>
+      <c r="F145" s="62"/>
+      <c r="G145" s="62"/>
+      <c r="H145" s="62"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="67"/>
-      <c r="B146" s="67"/>
-      <c r="C146" s="67"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="67"/>
-      <c r="H146" s="67"/>
+      <c r="A146" s="62"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="62"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="67"/>
-      <c r="B147" s="67"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="67"/>
-      <c r="G147" s="67"/>
-      <c r="H147" s="67"/>
+      <c r="A147" s="62"/>
+      <c r="B147" s="62"/>
+      <c r="C147" s="62"/>
+      <c r="D147" s="63"/>
+      <c r="E147" s="62"/>
+      <c r="F147" s="62"/>
+      <c r="G147" s="62"/>
+      <c r="H147" s="62"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="67"/>
-      <c r="B148" s="67"/>
-      <c r="C148" s="67"/>
-      <c r="D148" s="68"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="67"/>
-      <c r="G148" s="67"/>
-      <c r="H148" s="67"/>
+      <c r="A148" s="62"/>
+      <c r="B148" s="62"/>
+      <c r="C148" s="62"/>
+      <c r="D148" s="63"/>
+      <c r="E148" s="62"/>
+      <c r="F148" s="62"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="62"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
-      <c r="B149" s="67"/>
-      <c r="C149" s="67"/>
-      <c r="D149" s="68"/>
-      <c r="E149" s="67"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="67"/>
-      <c r="H149" s="67"/>
+      <c r="A149" s="62"/>
+      <c r="B149" s="62"/>
+      <c r="C149" s="62"/>
+      <c r="D149" s="63"/>
+      <c r="E149" s="62"/>
+      <c r="F149" s="62"/>
+      <c r="G149" s="62"/>
+      <c r="H149" s="62"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="67"/>
-      <c r="B150" s="67"/>
-      <c r="C150" s="67"/>
-      <c r="D150" s="68"/>
-      <c r="E150" s="67"/>
-      <c r="F150" s="67"/>
-      <c r="G150" s="67"/>
-      <c r="H150" s="67"/>
+      <c r="A150" s="62"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="62"/>
+      <c r="D150" s="63"/>
+      <c r="E150" s="62"/>
+      <c r="F150" s="62"/>
+      <c r="G150" s="62"/>
+      <c r="H150" s="62"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="67"/>
-      <c r="B151" s="67"/>
-      <c r="C151" s="67"/>
-      <c r="D151" s="68"/>
-      <c r="E151" s="67"/>
-      <c r="F151" s="67"/>
-      <c r="G151" s="67"/>
-      <c r="H151" s="67"/>
+      <c r="A151" s="62"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="62"/>
+      <c r="D151" s="63"/>
+      <c r="E151" s="62"/>
+      <c r="F151" s="62"/>
+      <c r="G151" s="62"/>
+      <c r="H151" s="62"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="67"/>
-      <c r="B152" s="67"/>
-      <c r="C152" s="67"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="67"/>
-      <c r="F152" s="67"/>
-      <c r="G152" s="67"/>
-      <c r="H152" s="67"/>
+      <c r="A152" s="62"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="62"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="62"/>
+      <c r="F152" s="62"/>
+      <c r="G152" s="62"/>
+      <c r="H152" s="62"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="67"/>
-      <c r="B153" s="67"/>
-      <c r="C153" s="67"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="67"/>
-      <c r="H153" s="67"/>
+      <c r="A153" s="62"/>
+      <c r="B153" s="62"/>
+      <c r="C153" s="62"/>
+      <c r="D153" s="63"/>
+      <c r="E153" s="62"/>
+      <c r="F153" s="62"/>
+      <c r="G153" s="62"/>
+      <c r="H153" s="62"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="67"/>
-      <c r="B154" s="67"/>
-      <c r="C154" s="67"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="67"/>
-      <c r="F154" s="67"/>
-      <c r="G154" s="67"/>
-      <c r="H154" s="67"/>
+      <c r="A154" s="62"/>
+      <c r="B154" s="62"/>
+      <c r="C154" s="62"/>
+      <c r="D154" s="63"/>
+      <c r="E154" s="62"/>
+      <c r="F154" s="62"/>
+      <c r="G154" s="62"/>
+      <c r="H154" s="62"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
-      <c r="B155" s="67"/>
-      <c r="C155" s="67"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="67"/>
-      <c r="F155" s="67"/>
-      <c r="G155" s="67"/>
-      <c r="H155" s="67"/>
+      <c r="A155" s="62"/>
+      <c r="B155" s="62"/>
+      <c r="C155" s="62"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="62"/>
+      <c r="G155" s="62"/>
+      <c r="H155" s="62"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="67"/>
-      <c r="B156" s="67"/>
-      <c r="C156" s="67"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="67"/>
-      <c r="F156" s="67"/>
-      <c r="G156" s="67"/>
-      <c r="H156" s="67"/>
+      <c r="A156" s="62"/>
+      <c r="B156" s="62"/>
+      <c r="C156" s="62"/>
+      <c r="D156" s="63"/>
+      <c r="E156" s="62"/>
+      <c r="F156" s="62"/>
+      <c r="G156" s="62"/>
+      <c r="H156" s="62"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="67"/>
-      <c r="B157" s="67"/>
-      <c r="C157" s="67"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="67"/>
-      <c r="F157" s="67"/>
-      <c r="G157" s="67"/>
-      <c r="H157" s="67"/>
+      <c r="A157" s="62"/>
+      <c r="B157" s="62"/>
+      <c r="C157" s="62"/>
+      <c r="D157" s="63"/>
+      <c r="E157" s="62"/>
+      <c r="F157" s="62"/>
+      <c r="G157" s="62"/>
+      <c r="H157" s="62"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
-      <c r="B158" s="67"/>
-      <c r="C158" s="67"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="67"/>
-      <c r="F158" s="67"/>
-      <c r="G158" s="67"/>
-      <c r="H158" s="67"/>
+      <c r="A158" s="62"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="62"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="62"/>
+      <c r="F158" s="62"/>
+      <c r="G158" s="62"/>
+      <c r="H158" s="62"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="67"/>
-      <c r="B159" s="67"/>
-      <c r="C159" s="67"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="67"/>
-      <c r="G159" s="67"/>
-      <c r="H159" s="67"/>
+      <c r="A159" s="62"/>
+      <c r="B159" s="62"/>
+      <c r="C159" s="62"/>
+      <c r="D159" s="63"/>
+      <c r="E159" s="62"/>
+      <c r="F159" s="62"/>
+      <c r="G159" s="62"/>
+      <c r="H159" s="62"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="67"/>
-      <c r="B160" s="67"/>
-      <c r="C160" s="67"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="67"/>
-      <c r="F160" s="67"/>
-      <c r="G160" s="67"/>
-      <c r="H160" s="67"/>
+      <c r="A160" s="62"/>
+      <c r="B160" s="62"/>
+      <c r="C160" s="62"/>
+      <c r="D160" s="63"/>
+      <c r="E160" s="62"/>
+      <c r="F160" s="62"/>
+      <c r="G160" s="62"/>
+      <c r="H160" s="62"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="67"/>
-      <c r="B161" s="67"/>
-      <c r="C161" s="67"/>
-      <c r="D161" s="68"/>
-      <c r="E161" s="67"/>
-      <c r="F161" s="67"/>
-      <c r="G161" s="67"/>
-      <c r="H161" s="67"/>
+      <c r="A161" s="62"/>
+      <c r="B161" s="62"/>
+      <c r="C161" s="62"/>
+      <c r="D161" s="63"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="62"/>
+      <c r="G161" s="62"/>
+      <c r="H161" s="62"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="67"/>
-      <c r="B162" s="67"/>
-      <c r="C162" s="67"/>
-      <c r="D162" s="68"/>
-      <c r="E162" s="67"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="67"/>
-      <c r="H162" s="67"/>
+      <c r="A162" s="62"/>
+      <c r="B162" s="62"/>
+      <c r="C162" s="62"/>
+      <c r="D162" s="63"/>
+      <c r="E162" s="62"/>
+      <c r="F162" s="62"/>
+      <c r="G162" s="62"/>
+      <c r="H162" s="62"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="67"/>
-      <c r="B163" s="67"/>
-      <c r="C163" s="67"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="67"/>
-      <c r="F163" s="67"/>
-      <c r="G163" s="67"/>
-      <c r="H163" s="67"/>
+      <c r="A163" s="62"/>
+      <c r="B163" s="62"/>
+      <c r="C163" s="62"/>
+      <c r="D163" s="63"/>
+      <c r="E163" s="62"/>
+      <c r="F163" s="62"/>
+      <c r="G163" s="62"/>
+      <c r="H163" s="62"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="67"/>
-      <c r="B164" s="67"/>
-      <c r="C164" s="67"/>
-      <c r="D164" s="68"/>
-      <c r="E164" s="67"/>
-      <c r="F164" s="67"/>
-      <c r="G164" s="67"/>
-      <c r="H164" s="67"/>
+      <c r="A164" s="62"/>
+      <c r="B164" s="62"/>
+      <c r="C164" s="62"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="62"/>
+      <c r="F164" s="62"/>
+      <c r="G164" s="62"/>
+      <c r="H164" s="62"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="67"/>
-      <c r="B165" s="67"/>
-      <c r="C165" s="67"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="67"/>
-      <c r="F165" s="67"/>
-      <c r="G165" s="67"/>
-      <c r="H165" s="67"/>
+      <c r="A165" s="62"/>
+      <c r="B165" s="62"/>
+      <c r="C165" s="62"/>
+      <c r="D165" s="63"/>
+      <c r="E165" s="62"/>
+      <c r="F165" s="62"/>
+      <c r="G165" s="62"/>
+      <c r="H165" s="62"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="67"/>
-      <c r="B166" s="67"/>
-      <c r="C166" s="67"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="67"/>
-      <c r="F166" s="67"/>
-      <c r="G166" s="67"/>
-      <c r="H166" s="67"/>
+      <c r="A166" s="62"/>
+      <c r="B166" s="62"/>
+      <c r="C166" s="62"/>
+      <c r="D166" s="63"/>
+      <c r="E166" s="62"/>
+      <c r="F166" s="62"/>
+      <c r="G166" s="62"/>
+      <c r="H166" s="62"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="67"/>
-      <c r="B167" s="67"/>
-      <c r="C167" s="67"/>
-      <c r="D167" s="68"/>
-      <c r="E167" s="67"/>
-      <c r="F167" s="67"/>
-      <c r="G167" s="67"/>
-      <c r="H167" s="67"/>
+      <c r="A167" s="62"/>
+      <c r="B167" s="62"/>
+      <c r="C167" s="62"/>
+      <c r="D167" s="63"/>
+      <c r="E167" s="62"/>
+      <c r="F167" s="62"/>
+      <c r="G167" s="62"/>
+      <c r="H167" s="62"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="67"/>
-      <c r="B168" s="67"/>
-      <c r="C168" s="67"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="67"/>
-      <c r="F168" s="67"/>
-      <c r="G168" s="67"/>
-      <c r="H168" s="67"/>
+      <c r="A168" s="62"/>
+      <c r="B168" s="62"/>
+      <c r="C168" s="62"/>
+      <c r="D168" s="63"/>
+      <c r="E168" s="62"/>
+      <c r="F168" s="62"/>
+      <c r="G168" s="62"/>
+      <c r="H168" s="62"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="67"/>
-      <c r="B169" s="67"/>
-      <c r="C169" s="67"/>
-      <c r="D169" s="68"/>
-      <c r="E169" s="67"/>
-      <c r="F169" s="67"/>
-      <c r="G169" s="67"/>
-      <c r="H169" s="67"/>
+      <c r="A169" s="62"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="62"/>
+      <c r="D169" s="63"/>
+      <c r="E169" s="62"/>
+      <c r="F169" s="62"/>
+      <c r="G169" s="62"/>
+      <c r="H169" s="62"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="67"/>
-      <c r="B170" s="67"/>
-      <c r="C170" s="67"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="67"/>
-      <c r="F170" s="67"/>
-      <c r="G170" s="67"/>
-      <c r="H170" s="67"/>
+      <c r="A170" s="62"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="62"/>
+      <c r="D170" s="63"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="62"/>
+      <c r="G170" s="62"/>
+      <c r="H170" s="62"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="67"/>
-      <c r="B171" s="67"/>
-      <c r="C171" s="67"/>
-      <c r="D171" s="68"/>
-      <c r="E171" s="67"/>
-      <c r="F171" s="67"/>
-      <c r="G171" s="67"/>
-      <c r="H171" s="67"/>
+      <c r="A171" s="62"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="62"/>
+      <c r="D171" s="63"/>
+      <c r="E171" s="62"/>
+      <c r="F171" s="62"/>
+      <c r="G171" s="62"/>
+      <c r="H171" s="62"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="67"/>
-      <c r="B172" s="67"/>
-      <c r="C172" s="67"/>
-      <c r="D172" s="68"/>
-      <c r="E172" s="67"/>
-      <c r="F172" s="67"/>
-      <c r="G172" s="67"/>
-      <c r="H172" s="67"/>
+      <c r="A172" s="62"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="62"/>
+      <c r="D172" s="63"/>
+      <c r="E172" s="62"/>
+      <c r="F172" s="62"/>
+      <c r="G172" s="62"/>
+      <c r="H172" s="62"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="67"/>
-      <c r="B173" s="67"/>
-      <c r="C173" s="67"/>
-      <c r="D173" s="68"/>
-      <c r="E173" s="67"/>
-      <c r="F173" s="67"/>
-      <c r="G173" s="67"/>
-      <c r="H173" s="67"/>
+      <c r="A173" s="62"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="62"/>
+      <c r="D173" s="63"/>
+      <c r="E173" s="62"/>
+      <c r="F173" s="62"/>
+      <c r="G173" s="62"/>
+      <c r="H173" s="62"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="67"/>
-      <c r="B174" s="67"/>
-      <c r="C174" s="67"/>
-      <c r="D174" s="68"/>
-      <c r="E174" s="67"/>
-      <c r="F174" s="67"/>
-      <c r="G174" s="67"/>
-      <c r="H174" s="67"/>
+      <c r="A174" s="62"/>
+      <c r="B174" s="62"/>
+      <c r="C174" s="62"/>
+      <c r="D174" s="63"/>
+      <c r="E174" s="62"/>
+      <c r="F174" s="62"/>
+      <c r="G174" s="62"/>
+      <c r="H174" s="62"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="67"/>
-      <c r="B175" s="67"/>
-      <c r="C175" s="67"/>
-      <c r="D175" s="68"/>
-      <c r="E175" s="67"/>
-      <c r="F175" s="67"/>
-      <c r="G175" s="67"/>
-      <c r="H175" s="67"/>
+      <c r="A175" s="62"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="62"/>
+      <c r="D175" s="63"/>
+      <c r="E175" s="62"/>
+      <c r="F175" s="62"/>
+      <c r="G175" s="62"/>
+      <c r="H175" s="62"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="67"/>
-      <c r="B176" s="67"/>
-      <c r="C176" s="67"/>
-      <c r="D176" s="68"/>
-      <c r="E176" s="67"/>
-      <c r="F176" s="67"/>
-      <c r="G176" s="67"/>
-      <c r="H176" s="67"/>
+      <c r="A176" s="62"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="62"/>
+      <c r="D176" s="63"/>
+      <c r="E176" s="62"/>
+      <c r="F176" s="62"/>
+      <c r="G176" s="62"/>
+      <c r="H176" s="62"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="67"/>
-      <c r="B177" s="67"/>
-      <c r="C177" s="67"/>
-      <c r="D177" s="68"/>
-      <c r="E177" s="67"/>
-      <c r="F177" s="67"/>
-      <c r="G177" s="67"/>
-      <c r="H177" s="67"/>
+      <c r="A177" s="62"/>
+      <c r="B177" s="62"/>
+      <c r="C177" s="62"/>
+      <c r="D177" s="63"/>
+      <c r="E177" s="62"/>
+      <c r="F177" s="62"/>
+      <c r="G177" s="62"/>
+      <c r="H177" s="62"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="67"/>
-      <c r="B178" s="67"/>
-      <c r="C178" s="67"/>
-      <c r="D178" s="68"/>
-      <c r="E178" s="67"/>
-      <c r="F178" s="67"/>
-      <c r="G178" s="67"/>
-      <c r="H178" s="67"/>
+      <c r="A178" s="62"/>
+      <c r="B178" s="62"/>
+      <c r="C178" s="62"/>
+      <c r="D178" s="63"/>
+      <c r="E178" s="62"/>
+      <c r="F178" s="62"/>
+      <c r="G178" s="62"/>
+      <c r="H178" s="62"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="67"/>
-      <c r="B179" s="67"/>
-      <c r="C179" s="67"/>
-      <c r="D179" s="68"/>
-      <c r="E179" s="67"/>
-      <c r="F179" s="67"/>
-      <c r="G179" s="67"/>
-      <c r="H179" s="67"/>
+      <c r="A179" s="62"/>
+      <c r="B179" s="62"/>
+      <c r="C179" s="62"/>
+      <c r="D179" s="63"/>
+      <c r="E179" s="62"/>
+      <c r="F179" s="62"/>
+      <c r="G179" s="62"/>
+      <c r="H179" s="62"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="67"/>
-      <c r="B180" s="67"/>
-      <c r="C180" s="67"/>
-      <c r="D180" s="68"/>
-      <c r="E180" s="67"/>
-      <c r="F180" s="67"/>
-      <c r="G180" s="67"/>
-      <c r="H180" s="67"/>
+      <c r="A180" s="62"/>
+      <c r="B180" s="62"/>
+      <c r="C180" s="62"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="62"/>
+      <c r="F180" s="62"/>
+      <c r="G180" s="62"/>
+      <c r="H180" s="62"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="67"/>
-      <c r="B181" s="67"/>
-      <c r="C181" s="67"/>
-      <c r="D181" s="68"/>
-      <c r="E181" s="67"/>
-      <c r="F181" s="67"/>
-      <c r="G181" s="67"/>
-      <c r="H181" s="67"/>
+      <c r="A181" s="62"/>
+      <c r="B181" s="62"/>
+      <c r="C181" s="62"/>
+      <c r="D181" s="63"/>
+      <c r="E181" s="62"/>
+      <c r="F181" s="62"/>
+      <c r="G181" s="62"/>
+      <c r="H181" s="62"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="67"/>
-      <c r="B182" s="67"/>
-      <c r="C182" s="67"/>
-      <c r="D182" s="68"/>
-      <c r="E182" s="67"/>
-      <c r="F182" s="67"/>
-      <c r="G182" s="67"/>
-      <c r="H182" s="67"/>
+      <c r="A182" s="62"/>
+      <c r="B182" s="62"/>
+      <c r="C182" s="62"/>
+      <c r="D182" s="63"/>
+      <c r="E182" s="62"/>
+      <c r="F182" s="62"/>
+      <c r="G182" s="62"/>
+      <c r="H182" s="62"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="67"/>
-      <c r="B183" s="67"/>
-      <c r="C183" s="67"/>
-      <c r="D183" s="68"/>
-      <c r="E183" s="67"/>
-      <c r="F183" s="67"/>
-      <c r="G183" s="67"/>
-      <c r="H183" s="67"/>
+      <c r="A183" s="62"/>
+      <c r="B183" s="62"/>
+      <c r="C183" s="62"/>
+      <c r="D183" s="63"/>
+      <c r="E183" s="62"/>
+      <c r="F183" s="62"/>
+      <c r="G183" s="62"/>
+      <c r="H183" s="62"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="67"/>
-      <c r="B184" s="67"/>
-      <c r="C184" s="67"/>
-      <c r="D184" s="68"/>
-      <c r="E184" s="67"/>
-      <c r="F184" s="67"/>
-      <c r="G184" s="67"/>
-      <c r="H184" s="67"/>
+      <c r="A184" s="62"/>
+      <c r="B184" s="62"/>
+      <c r="C184" s="62"/>
+      <c r="D184" s="63"/>
+      <c r="E184" s="62"/>
+      <c r="F184" s="62"/>
+      <c r="G184" s="62"/>
+      <c r="H184" s="62"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="67"/>
-      <c r="B185" s="67"/>
-      <c r="C185" s="67"/>
-      <c r="D185" s="68"/>
-      <c r="E185" s="67"/>
-      <c r="F185" s="67"/>
-      <c r="G185" s="67"/>
-      <c r="H185" s="67"/>
+      <c r="A185" s="62"/>
+      <c r="B185" s="62"/>
+      <c r="C185" s="62"/>
+      <c r="D185" s="63"/>
+      <c r="E185" s="62"/>
+      <c r="F185" s="62"/>
+      <c r="G185" s="62"/>
+      <c r="H185" s="62"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="67"/>
-      <c r="B186" s="67"/>
-      <c r="C186" s="67"/>
-      <c r="D186" s="68"/>
-      <c r="E186" s="67"/>
-      <c r="F186" s="67"/>
-      <c r="G186" s="67"/>
-      <c r="H186" s="67"/>
+      <c r="A186" s="62"/>
+      <c r="B186" s="62"/>
+      <c r="C186" s="62"/>
+      <c r="D186" s="63"/>
+      <c r="E186" s="62"/>
+      <c r="F186" s="62"/>
+      <c r="G186" s="62"/>
+      <c r="H186" s="62"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="67"/>
-      <c r="B187" s="67"/>
-      <c r="C187" s="67"/>
-      <c r="D187" s="68"/>
-      <c r="E187" s="67"/>
-      <c r="F187" s="67"/>
-      <c r="G187" s="67"/>
-      <c r="H187" s="67"/>
+      <c r="A187" s="62"/>
+      <c r="B187" s="62"/>
+      <c r="C187" s="62"/>
+      <c r="D187" s="63"/>
+      <c r="E187" s="62"/>
+      <c r="F187" s="62"/>
+      <c r="G187" s="62"/>
+      <c r="H187" s="62"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="67"/>
-      <c r="B188" s="67"/>
-      <c r="C188" s="67"/>
-      <c r="D188" s="68"/>
-      <c r="E188" s="67"/>
-      <c r="F188" s="67"/>
-      <c r="G188" s="67"/>
-      <c r="H188" s="67"/>
+      <c r="A188" s="62"/>
+      <c r="B188" s="62"/>
+      <c r="C188" s="62"/>
+      <c r="D188" s="63"/>
+      <c r="E188" s="62"/>
+      <c r="F188" s="62"/>
+      <c r="G188" s="62"/>
+      <c r="H188" s="62"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="67"/>
-      <c r="B189" s="67"/>
-      <c r="C189" s="67"/>
-      <c r="D189" s="68"/>
-      <c r="E189" s="67"/>
-      <c r="F189" s="67"/>
-      <c r="G189" s="67"/>
-      <c r="H189" s="67"/>
+      <c r="A189" s="62"/>
+      <c r="B189" s="62"/>
+      <c r="C189" s="62"/>
+      <c r="D189" s="63"/>
+      <c r="E189" s="62"/>
+      <c r="F189" s="62"/>
+      <c r="G189" s="62"/>
+      <c r="H189" s="62"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="67"/>
-      <c r="B190" s="67"/>
-      <c r="C190" s="67"/>
-      <c r="D190" s="68"/>
-      <c r="E190" s="67"/>
-      <c r="F190" s="67"/>
-      <c r="G190" s="67"/>
-      <c r="H190" s="67"/>
+      <c r="A190" s="62"/>
+      <c r="B190" s="62"/>
+      <c r="C190" s="62"/>
+      <c r="D190" s="63"/>
+      <c r="E190" s="62"/>
+      <c r="F190" s="62"/>
+      <c r="G190" s="62"/>
+      <c r="H190" s="62"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="67"/>
-      <c r="B191" s="67"/>
-      <c r="C191" s="67"/>
-      <c r="D191" s="68"/>
-      <c r="E191" s="67"/>
-      <c r="F191" s="67"/>
-      <c r="G191" s="67"/>
-      <c r="H191" s="67"/>
+      <c r="A191" s="62"/>
+      <c r="B191" s="62"/>
+      <c r="C191" s="62"/>
+      <c r="D191" s="63"/>
+      <c r="E191" s="62"/>
+      <c r="F191" s="62"/>
+      <c r="G191" s="62"/>
+      <c r="H191" s="62"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="67"/>
-      <c r="B192" s="67"/>
-      <c r="C192" s="67"/>
-      <c r="D192" s="68"/>
-      <c r="E192" s="67"/>
-      <c r="F192" s="67"/>
-      <c r="G192" s="67"/>
-      <c r="H192" s="67"/>
+      <c r="A192" s="62"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="62"/>
+      <c r="D192" s="63"/>
+      <c r="E192" s="62"/>
+      <c r="F192" s="62"/>
+      <c r="G192" s="62"/>
+      <c r="H192" s="62"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="67"/>
-      <c r="B193" s="67"/>
-      <c r="C193" s="67"/>
-      <c r="D193" s="68"/>
-      <c r="E193" s="67"/>
-      <c r="F193" s="67"/>
-      <c r="G193" s="67"/>
-      <c r="H193" s="67"/>
+      <c r="A193" s="62"/>
+      <c r="B193" s="62"/>
+      <c r="C193" s="62"/>
+      <c r="D193" s="63"/>
+      <c r="E193" s="62"/>
+      <c r="F193" s="62"/>
+      <c r="G193" s="62"/>
+      <c r="H193" s="62"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="67"/>
-      <c r="B194" s="67"/>
-      <c r="C194" s="67"/>
-      <c r="D194" s="68"/>
-      <c r="E194" s="67"/>
-      <c r="F194" s="67"/>
-      <c r="G194" s="67"/>
-      <c r="H194" s="67"/>
+      <c r="A194" s="62"/>
+      <c r="B194" s="62"/>
+      <c r="C194" s="62"/>
+      <c r="D194" s="63"/>
+      <c r="E194" s="62"/>
+      <c r="F194" s="62"/>
+      <c r="G194" s="62"/>
+      <c r="H194" s="62"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="67"/>
-      <c r="B195" s="67"/>
-      <c r="C195" s="67"/>
-      <c r="D195" s="68"/>
-      <c r="E195" s="67"/>
-      <c r="F195" s="67"/>
-      <c r="G195" s="67"/>
-      <c r="H195" s="67"/>
+      <c r="A195" s="62"/>
+      <c r="B195" s="62"/>
+      <c r="C195" s="62"/>
+      <c r="D195" s="63"/>
+      <c r="E195" s="62"/>
+      <c r="F195" s="62"/>
+      <c r="G195" s="62"/>
+      <c r="H195" s="62"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="67"/>
-      <c r="B196" s="67"/>
-      <c r="C196" s="67"/>
-      <c r="D196" s="68"/>
-      <c r="E196" s="67"/>
-      <c r="F196" s="67"/>
-      <c r="G196" s="67"/>
-      <c r="H196" s="67"/>
+      <c r="A196" s="62"/>
+      <c r="B196" s="62"/>
+      <c r="C196" s="62"/>
+      <c r="D196" s="63"/>
+      <c r="E196" s="62"/>
+      <c r="F196" s="62"/>
+      <c r="G196" s="62"/>
+      <c r="H196" s="62"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="71"/>
-      <c r="B197" s="71"/>
-      <c r="C197" s="71"/>
-      <c r="D197" s="72"/>
-      <c r="E197" s="71"/>
-      <c r="F197" s="71"/>
-      <c r="G197" s="71"/>
-      <c r="H197" s="71"/>
+      <c r="A197" s="66"/>
+      <c r="B197" s="66"/>
+      <c r="C197" s="66"/>
+      <c r="D197" s="67"/>
+      <c r="E197" s="66"/>
+      <c r="F197" s="66"/>
+      <c r="G197" s="66"/>
+      <c r="H197" s="66"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="71"/>
-      <c r="B198" s="71"/>
-      <c r="C198" s="71"/>
-      <c r="D198" s="72"/>
-      <c r="E198" s="71"/>
-      <c r="F198" s="71"/>
-      <c r="G198" s="71"/>
-      <c r="H198" s="71"/>
+      <c r="A198" s="66"/>
+      <c r="B198" s="66"/>
+      <c r="C198" s="66"/>
+      <c r="D198" s="67"/>
+      <c r="E198" s="66"/>
+      <c r="F198" s="66"/>
+      <c r="G198" s="66"/>
+      <c r="H198" s="66"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="71"/>
-      <c r="B199" s="71"/>
-      <c r="C199" s="71"/>
-      <c r="D199" s="72"/>
-      <c r="E199" s="71"/>
-      <c r="F199" s="71"/>
-      <c r="G199" s="71"/>
-      <c r="H199" s="71"/>
+      <c r="A199" s="66"/>
+      <c r="B199" s="66"/>
+      <c r="C199" s="66"/>
+      <c r="D199" s="67"/>
+      <c r="E199" s="66"/>
+      <c r="F199" s="66"/>
+      <c r="G199" s="66"/>
+      <c r="H199" s="66"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="71"/>
-      <c r="B200" s="71"/>
-      <c r="C200" s="71"/>
-      <c r="D200" s="72"/>
-      <c r="E200" s="71"/>
-      <c r="F200" s="71"/>
-      <c r="G200" s="71"/>
-      <c r="H200" s="71"/>
+      <c r="A200" s="66"/>
+      <c r="B200" s="66"/>
+      <c r="C200" s="66"/>
+      <c r="D200" s="67"/>
+      <c r="E200" s="66"/>
+      <c r="F200" s="66"/>
+      <c r="G200" s="66"/>
+      <c r="H200" s="66"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="71"/>
-      <c r="B201" s="71"/>
-      <c r="C201" s="71"/>
-      <c r="D201" s="72"/>
-      <c r="E201" s="71"/>
-      <c r="F201" s="71"/>
-      <c r="G201" s="71"/>
-      <c r="H201" s="71"/>
+      <c r="A201" s="66"/>
+      <c r="B201" s="66"/>
+      <c r="C201" s="66"/>
+      <c r="D201" s="67"/>
+      <c r="E201" s="66"/>
+      <c r="F201" s="66"/>
+      <c r="G201" s="66"/>
+      <c r="H201" s="66"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="71"/>
-      <c r="B202" s="71"/>
-      <c r="C202" s="71"/>
-      <c r="D202" s="72"/>
-      <c r="E202" s="71"/>
-      <c r="F202" s="71"/>
-      <c r="G202" s="71"/>
-      <c r="H202" s="71"/>
+      <c r="A202" s="66"/>
+      <c r="B202" s="66"/>
+      <c r="C202" s="66"/>
+      <c r="D202" s="67"/>
+      <c r="E202" s="66"/>
+      <c r="F202" s="66"/>
+      <c r="G202" s="66"/>
+      <c r="H202" s="66"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="71"/>
-      <c r="B203" s="71"/>
-      <c r="C203" s="71"/>
-      <c r="D203" s="72"/>
-      <c r="E203" s="71"/>
-      <c r="F203" s="71"/>
-      <c r="G203" s="71"/>
-      <c r="H203" s="71"/>
+      <c r="A203" s="66"/>
+      <c r="B203" s="66"/>
+      <c r="C203" s="66"/>
+      <c r="D203" s="67"/>
+      <c r="E203" s="66"/>
+      <c r="F203" s="66"/>
+      <c r="G203" s="66"/>
+      <c r="H203" s="66"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="71"/>
-      <c r="B204" s="71"/>
-      <c r="C204" s="71"/>
-      <c r="D204" s="72"/>
-      <c r="E204" s="71"/>
-      <c r="F204" s="71"/>
-      <c r="G204" s="71"/>
-      <c r="H204" s="71"/>
+      <c r="A204" s="66"/>
+      <c r="B204" s="66"/>
+      <c r="C204" s="66"/>
+      <c r="D204" s="67"/>
+      <c r="E204" s="66"/>
+      <c r="F204" s="66"/>
+      <c r="G204" s="66"/>
+      <c r="H204" s="66"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="71"/>
-      <c r="B205" s="71"/>
-      <c r="C205" s="71"/>
-      <c r="D205" s="72"/>
-      <c r="E205" s="71"/>
-      <c r="F205" s="71"/>
-      <c r="G205" s="71"/>
-      <c r="H205" s="71"/>
+      <c r="A205" s="66"/>
+      <c r="B205" s="66"/>
+      <c r="C205" s="66"/>
+      <c r="D205" s="67"/>
+      <c r="E205" s="66"/>
+      <c r="F205" s="66"/>
+      <c r="G205" s="66"/>
+      <c r="H205" s="66"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="71"/>
-      <c r="B206" s="71"/>
-      <c r="C206" s="71"/>
-      <c r="D206" s="72"/>
-      <c r="E206" s="71"/>
-      <c r="F206" s="71"/>
-      <c r="G206" s="71"/>
-      <c r="H206" s="71"/>
+      <c r="A206" s="66"/>
+      <c r="B206" s="66"/>
+      <c r="C206" s="66"/>
+      <c r="D206" s="67"/>
+      <c r="E206" s="66"/>
+      <c r="F206" s="66"/>
+      <c r="G206" s="66"/>
+      <c r="H206" s="66"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="71"/>
-      <c r="B207" s="71"/>
-      <c r="C207" s="71"/>
-      <c r="D207" s="72"/>
-      <c r="E207" s="71"/>
-      <c r="F207" s="71"/>
-      <c r="G207" s="71"/>
-      <c r="H207" s="71"/>
+      <c r="A207" s="66"/>
+      <c r="B207" s="66"/>
+      <c r="C207" s="66"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="66"/>
+      <c r="F207" s="66"/>
+      <c r="G207" s="66"/>
+      <c r="H207" s="66"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="71"/>
-      <c r="B208" s="71"/>
-      <c r="C208" s="71"/>
-      <c r="D208" s="72"/>
-      <c r="E208" s="71"/>
-      <c r="F208" s="71"/>
-      <c r="G208" s="71"/>
-      <c r="H208" s="71"/>
+      <c r="A208" s="66"/>
+      <c r="B208" s="66"/>
+      <c r="C208" s="66"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="66"/>
+      <c r="F208" s="66"/>
+      <c r="G208" s="66"/>
+      <c r="H208" s="66"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D209" s="72"/>
+      <c r="D209" s="67"/>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D210" s="72"/>
+      <c r="D210" s="67"/>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D211" s="72"/>
+      <c r="D211" s="67"/>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D212" s="72"/>
+      <c r="D212" s="67"/>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D213" s="72"/>
+      <c r="D213" s="67"/>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D214" s="72"/>
+      <c r="D214" s="67"/>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D215" s="72"/>
+      <c r="D215" s="67"/>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D216" s="72"/>
+      <c r="D216" s="67"/>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D217" s="72"/>
+      <c r="D217" s="67"/>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D218" s="72"/>
+      <c r="D218" s="67"/>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D219" s="72"/>
+      <c r="D219" s="67"/>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D220" s="72"/>
+      <c r="D220" s="67"/>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D221" s="72"/>
+      <c r="D221" s="67"/>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D222" s="72"/>
+      <c r="D222" s="67"/>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D223" s="72"/>
+      <c r="D223" s="67"/>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D224" s="72"/>
+      <c r="D224" s="67"/>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D225" s="72"/>
+      <c r="D225" s="67"/>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D226" s="72"/>
+      <c r="D226" s="67"/>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D227" s="72"/>
+      <c r="D227" s="67"/>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D228" s="72"/>
+      <c r="D228" s="67"/>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D229" s="72"/>
+      <c r="D229" s="67"/>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D230" s="72"/>
+      <c r="D230" s="67"/>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D231" s="72"/>
+      <c r="D231" s="67"/>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D232" s="72"/>
+      <c r="D232" s="67"/>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D233" s="72"/>
+      <c r="D233" s="67"/>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D234" s="72"/>
+      <c r="D234" s="67"/>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D235" s="72"/>
+      <c r="D235" s="67"/>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D236" s="72"/>
+      <c r="D236" s="67"/>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D237" s="72"/>
+      <c r="D237" s="67"/>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D238" s="72"/>
+      <c r="D238" s="67"/>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D239" s="72"/>
+      <c r="D239" s="67"/>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D240" s="72"/>
+      <c r="D240" s="67"/>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D241" s="72"/>
+      <c r="D241" s="67"/>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D242" s="72"/>
+      <c r="D242" s="67"/>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D243" s="72"/>
+      <c r="D243" s="67"/>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D244" s="72"/>
+      <c r="D244" s="67"/>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D245" s="72"/>
+      <c r="D245" s="67"/>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D246" s="72"/>
+      <c r="D246" s="67"/>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D247" s="72"/>
+      <c r="D247" s="67"/>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D248" s="72"/>
+      <c r="D248" s="67"/>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D249" s="72"/>
+      <c r="D249" s="67"/>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D250" s="72"/>
+      <c r="D250" s="67"/>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D251" s="72"/>
+      <c r="D251" s="67"/>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D252" s="72"/>
+      <c r="D252" s="67"/>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D253" s="72"/>
+      <c r="D253" s="67"/>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D254" s="72"/>
+      <c r="D254" s="67"/>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D255" s="72"/>
+      <c r="D255" s="67"/>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D256" s="72"/>
+      <c r="D256" s="67"/>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D257" s="72"/>
+      <c r="D257" s="67"/>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D258" s="72"/>
+      <c r="D258" s="67"/>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D259" s="72"/>
+      <c r="D259" s="67"/>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D260" s="72"/>
+      <c r="D260" s="67"/>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D261" s="72"/>
+      <c r="D261" s="67"/>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D262" s="72"/>
+      <c r="D262" s="67"/>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D263" s="72"/>
+      <c r="D263" s="67"/>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D264" s="72"/>
+      <c r="D264" s="67"/>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D265" s="72"/>
+      <c r="D265" s="67"/>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D266" s="72"/>
+      <c r="D266" s="67"/>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D267" s="72"/>
+      <c r="D267" s="67"/>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D268" s="72"/>
+      <c r="D268" s="67"/>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D269" s="72"/>
+      <c r="D269" s="67"/>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D270" s="72"/>
+      <c r="D270" s="67"/>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D271" s="72"/>
+      <c r="D271" s="67"/>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D272" s="72"/>
+      <c r="D272" s="67"/>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D273" s="72"/>
+      <c r="D273" s="67"/>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D274" s="72"/>
+      <c r="D274" s="67"/>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D275" s="72"/>
+      <c r="D275" s="67"/>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D276" s="72"/>
+      <c r="D276" s="67"/>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D277" s="72"/>
+      <c r="D277" s="67"/>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D278" s="72"/>
+      <c r="D278" s="67"/>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D279" s="72"/>
+      <c r="D279" s="67"/>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D280" s="72"/>
+      <c r="D280" s="67"/>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D281" s="72"/>
+      <c r="D281" s="67"/>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D282" s="72"/>
+      <c r="D282" s="67"/>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D283" s="72"/>
+      <c r="D283" s="67"/>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D284" s="72"/>
+      <c r="D284" s="67"/>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D285" s="72"/>
+      <c r="D285" s="67"/>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D286" s="72"/>
+      <c r="D286" s="67"/>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D287" s="72"/>
+      <c r="D287" s="67"/>
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D288" s="72"/>
+      <c r="D288" s="67"/>
     </row>
     <row r="289" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D289" s="72"/>
+      <c r="D289" s="67"/>
     </row>
     <row r="290" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D290" s="72"/>
+      <c r="D290" s="67"/>
     </row>
     <row r="291" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D291" s="72"/>
+      <c r="D291" s="67"/>
     </row>
     <row r="292" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D292" s="72"/>
+      <c r="D292" s="67"/>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D293" s="72"/>
+      <c r="D293" s="67"/>
     </row>
     <row r="294" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D294" s="72"/>
+      <c r="D294" s="67"/>
     </row>
     <row r="295" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D295" s="72"/>
+      <c r="D295" s="67"/>
     </row>
     <row r="296" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D296" s="72"/>
+      <c r="D296" s="67"/>
     </row>
     <row r="297" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D297" s="72"/>
+      <c r="D297" s="67"/>
     </row>
     <row r="298" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D298" s="72"/>
+      <c r="D298" s="67"/>
     </row>
     <row r="299" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D299" s="72"/>
+      <c r="D299" s="67"/>
     </row>
     <row r="300" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D300" s="72"/>
+      <c r="D300" s="67"/>
     </row>
     <row r="301" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D301" s="72"/>
+      <c r="D301" s="67"/>
     </row>
     <row r="302" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D302" s="72"/>
+      <c r="D302" s="67"/>
     </row>
     <row r="303" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D303" s="72"/>
+      <c r="D303" s="67"/>
     </row>
     <row r="304" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D304" s="72"/>
+      <c r="D304" s="67"/>
     </row>
     <row r="305" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D305" s="72"/>
+      <c r="D305" s="67"/>
     </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D306" s="72"/>
+      <c r="D306" s="67"/>
     </row>
     <row r="307" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D307" s="72"/>
+      <c r="D307" s="67"/>
     </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D308" s="72"/>
+      <c r="D308" s="67"/>
     </row>
     <row r="309" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D309" s="72"/>
+      <c r="D309" s="67"/>
     </row>
     <row r="310" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D310" s="72"/>
+      <c r="D310" s="67"/>
     </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D311" s="72"/>
+      <c r="D311" s="67"/>
     </row>
     <row r="312" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D312" s="72"/>
+      <c r="D312" s="67"/>
     </row>
     <row r="313" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D313" s="72"/>
+      <c r="D313" s="67"/>
     </row>
     <row r="314" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D314" s="72"/>
+      <c r="D314" s="67"/>
     </row>
     <row r="315" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D315" s="72"/>
+      <c r="D315" s="67"/>
     </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D316" s="72"/>
+      <c r="D316" s="67"/>
     </row>
     <row r="317" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D317" s="72"/>
+      <c r="D317" s="67"/>
     </row>
     <row r="318" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D318" s="72"/>
+      <c r="D318" s="67"/>
     </row>
     <row r="319" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D319" s="72"/>
+      <c r="D319" s="67"/>
     </row>
     <row r="320" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D320" s="72"/>
+      <c r="D320" s="67"/>
     </row>
     <row r="321" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D321" s="72"/>
+      <c r="D321" s="67"/>
     </row>
     <row r="322" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D322" s="72"/>
+      <c r="D322" s="67"/>
     </row>
     <row r="323" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D323" s="72"/>
+      <c r="D323" s="67"/>
     </row>
     <row r="324" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D324" s="72"/>
+      <c r="D324" s="67"/>
     </row>
     <row r="325" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D325" s="72"/>
+      <c r="D325" s="67"/>
     </row>
     <row r="326" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D326" s="72"/>
+      <c r="D326" s="67"/>
     </row>
     <row r="327" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D327" s="72"/>
+      <c r="D327" s="67"/>
     </row>
     <row r="328" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D328" s="72"/>
+      <c r="D328" s="67"/>
     </row>
     <row r="329" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D329" s="72"/>
+      <c r="D329" s="67"/>
     </row>
     <row r="330" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D330" s="72"/>
+      <c r="D330" s="67"/>
     </row>
     <row r="331" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D331" s="72"/>
+      <c r="D331" s="67"/>
     </row>
     <row r="332" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D332" s="72"/>
+      <c r="D332" s="67"/>
     </row>
     <row r="333" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D333" s="72"/>
+      <c r="D333" s="67"/>
     </row>
     <row r="334" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D334" s="72"/>
+      <c r="D334" s="67"/>
     </row>
     <row r="335" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D335" s="72"/>
+      <c r="D335" s="67"/>
     </row>
     <row r="336" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D336" s="72"/>
+      <c r="D336" s="67"/>
     </row>
     <row r="337" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D337" s="72"/>
+      <c r="D337" s="67"/>
     </row>
     <row r="338" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D338" s="72"/>
+      <c r="D338" s="67"/>
     </row>
     <row r="339" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D339" s="72"/>
+      <c r="D339" s="67"/>
     </row>
     <row r="340" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D340" s="72"/>
+      <c r="D340" s="67"/>
     </row>
     <row r="341" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D341" s="72"/>
+      <c r="D341" s="67"/>
     </row>
     <row r="342" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D342" s="72"/>
+      <c r="D342" s="67"/>
     </row>
     <row r="343" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D343" s="72"/>
+      <c r="D343" s="67"/>
     </row>
     <row r="344" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D344" s="72"/>
+      <c r="D344" s="67"/>
     </row>
     <row r="345" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D345" s="72"/>
+      <c r="D345" s="67"/>
     </row>
     <row r="346" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D346" s="72"/>
+      <c r="D346" s="67"/>
     </row>
     <row r="347" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D347" s="72"/>
+      <c r="D347" s="67"/>
     </row>
     <row r="348" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D348" s="72"/>
+      <c r="D348" s="67"/>
     </row>
     <row r="349" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D349" s="72"/>
+      <c r="D349" s="67"/>
     </row>
     <row r="350" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D350" s="72"/>
+      <c r="D350" s="67"/>
     </row>
     <row r="351" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D351" s="72"/>
+      <c r="D351" s="67"/>
     </row>
     <row r="352" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D352" s="72"/>
+      <c r="D352" s="67"/>
     </row>
     <row r="353" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D353" s="72"/>
+      <c r="D353" s="67"/>
     </row>
     <row r="354" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D354" s="72"/>
+      <c r="D354" s="67"/>
     </row>
     <row r="355" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D355" s="72"/>
+      <c r="D355" s="67"/>
     </row>
     <row r="356" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D356" s="72"/>
+      <c r="D356" s="67"/>
     </row>
     <row r="357" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D357" s="72"/>
+      <c r="D357" s="67"/>
     </row>
     <row r="358" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D358" s="72"/>
+      <c r="D358" s="67"/>
     </row>
     <row r="359" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D359" s="72"/>
+      <c r="D359" s="67"/>
     </row>
     <row r="360" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D360" s="72"/>
+      <c r="D360" s="67"/>
     </row>
     <row r="361" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D361" s="72"/>
+      <c r="D361" s="67"/>
     </row>
     <row r="362" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D362" s="72"/>
+      <c r="D362" s="67"/>
     </row>
     <row r="363" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D363" s="72"/>
+      <c r="D363" s="67"/>
     </row>
     <row r="364" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D364" s="72"/>
+      <c r="D364" s="67"/>
     </row>
     <row r="365" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D365" s="72"/>
+      <c r="D365" s="67"/>
     </row>
     <row r="366" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D366" s="72"/>
+      <c r="D366" s="67"/>
     </row>
     <row r="367" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D367" s="72"/>
+      <c r="D367" s="67"/>
     </row>
     <row r="368" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D368" s="72"/>
+      <c r="D368" s="67"/>
     </row>
     <row r="369" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D369" s="72"/>
+      <c r="D369" s="67"/>
     </row>
     <row r="370" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D370" s="72"/>
+      <c r="D370" s="67"/>
     </row>
     <row r="371" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D371" s="72"/>
+      <c r="D371" s="67"/>
     </row>
     <row r="372" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D372" s="72"/>
+      <c r="D372" s="67"/>
     </row>
     <row r="373" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D373" s="72"/>
+      <c r="D373" s="67"/>
     </row>
     <row r="374" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D374" s="72"/>
+      <c r="D374" s="67"/>
     </row>
     <row r="375" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D375" s="72"/>
+      <c r="D375" s="67"/>
     </row>
     <row r="376" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D376" s="72"/>
+      <c r="D376" s="67"/>
     </row>
     <row r="377" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D377" s="72"/>
+      <c r="D377" s="67"/>
     </row>
     <row r="378" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D378" s="72"/>
+      <c r="D378" s="67"/>
     </row>
     <row r="379" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D379" s="72"/>
+      <c r="D379" s="67"/>
     </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D380" s="72"/>
+      <c r="D380" s="67"/>
     </row>
     <row r="381" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D381" s="72"/>
+      <c r="D381" s="67"/>
     </row>
     <row r="382" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D382" s="72"/>
+      <c r="D382" s="67"/>
     </row>
     <row r="383" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D383" s="72"/>
+      <c r="D383" s="67"/>
     </row>
     <row r="384" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D384" s="72"/>
+      <c r="D384" s="67"/>
     </row>
     <row r="385" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D385" s="72"/>
+      <c r="D385" s="67"/>
     </row>
     <row r="386" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D386" s="72"/>
+      <c r="D386" s="67"/>
     </row>
     <row r="387" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D387" s="72"/>
+      <c r="D387" s="67"/>
     </row>
     <row r="388" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D388" s="72"/>
+      <c r="D388" s="67"/>
     </row>
     <row r="389" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D389" s="72"/>
+      <c r="D389" s="67"/>
     </row>
     <row r="390" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D390" s="72"/>
+      <c r="D390" s="67"/>
     </row>
     <row r="391" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D391" s="72"/>
+      <c r="D391" s="67"/>
     </row>
     <row r="392" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D392" s="72"/>
+      <c r="D392" s="67"/>
     </row>
     <row r="393" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D393" s="72"/>
+      <c r="D393" s="67"/>
     </row>
     <row r="394" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D394" s="72"/>
+      <c r="D394" s="67"/>
     </row>
     <row r="395" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D395" s="72"/>
+      <c r="D395" s="67"/>
     </row>
     <row r="396" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D396" s="72"/>
+      <c r="D396" s="67"/>
     </row>
     <row r="397" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D397" s="72"/>
+      <c r="D397" s="67"/>
     </row>
     <row r="398" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D398" s="72"/>
+      <c r="D398" s="67"/>
     </row>
     <row r="399" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D399" s="72"/>
+      <c r="D399" s="67"/>
     </row>
     <row r="400" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D400" s="72"/>
+      <c r="D400" s="67"/>
     </row>
     <row r="401" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D401" s="72"/>
+      <c r="D401" s="67"/>
     </row>
     <row r="402" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D402" s="72"/>
+      <c r="D402" s="67"/>
     </row>
     <row r="403" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D403" s="72"/>
+      <c r="D403" s="67"/>
     </row>
     <row r="404" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D404" s="72"/>
+      <c r="D404" s="67"/>
     </row>
     <row r="405" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D405" s="72"/>
+      <c r="D405" s="67"/>
     </row>
     <row r="406" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D406" s="72"/>
+      <c r="D406" s="67"/>
     </row>
     <row r="407" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D407" s="72"/>
+      <c r="D407" s="67"/>
     </row>
     <row r="408" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D408" s="72"/>
+      <c r="D408" s="67"/>
     </row>
     <row r="409" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D409" s="72"/>
+      <c r="D409" s="67"/>
     </row>
     <row r="410" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D410" s="72"/>
+      <c r="D410" s="67"/>
     </row>
     <row r="411" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D411" s="72"/>
+      <c r="D411" s="67"/>
     </row>
     <row r="412" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D412" s="72"/>
+      <c r="D412" s="67"/>
     </row>
     <row r="413" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D413" s="72"/>
+      <c r="D413" s="67"/>
     </row>
     <row r="414" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D414" s="72"/>
+      <c r="D414" s="67"/>
     </row>
     <row r="415" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D415" s="72"/>
+      <c r="D415" s="67"/>
     </row>
     <row r="416" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D416" s="72"/>
+      <c r="D416" s="67"/>
     </row>
     <row r="417" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D417" s="72"/>
+      <c r="D417" s="67"/>
     </row>
     <row r="418" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D418" s="72"/>
+      <c r="D418" s="67"/>
     </row>
     <row r="419" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D419" s="72"/>
+      <c r="D419" s="67"/>
     </row>
     <row r="420" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D420" s="72"/>
+      <c r="D420" s="67"/>
     </row>
     <row r="421" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D421" s="72"/>
+      <c r="D421" s="67"/>
     </row>
     <row r="422" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D422" s="72"/>
+      <c r="D422" s="67"/>
     </row>
     <row r="423" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D423" s="72"/>
+      <c r="D423" s="67"/>
     </row>
     <row r="424" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D424" s="72"/>
+      <c r="D424" s="67"/>
     </row>
     <row r="425" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D425" s="72"/>
+      <c r="D425" s="67"/>
     </row>
     <row r="426" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D426" s="72"/>
+      <c r="D426" s="67"/>
     </row>
     <row r="427" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D427" s="72"/>
+      <c r="D427" s="67"/>
     </row>
     <row r="428" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D428" s="72"/>
+      <c r="D428" s="67"/>
     </row>
     <row r="429" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D429" s="72"/>
+      <c r="D429" s="67"/>
     </row>
     <row r="430" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D430" s="72"/>
+      <c r="D430" s="67"/>
     </row>
     <row r="431" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D431" s="72"/>
+      <c r="D431" s="67"/>
     </row>
     <row r="432" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D432" s="72"/>
+      <c r="D432" s="67"/>
     </row>
     <row r="433" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D433" s="72"/>
+      <c r="D433" s="67"/>
     </row>
     <row r="434" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D434" s="72"/>
+      <c r="D434" s="67"/>
     </row>
     <row r="435" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D435" s="72"/>
+      <c r="D435" s="67"/>
     </row>
     <row r="436" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D436" s="72"/>
+      <c r="D436" s="67"/>
     </row>
     <row r="437" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D437" s="72"/>
+      <c r="D437" s="67"/>
     </row>
     <row r="438" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D438" s="72"/>
+      <c r="D438" s="67"/>
     </row>
     <row r="439" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D439" s="72"/>
+      <c r="D439" s="67"/>
     </row>
     <row r="440" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D440" s="72"/>
+      <c r="D440" s="67"/>
     </row>
     <row r="441" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D441" s="72"/>
+      <c r="D441" s="67"/>
     </row>
     <row r="442" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D442" s="72"/>
+      <c r="D442" s="67"/>
     </row>
     <row r="443" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D443" s="72"/>
+      <c r="D443" s="67"/>
     </row>
     <row r="444" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D444" s="72"/>
+      <c r="D444" s="67"/>
     </row>
     <row r="445" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D445" s="72"/>
+      <c r="D445" s="67"/>
     </row>
     <row r="446" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D446" s="72"/>
+      <c r="D446" s="67"/>
     </row>
     <row r="447" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D447" s="72"/>
+      <c r="D447" s="67"/>
     </row>
     <row r="448" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D448" s="72"/>
+      <c r="D448" s="67"/>
     </row>
     <row r="449" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D449" s="72"/>
+      <c r="D449" s="67"/>
     </row>
     <row r="450" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D450" s="72"/>
+      <c r="D450" s="67"/>
     </row>
     <row r="451" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D451" s="72"/>
+      <c r="D451" s="67"/>
     </row>
     <row r="452" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D452" s="72"/>
+      <c r="D452" s="67"/>
     </row>
     <row r="453" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D453" s="72"/>
+      <c r="D453" s="67"/>
     </row>
     <row r="454" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D454" s="72"/>
+      <c r="D454" s="67"/>
     </row>
     <row r="455" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D455" s="72"/>
+      <c r="D455" s="67"/>
     </row>
     <row r="456" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D456" s="72"/>
+      <c r="D456" s="67"/>
     </row>
     <row r="457" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D457" s="72"/>
+      <c r="D457" s="67"/>
     </row>
     <row r="458" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D458" s="72"/>
+      <c r="D458" s="67"/>
     </row>
     <row r="459" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D459" s="72"/>
+      <c r="D459" s="67"/>
     </row>
     <row r="460" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D460" s="72"/>
+      <c r="D460" s="67"/>
     </row>
     <row r="461" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D461" s="72"/>
+      <c r="D461" s="67"/>
     </row>
     <row r="462" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D462" s="72"/>
+      <c r="D462" s="67"/>
     </row>
     <row r="463" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D463" s="72"/>
+      <c r="D463" s="67"/>
     </row>
     <row r="464" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D464" s="72"/>
+      <c r="D464" s="67"/>
     </row>
     <row r="465" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D465" s="72"/>
+      <c r="D465" s="67"/>
     </row>
     <row r="466" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D466" s="72"/>
+      <c r="D466" s="67"/>
     </row>
     <row r="467" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D467" s="72"/>
+      <c r="D467" s="67"/>
     </row>
     <row r="468" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D468" s="72"/>
+      <c r="D468" s="67"/>
     </row>
     <row r="469" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D469" s="72"/>
+      <c r="D469" s="67"/>
     </row>
     <row r="470" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D470" s="72"/>
+      <c r="D470" s="67"/>
     </row>
     <row r="471" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D471" s="72"/>
+      <c r="D471" s="67"/>
     </row>
     <row r="472" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D472" s="72"/>
+      <c r="D472" s="67"/>
     </row>
     <row r="473" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D473" s="72"/>
+      <c r="D473" s="67"/>
     </row>
     <row r="474" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D474" s="72"/>
+      <c r="D474" s="67"/>
     </row>
     <row r="475" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D475" s="72"/>
+      <c r="D475" s="67"/>
     </row>
     <row r="476" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D476" s="72"/>
+      <c r="D476" s="67"/>
     </row>
     <row r="477" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D477" s="72"/>
+      <c r="D477" s="67"/>
     </row>
     <row r="478" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D478" s="72"/>
+      <c r="D478" s="67"/>
     </row>
     <row r="479" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D479" s="72"/>
+      <c r="D479" s="67"/>
     </row>
     <row r="480" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D480" s="72"/>
+      <c r="D480" s="67"/>
     </row>
     <row r="481" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D481" s="72"/>
+      <c r="D481" s="67"/>
     </row>
     <row r="482" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D482" s="72"/>
+      <c r="D482" s="67"/>
     </row>
     <row r="483" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D483" s="72"/>
+      <c r="D483" s="67"/>
     </row>
     <row r="484" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D484" s="72"/>
+      <c r="D484" s="67"/>
     </row>
     <row r="485" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D485" s="72"/>
+      <c r="D485" s="67"/>
     </row>
     <row r="486" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D486" s="72"/>
+      <c r="D486" s="67"/>
     </row>
     <row r="487" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D487" s="72"/>
+      <c r="D487" s="67"/>
     </row>
     <row r="488" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D488" s="72"/>
+      <c r="D488" s="67"/>
     </row>
     <row r="489" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D489" s="72"/>
+      <c r="D489" s="67"/>
     </row>
     <row r="490" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D490" s="72"/>
+      <c r="D490" s="67"/>
     </row>
     <row r="491" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D491" s="72"/>
+      <c r="D491" s="67"/>
     </row>
     <row r="492" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D492" s="72"/>
+      <c r="D492" s="67"/>
     </row>
     <row r="493" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D493" s="72"/>
+      <c r="D493" s="67"/>
     </row>
     <row r="494" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D494" s="72"/>
+      <c r="D494" s="67"/>
     </row>
     <row r="495" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D495" s="72"/>
+      <c r="D495" s="67"/>
     </row>
     <row r="496" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D496" s="72"/>
+      <c r="D496" s="67"/>
     </row>
     <row r="497" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D497" s="72"/>
+      <c r="D497" s="67"/>
     </row>
     <row r="498" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D498" s="72"/>
+      <c r="D498" s="67"/>
     </row>
     <row r="499" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D499" s="72"/>
+      <c r="D499" s="67"/>
     </row>
     <row r="500" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D500" s="72"/>
+      <c r="D500" s="67"/>
     </row>
     <row r="501" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D501" s="72"/>
+      <c r="D501" s="67"/>
     </row>
     <row r="502" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D502" s="72"/>
+      <c r="D502" s="67"/>
     </row>
     <row r="503" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D503" s="72"/>
+      <c r="D503" s="67"/>
     </row>
     <row r="504" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D504" s="72"/>
+      <c r="D504" s="67"/>
     </row>
     <row r="505" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D505" s="72"/>
+      <c r="D505" s="67"/>
     </row>
     <row r="506" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D506" s="72"/>
+      <c r="D506" s="67"/>
     </row>
     <row r="507" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D507" s="72"/>
+      <c r="D507" s="67"/>
     </row>
     <row r="508" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D508" s="72"/>
+      <c r="D508" s="67"/>
     </row>
     <row r="509" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D509" s="72"/>
+      <c r="D509" s="67"/>
     </row>
     <row r="510" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D510" s="72"/>
+      <c r="D510" s="67"/>
     </row>
     <row r="511" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D511" s="72"/>
+      <c r="D511" s="67"/>
     </row>
     <row r="512" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D512" s="72"/>
+      <c r="D512" s="67"/>
     </row>
     <row r="513" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D513" s="72"/>
+      <c r="D513" s="67"/>
     </row>
     <row r="514" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D514" s="72"/>
+      <c r="D514" s="67"/>
     </row>
     <row r="515" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D515" s="72"/>
+      <c r="D515" s="67"/>
     </row>
     <row r="516" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D516" s="72"/>
+      <c r="D516" s="67"/>
     </row>
     <row r="517" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D517" s="72"/>
+      <c r="D517" s="67"/>
     </row>
     <row r="518" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D518" s="72"/>
+      <c r="D518" s="67"/>
     </row>
     <row r="519" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D519" s="72"/>
+      <c r="D519" s="67"/>
     </row>
     <row r="520" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D520" s="72"/>
+      <c r="D520" s="67"/>
     </row>
     <row r="521" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D521" s="72"/>
+      <c r="D521" s="67"/>
     </row>
     <row r="522" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D522" s="72"/>
+      <c r="D522" s="67"/>
     </row>
     <row r="523" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D523" s="72"/>
+      <c r="D523" s="67"/>
     </row>
     <row r="524" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D524" s="72"/>
+      <c r="D524" s="67"/>
     </row>
     <row r="525" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D525" s="72"/>
+      <c r="D525" s="67"/>
     </row>
     <row r="526" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D526" s="72"/>
+      <c r="D526" s="67"/>
     </row>
     <row r="527" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D527" s="72"/>
+      <c r="D527" s="67"/>
     </row>
     <row r="528" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D528" s="72"/>
+      <c r="D528" s="67"/>
     </row>
     <row r="529" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D529" s="72"/>
+      <c r="D529" s="67"/>
     </row>
     <row r="530" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D530" s="72"/>
+      <c r="D530" s="67"/>
     </row>
     <row r="531" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D531" s="72"/>
+      <c r="D531" s="67"/>
     </row>
     <row r="532" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D532" s="72"/>
+      <c r="D532" s="67"/>
     </row>
     <row r="533" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D533" s="72"/>
+      <c r="D533" s="67"/>
     </row>
     <row r="534" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D534" s="72"/>
+      <c r="D534" s="67"/>
     </row>
     <row r="535" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D535" s="72"/>
+      <c r="D535" s="67"/>
     </row>
     <row r="536" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D536" s="72"/>
+      <c r="D536" s="67"/>
     </row>
     <row r="537" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D537" s="72"/>
+      <c r="D537" s="67"/>
     </row>
     <row r="538" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D538" s="72"/>
+      <c r="D538" s="67"/>
     </row>
     <row r="539" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D539" s="72"/>
+      <c r="D539" s="67"/>
     </row>
     <row r="540" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D540" s="72"/>
+      <c r="D540" s="67"/>
     </row>
     <row r="541" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D541" s="72"/>
+      <c r="D541" s="67"/>
     </row>
     <row r="542" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D542" s="72"/>
+      <c r="D542" s="67"/>
     </row>
     <row r="543" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D543" s="72"/>
+      <c r="D543" s="67"/>
     </row>
     <row r="544" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D544" s="72"/>
+      <c r="D544" s="67"/>
     </row>
     <row r="545" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D545" s="72"/>
+      <c r="D545" s="67"/>
     </row>
     <row r="546" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D546" s="72"/>
+      <c r="D546" s="67"/>
     </row>
     <row r="547" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D547" s="72"/>
+      <c r="D547" s="67"/>
     </row>
     <row r="548" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D548" s="72"/>
+      <c r="D548" s="67"/>
     </row>
     <row r="549" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D549" s="72"/>
+      <c r="D549" s="67"/>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D550" s="72"/>
+      <c r="D550" s="67"/>
     </row>
     <row r="551" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D551" s="72"/>
+      <c r="D551" s="67"/>
     </row>
     <row r="552" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D552" s="72"/>
+      <c r="D552" s="67"/>
     </row>
     <row r="553" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D553" s="72"/>
+      <c r="D553" s="67"/>
     </row>
     <row r="554" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D554" s="72"/>
+      <c r="D554" s="67"/>
     </row>
     <row r="555" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D555" s="72"/>
+      <c r="D555" s="67"/>
     </row>
     <row r="556" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D556" s="72"/>
+      <c r="D556" s="67"/>
     </row>
     <row r="557" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D557" s="72"/>
+      <c r="D557" s="67"/>
     </row>
     <row r="558" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D558" s="72"/>
+      <c r="D558" s="67"/>
     </row>
     <row r="559" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D559" s="72"/>
+      <c r="D559" s="67"/>
     </row>
     <row r="560" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D560" s="72"/>
+      <c r="D560" s="67"/>
     </row>
     <row r="561" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D561" s="72"/>
+      <c r="D561" s="67"/>
     </row>
     <row r="562" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D562" s="72"/>
+      <c r="D562" s="67"/>
     </row>
     <row r="563" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D563" s="72"/>
+      <c r="D563" s="67"/>
     </row>
     <row r="564" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D564" s="72"/>
+      <c r="D564" s="67"/>
     </row>
     <row r="565" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D565" s="72"/>
+      <c r="D565" s="67"/>
     </row>
     <row r="566" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D566" s="72"/>
+      <c r="D566" s="67"/>
     </row>
     <row r="567" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D567" s="72"/>
+      <c r="D567" s="67"/>
     </row>
     <row r="568" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D568" s="72"/>
+      <c r="D568" s="67"/>
     </row>
     <row r="569" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D569" s="72"/>
+      <c r="D569" s="67"/>
     </row>
     <row r="570" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D570" s="72"/>
+      <c r="D570" s="67"/>
     </row>
     <row r="571" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D571" s="72"/>
+      <c r="D571" s="67"/>
     </row>
     <row r="572" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D572" s="72"/>
+      <c r="D572" s="67"/>
     </row>
     <row r="573" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D573" s="72"/>
+      <c r="D573" s="67"/>
     </row>
     <row r="574" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D574" s="72"/>
+      <c r="D574" s="67"/>
     </row>
     <row r="575" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D575" s="72"/>
+      <c r="D575" s="67"/>
     </row>
     <row r="576" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D576" s="72"/>
+      <c r="D576" s="67"/>
     </row>
     <row r="577" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D577" s="72"/>
+      <c r="D577" s="67"/>
     </row>
     <row r="578" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D578" s="72"/>
+      <c r="D578" s="67"/>
     </row>
     <row r="579" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D579" s="72"/>
+      <c r="D579" s="67"/>
     </row>
     <row r="580" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D580" s="72"/>
+      <c r="D580" s="67"/>
     </row>
     <row r="581" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D581" s="72"/>
+      <c r="D581" s="67"/>
     </row>
     <row r="582" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D582" s="72"/>
+      <c r="D582" s="67"/>
     </row>
     <row r="583" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D583" s="72"/>
+      <c r="D583" s="67"/>
     </row>
     <row r="584" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D584" s="72"/>
+      <c r="D584" s="67"/>
     </row>
     <row r="585" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D585" s="72"/>
+      <c r="D585" s="67"/>
     </row>
     <row r="586" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D586" s="72"/>
+      <c r="D586" s="67"/>
     </row>
     <row r="587" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D587" s="72"/>
+      <c r="D587" s="67"/>
     </row>
     <row r="588" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D588" s="72"/>
+      <c r="D588" s="67"/>
     </row>
     <row r="589" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D589" s="72"/>
+      <c r="D589" s="67"/>
     </row>
     <row r="590" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D590" s="72"/>
+      <c r="D590" s="67"/>
     </row>
     <row r="591" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D591" s="72"/>
+      <c r="D591" s="67"/>
     </row>
     <row r="592" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D592" s="72"/>
+      <c r="D592" s="67"/>
     </row>
     <row r="593" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D593" s="72"/>
+      <c r="D593" s="67"/>
     </row>
     <row r="594" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D594" s="72"/>
+      <c r="D594" s="67"/>
     </row>
     <row r="595" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D595" s="72"/>
+      <c r="D595" s="67"/>
     </row>
     <row r="596" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D596" s="72"/>
+      <c r="D596" s="67"/>
     </row>
     <row r="597" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D597" s="72"/>
+      <c r="D597" s="67"/>
     </row>
     <row r="598" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D598" s="72"/>
+      <c r="D598" s="67"/>
     </row>
     <row r="599" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D599" s="72"/>
+      <c r="D599" s="67"/>
     </row>
     <row r="600" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D600" s="72"/>
+      <c r="D600" s="67"/>
     </row>
     <row r="601" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D601" s="72"/>
+      <c r="D601" s="67"/>
     </row>
     <row r="602" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D602" s="72"/>
+      <c r="D602" s="67"/>
     </row>
     <row r="603" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D603" s="72"/>
+      <c r="D603" s="67"/>
     </row>
     <row r="604" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D604" s="72"/>
+      <c r="D604" s="67"/>
     </row>
     <row r="605" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D605" s="72"/>
+      <c r="D605" s="67"/>
     </row>
     <row r="606" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D606" s="72"/>
+      <c r="D606" s="67"/>
     </row>
     <row r="607" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D607" s="72"/>
+      <c r="D607" s="67"/>
     </row>
     <row r="608" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D608" s="72"/>
+      <c r="D608" s="67"/>
     </row>
     <row r="609" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D609" s="72"/>
+      <c r="D609" s="67"/>
     </row>
     <row r="610" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D610" s="72"/>
+      <c r="D610" s="67"/>
     </row>
     <row r="611" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D611" s="72"/>
+      <c r="D611" s="67"/>
     </row>
     <row r="612" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D612" s="72"/>
+      <c r="D612" s="67"/>
     </row>
     <row r="613" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D613" s="72"/>
+      <c r="D613" s="67"/>
     </row>
     <row r="614" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D614" s="72"/>
+      <c r="D614" s="67"/>
     </row>
     <row r="615" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D615" s="72"/>
+      <c r="D615" s="67"/>
     </row>
     <row r="616" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D616" s="72"/>
+      <c r="D616" s="67"/>
     </row>
     <row r="617" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D617" s="72"/>
+      <c r="D617" s="67"/>
     </row>
     <row r="618" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D618" s="72"/>
+      <c r="D618" s="67"/>
     </row>
     <row r="619" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D619" s="72"/>
+      <c r="D619" s="67"/>
     </row>
     <row r="620" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D620" s="72"/>
+      <c r="D620" s="67"/>
     </row>
     <row r="621" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D621" s="72"/>
+      <c r="D621" s="67"/>
     </row>
     <row r="622" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D622" s="72"/>
+      <c r="D622" s="67"/>
     </row>
     <row r="623" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D623" s="72"/>
+      <c r="D623" s="67"/>
     </row>
     <row r="624" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D624" s="72"/>
+      <c r="D624" s="67"/>
     </row>
     <row r="625" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D625" s="72"/>
+      <c r="D625" s="67"/>
     </row>
     <row r="626" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D626" s="72"/>
+      <c r="D626" s="67"/>
     </row>
     <row r="627" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D627" s="72"/>
+      <c r="D627" s="67"/>
     </row>
     <row r="628" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D628" s="72"/>
+      <c r="D628" s="67"/>
     </row>
     <row r="629" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D629" s="72"/>
+      <c r="D629" s="67"/>
     </row>
     <row r="630" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D630" s="72"/>
+      <c r="D630" s="67"/>
     </row>
     <row r="631" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D631" s="72"/>
+      <c r="D631" s="67"/>
     </row>
     <row r="632" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D632" s="72"/>
+      <c r="D632" s="67"/>
     </row>
     <row r="633" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D633" s="72"/>
+      <c r="D633" s="67"/>
     </row>
     <row r="634" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D634" s="72"/>
+      <c r="D634" s="67"/>
     </row>
     <row r="635" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D635" s="72"/>
+      <c r="D635" s="67"/>
     </row>
     <row r="636" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D636" s="72"/>
+      <c r="D636" s="67"/>
     </row>
     <row r="637" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D637" s="72"/>
+      <c r="D637" s="67"/>
     </row>
     <row r="638" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D638" s="72"/>
+      <c r="D638" s="67"/>
     </row>
     <row r="639" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D639" s="72"/>
+      <c r="D639" s="67"/>
     </row>
     <row r="640" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D640" s="72"/>
+      <c r="D640" s="67"/>
     </row>
     <row r="641" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D641" s="72"/>
+      <c r="D641" s="67"/>
     </row>
     <row r="642" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D642" s="72"/>
+      <c r="D642" s="67"/>
     </row>
     <row r="643" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D643" s="72"/>
+      <c r="D643" s="67"/>
     </row>
     <row r="644" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D644" s="72"/>
+      <c r="D644" s="67"/>
     </row>
     <row r="645" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D645" s="72"/>
+      <c r="D645" s="67"/>
     </row>
     <row r="646" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D646" s="72"/>
+      <c r="D646" s="67"/>
     </row>
     <row r="647" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D647" s="72"/>
+      <c r="D647" s="67"/>
     </row>
     <row r="648" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D648" s="72"/>
+      <c r="D648" s="67"/>
     </row>
     <row r="649" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D649" s="72"/>
+      <c r="D649" s="67"/>
     </row>
     <row r="650" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D650" s="72"/>
+      <c r="D650" s="67"/>
     </row>
     <row r="651" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D651" s="72"/>
+      <c r="D651" s="67"/>
     </row>
     <row r="652" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D652" s="72"/>
+      <c r="D652" s="67"/>
     </row>
     <row r="653" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D653" s="72"/>
+      <c r="D653" s="67"/>
     </row>
     <row r="654" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D654" s="72"/>
+      <c r="D654" s="67"/>
     </row>
     <row r="655" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D655" s="72"/>
+      <c r="D655" s="67"/>
     </row>
     <row r="656" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D656" s="72"/>
+      <c r="D656" s="67"/>
     </row>
     <row r="657" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D657" s="72"/>
+      <c r="D657" s="67"/>
     </row>
     <row r="658" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D658" s="72"/>
+      <c r="D658" s="67"/>
     </row>
     <row r="659" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D659" s="72"/>
+      <c r="D659" s="67"/>
     </row>
     <row r="660" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D660" s="72"/>
+      <c r="D660" s="67"/>
     </row>
     <row r="661" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D661" s="72"/>
+      <c r="D661" s="67"/>
     </row>
     <row r="662" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D662" s="72"/>
+      <c r="D662" s="67"/>
     </row>
     <row r="663" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D663" s="72"/>
+      <c r="D663" s="67"/>
     </row>
     <row r="664" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D664" s="72"/>
+      <c r="D664" s="67"/>
     </row>
     <row r="665" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D665" s="72"/>
+      <c r="D665" s="67"/>
     </row>
     <row r="666" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D666" s="72"/>
+      <c r="D666" s="67"/>
     </row>
     <row r="667" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D667" s="72"/>
+      <c r="D667" s="67"/>
     </row>
     <row r="668" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D668" s="72"/>
+      <c r="D668" s="67"/>
     </row>
     <row r="669" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D669" s="72"/>
+      <c r="D669" s="67"/>
     </row>
     <row r="670" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D670" s="72"/>
+      <c r="D670" s="67"/>
     </row>
     <row r="671" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D671" s="72"/>
+      <c r="D671" s="67"/>
     </row>
     <row r="672" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D672" s="72"/>
+      <c r="D672" s="67"/>
     </row>
     <row r="673" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D673" s="72"/>
+      <c r="D673" s="67"/>
     </row>
     <row r="674" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D674" s="72"/>
+      <c r="D674" s="67"/>
     </row>
     <row r="675" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D675" s="72"/>
+      <c r="D675" s="67"/>
     </row>
     <row r="676" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D676" s="72"/>
+      <c r="D676" s="67"/>
     </row>
     <row r="677" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D677" s="72"/>
+      <c r="D677" s="67"/>
     </row>
     <row r="678" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D678" s="72"/>
+      <c r="D678" s="67"/>
     </row>
     <row r="679" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D679" s="72"/>
+      <c r="D679" s="67"/>
     </row>
     <row r="680" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D680" s="72"/>
+      <c r="D680" s="67"/>
     </row>
     <row r="681" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D681" s="72"/>
+      <c r="D681" s="67"/>
     </row>
     <row r="682" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D682" s="72"/>
+      <c r="D682" s="67"/>
     </row>
     <row r="683" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D683" s="72"/>
+      <c r="D683" s="67"/>
     </row>
     <row r="684" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D684" s="72"/>
+      <c r="D684" s="67"/>
     </row>
     <row r="685" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D685" s="72"/>
+      <c r="D685" s="67"/>
     </row>
     <row r="686" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D686" s="72"/>
+      <c r="D686" s="67"/>
     </row>
     <row r="687" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D687" s="72"/>
+      <c r="D687" s="67"/>
     </row>
     <row r="688" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D688" s="72"/>
+      <c r="D688" s="67"/>
     </row>
     <row r="689" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D689" s="72"/>
+      <c r="D689" s="67"/>
     </row>
     <row r="690" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D690" s="72"/>
+      <c r="D690" s="67"/>
     </row>
     <row r="691" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D691" s="72"/>
+      <c r="D691" s="67"/>
     </row>
     <row r="692" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D692" s="72"/>
+      <c r="D692" s="67"/>
     </row>
     <row r="693" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D693" s="72"/>
+      <c r="D693" s="67"/>
     </row>
     <row r="694" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D694" s="72"/>
+      <c r="D694" s="67"/>
     </row>
     <row r="695" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D695" s="72"/>
+      <c r="D695" s="67"/>
     </row>
     <row r="696" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D696" s="72"/>
+      <c r="D696" s="67"/>
     </row>
     <row r="697" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D697" s="72"/>
+      <c r="D697" s="67"/>
     </row>
     <row r="698" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D698" s="72"/>
+      <c r="D698" s="67"/>
     </row>
     <row r="699" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D699" s="72"/>
+      <c r="D699" s="67"/>
     </row>
     <row r="700" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D700" s="72"/>
+      <c r="D700" s="67"/>
     </row>
     <row r="701" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D701" s="72"/>
+      <c r="D701" s="67"/>
     </row>
     <row r="702" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D702" s="72"/>
+      <c r="D702" s="67"/>
     </row>
     <row r="703" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D703" s="72"/>
+      <c r="D703" s="67"/>
     </row>
     <row r="704" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D704" s="72"/>
+      <c r="D704" s="67"/>
     </row>
     <row r="705" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D705" s="72"/>
+      <c r="D705" s="67"/>
     </row>
     <row r="706" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D706" s="72"/>
+      <c r="D706" s="67"/>
     </row>
     <row r="707" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D707" s="72"/>
+      <c r="D707" s="67"/>
     </row>
     <row r="708" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D708" s="72"/>
+      <c r="D708" s="67"/>
     </row>
     <row r="709" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D709" s="72"/>
+      <c r="D709" s="67"/>
     </row>
     <row r="710" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D710" s="72"/>
+      <c r="D710" s="67"/>
     </row>
     <row r="711" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D711" s="72"/>
+      <c r="D711" s="67"/>
     </row>
     <row r="712" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D712" s="72"/>
+      <c r="D712" s="67"/>
     </row>
     <row r="713" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D713" s="72"/>
+      <c r="D713" s="67"/>
     </row>
     <row r="714" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D714" s="72"/>
+      <c r="D714" s="67"/>
     </row>
     <row r="715" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D715" s="72"/>
+      <c r="D715" s="67"/>
     </row>
     <row r="716" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D716" s="72"/>
+      <c r="D716" s="67"/>
     </row>
     <row r="717" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D717" s="72"/>
+      <c r="D717" s="67"/>
     </row>
     <row r="718" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D718" s="72"/>
+      <c r="D718" s="67"/>
     </row>
     <row r="719" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D719" s="72"/>
+      <c r="D719" s="67"/>
     </row>
     <row r="720" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D720" s="72"/>
+      <c r="D720" s="67"/>
     </row>
     <row r="721" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D721" s="72"/>
+      <c r="D721" s="67"/>
     </row>
     <row r="722" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D722" s="72"/>
+      <c r="D722" s="67"/>
     </row>
     <row r="723" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D723" s="72"/>
+      <c r="D723" s="67"/>
     </row>
     <row r="724" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D724" s="72"/>
+      <c r="D724" s="67"/>
     </row>
     <row r="725" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D725" s="72"/>
+      <c r="D725" s="67"/>
     </row>
     <row r="726" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D726" s="72"/>
+      <c r="D726" s="67"/>
     </row>
     <row r="727" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D727" s="72"/>
+      <c r="D727" s="67"/>
     </row>
     <row r="728" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D728" s="72"/>
+      <c r="D728" s="67"/>
     </row>
     <row r="729" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D729" s="72"/>
+      <c r="D729" s="67"/>
     </row>
     <row r="730" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D730" s="72"/>
+      <c r="D730" s="67"/>
     </row>
     <row r="731" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D731" s="72"/>
+      <c r="D731" s="67"/>
     </row>
     <row r="732" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D732" s="72"/>
+      <c r="D732" s="67"/>
     </row>
     <row r="733" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D733" s="72"/>
+      <c r="D733" s="67"/>
     </row>
     <row r="734" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D734" s="72"/>
+      <c r="D734" s="67"/>
     </row>
     <row r="735" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D735" s="72"/>
+      <c r="D735" s="67"/>
     </row>
     <row r="736" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D736" s="72"/>
+      <c r="D736" s="67"/>
     </row>
     <row r="737" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D737" s="72"/>
+      <c r="D737" s="67"/>
     </row>
     <row r="738" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D738" s="72"/>
+      <c r="D738" s="67"/>
     </row>
     <row r="739" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D739" s="72"/>
+      <c r="D739" s="67"/>
     </row>
     <row r="740" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D740" s="72"/>
+      <c r="D740" s="67"/>
     </row>
     <row r="741" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D741" s="72"/>
+      <c r="D741" s="67"/>
     </row>
     <row r="742" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D742" s="72"/>
+      <c r="D742" s="67"/>
     </row>
     <row r="743" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D743" s="72"/>
+      <c r="D743" s="67"/>
     </row>
     <row r="744" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D744" s="72"/>
+      <c r="D744" s="67"/>
     </row>
     <row r="745" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D745" s="72"/>
+      <c r="D745" s="67"/>
     </row>
     <row r="746" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D746" s="72"/>
+      <c r="D746" s="67"/>
     </row>
     <row r="747" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D747" s="72"/>
+      <c r="D747" s="67"/>
     </row>
     <row r="748" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D748" s="72"/>
+      <c r="D748" s="67"/>
     </row>
     <row r="749" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D749" s="72"/>
+      <c r="D749" s="67"/>
     </row>
     <row r="750" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D750" s="72"/>
+      <c r="D750" s="67"/>
     </row>
     <row r="751" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D751" s="72"/>
+      <c r="D751" s="67"/>
     </row>
     <row r="752" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D752" s="72"/>
+      <c r="D752" s="67"/>
     </row>
     <row r="753" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D753" s="72"/>
+      <c r="D753" s="67"/>
     </row>
     <row r="754" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D754" s="72"/>
+      <c r="D754" s="67"/>
     </row>
     <row r="755" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D755" s="72"/>
+      <c r="D755" s="67"/>
     </row>
     <row r="756" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D756" s="72"/>
+      <c r="D756" s="67"/>
     </row>
     <row r="757" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D757" s="72"/>
+      <c r="D757" s="67"/>
     </row>
     <row r="758" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D758" s="72"/>
+      <c r="D758" s="67"/>
     </row>
     <row r="759" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D759" s="72"/>
+      <c r="D759" s="67"/>
     </row>
     <row r="760" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D760" s="72"/>
+      <c r="D760" s="67"/>
     </row>
     <row r="761" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D761" s="72"/>
+      <c r="D761" s="67"/>
     </row>
     <row r="762" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D762" s="72"/>
+      <c r="D762" s="67"/>
     </row>
     <row r="763" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D763" s="72"/>
+      <c r="D763" s="67"/>
     </row>
     <row r="764" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D764" s="72"/>
+      <c r="D764" s="67"/>
     </row>
     <row r="765" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D765" s="72"/>
+      <c r="D765" s="67"/>
     </row>
     <row r="766" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D766" s="72"/>
+      <c r="D766" s="67"/>
     </row>
     <row r="767" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D767" s="72"/>
+      <c r="D767" s="67"/>
     </row>
     <row r="768" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D768" s="72"/>
+      <c r="D768" s="67"/>
     </row>
     <row r="769" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D769" s="72"/>
+      <c r="D769" s="67"/>
     </row>
     <row r="770" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D770" s="72"/>
+      <c r="D770" s="67"/>
     </row>
     <row r="771" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D771" s="72"/>
+      <c r="D771" s="67"/>
     </row>
     <row r="772" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D772" s="72"/>
+      <c r="D772" s="67"/>
     </row>
     <row r="773" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D773" s="72"/>
+      <c r="D773" s="67"/>
     </row>
     <row r="774" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D774" s="72"/>
+      <c r="D774" s="67"/>
     </row>
     <row r="775" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D775" s="72"/>
+      <c r="D775" s="67"/>
     </row>
     <row r="776" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D776" s="72"/>
+      <c r="D776" s="67"/>
     </row>
     <row r="777" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D777" s="72"/>
+      <c r="D777" s="67"/>
     </row>
     <row r="778" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D778" s="72"/>
+      <c r="D778" s="67"/>
     </row>
     <row r="779" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D779" s="72"/>
+      <c r="D779" s="67"/>
     </row>
     <row r="780" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D780" s="72"/>
+      <c r="D780" s="67"/>
     </row>
     <row r="781" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D781" s="72"/>
+      <c r="D781" s="67"/>
     </row>
     <row r="782" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D782" s="72"/>
+      <c r="D782" s="67"/>
     </row>
     <row r="783" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D783" s="72"/>
+      <c r="D783" s="67"/>
     </row>
     <row r="784" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D784" s="72"/>
+      <c r="D784" s="67"/>
     </row>
     <row r="785" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D785" s="72"/>
+      <c r="D785" s="67"/>
     </row>
     <row r="786" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D786" s="72"/>
+      <c r="D786" s="67"/>
     </row>
     <row r="787" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D787" s="72"/>
+      <c r="D787" s="67"/>
     </row>
     <row r="788" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D788" s="72"/>
+      <c r="D788" s="67"/>
     </row>
     <row r="789" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D789" s="72"/>
+      <c r="D789" s="67"/>
     </row>
     <row r="790" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D790" s="72"/>
+      <c r="D790" s="67"/>
     </row>
     <row r="791" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D791" s="72"/>
+      <c r="D791" s="67"/>
     </row>
     <row r="792" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D792" s="72"/>
+      <c r="D792" s="67"/>
     </row>
     <row r="793" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D793" s="72"/>
+      <c r="D793" s="67"/>
     </row>
     <row r="794" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D794" s="72"/>
+      <c r="D794" s="67"/>
     </row>
     <row r="795" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D795" s="72"/>
+      <c r="D795" s="67"/>
     </row>
     <row r="796" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D796" s="72"/>
+      <c r="D796" s="67"/>
     </row>
     <row r="797" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D797" s="72"/>
+      <c r="D797" s="67"/>
     </row>
     <row r="798" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D798" s="72"/>
+      <c r="D798" s="67"/>
     </row>
     <row r="799" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D799" s="72"/>
+      <c r="D799" s="67"/>
     </row>
     <row r="800" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D800" s="72"/>
+      <c r="D800" s="67"/>
     </row>
     <row r="801" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D801" s="72"/>
+      <c r="D801" s="67"/>
     </row>
     <row r="802" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D802" s="72"/>
+      <c r="D802" s="67"/>
     </row>
     <row r="803" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D803" s="72"/>
+      <c r="D803" s="67"/>
     </row>
     <row r="804" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D804" s="72"/>
+      <c r="D804" s="67"/>
     </row>
     <row r="805" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D805" s="72"/>
+      <c r="D805" s="67"/>
     </row>
     <row r="806" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D806" s="72"/>
+      <c r="D806" s="67"/>
     </row>
     <row r="807" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D807" s="72"/>
+      <c r="D807" s="67"/>
     </row>
     <row r="808" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D808" s="72"/>
+      <c r="D808" s="67"/>
     </row>
     <row r="809" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D809" s="72"/>
+      <c r="D809" s="67"/>
     </row>
     <row r="810" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D810" s="72"/>
+      <c r="D810" s="67"/>
     </row>
     <row r="811" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D811" s="72"/>
+      <c r="D811" s="67"/>
     </row>
     <row r="812" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D812" s="72"/>
+      <c r="D812" s="67"/>
     </row>
     <row r="813" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D813" s="72"/>
+      <c r="D813" s="67"/>
     </row>
     <row r="814" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D814" s="72"/>
+      <c r="D814" s="67"/>
     </row>
     <row r="815" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D815" s="72"/>
+      <c r="D815" s="67"/>
     </row>
     <row r="816" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D816" s="72"/>
+      <c r="D816" s="67"/>
     </row>
     <row r="817" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D817" s="72"/>
+      <c r="D817" s="67"/>
     </row>
     <row r="818" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D818" s="72"/>
+      <c r="D818" s="67"/>
     </row>
     <row r="819" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D819" s="72"/>
+      <c r="D819" s="67"/>
     </row>
     <row r="820" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D820" s="72"/>
+      <c r="D820" s="67"/>
     </row>
     <row r="821" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D821" s="72"/>
+      <c r="D821" s="67"/>
     </row>
     <row r="822" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D822" s="72"/>
+      <c r="D822" s="67"/>
     </row>
     <row r="823" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D823" s="72"/>
+      <c r="D823" s="67"/>
     </row>
     <row r="824" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D824" s="72"/>
+      <c r="D824" s="67"/>
     </row>
     <row r="825" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D825" s="72"/>
+      <c r="D825" s="67"/>
     </row>
     <row r="826" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D826" s="72"/>
+      <c r="D826" s="67"/>
     </row>
     <row r="827" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D827" s="72"/>
+      <c r="D827" s="67"/>
     </row>
     <row r="828" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D828" s="72"/>
+      <c r="D828" s="67"/>
     </row>
     <row r="829" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D829" s="72"/>
+      <c r="D829" s="67"/>
     </row>
     <row r="830" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D830" s="72"/>
+      <c r="D830" s="67"/>
     </row>
     <row r="831" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D831" s="72"/>
+      <c r="D831" s="67"/>
     </row>
     <row r="832" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D832" s="72"/>
+      <c r="D832" s="67"/>
     </row>
     <row r="833" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D833" s="72"/>
+      <c r="D833" s="67"/>
     </row>
     <row r="834" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D834" s="72"/>
+      <c r="D834" s="67"/>
     </row>
     <row r="835" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D835" s="72"/>
+      <c r="D835" s="67"/>
     </row>
     <row r="836" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D836" s="72"/>
+      <c r="D836" s="67"/>
     </row>
     <row r="837" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D837" s="72"/>
+      <c r="D837" s="67"/>
     </row>
     <row r="838" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D838" s="72"/>
+      <c r="D838" s="67"/>
     </row>
     <row r="839" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D839" s="72"/>
+      <c r="D839" s="67"/>
     </row>
     <row r="840" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D840" s="72"/>
+      <c r="D840" s="67"/>
     </row>
     <row r="841" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D841" s="72"/>
+      <c r="D841" s="67"/>
     </row>
     <row r="842" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D842" s="72"/>
+      <c r="D842" s="67"/>
     </row>
     <row r="843" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D843" s="72"/>
+      <c r="D843" s="67"/>
     </row>
     <row r="844" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D844" s="72"/>
+      <c r="D844" s="67"/>
     </row>
     <row r="845" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D845" s="72"/>
+      <c r="D845" s="67"/>
     </row>
     <row r="846" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D846" s="72"/>
+      <c r="D846" s="67"/>
     </row>
     <row r="847" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D847" s="72"/>
+      <c r="D847" s="67"/>
     </row>
     <row r="848" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D848" s="72"/>
+      <c r="D848" s="67"/>
     </row>
     <row r="849" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D849" s="72"/>
+      <c r="D849" s="67"/>
     </row>
     <row r="850" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D850" s="72"/>
+      <c r="D850" s="67"/>
     </row>
     <row r="851" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D851" s="72"/>
+      <c r="D851" s="67"/>
     </row>
     <row r="852" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D852" s="72"/>
+      <c r="D852" s="67"/>
     </row>
     <row r="853" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D853" s="72"/>
+      <c r="D853" s="67"/>
     </row>
     <row r="854" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D854" s="72"/>
+      <c r="D854" s="67"/>
     </row>
     <row r="855" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D855" s="72"/>
+      <c r="D855" s="67"/>
     </row>
     <row r="856" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D856" s="72"/>
+      <c r="D856" s="67"/>
     </row>
     <row r="857" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D857" s="72"/>
+      <c r="D857" s="67"/>
     </row>
     <row r="858" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D858" s="72"/>
+      <c r="D858" s="67"/>
     </row>
     <row r="859" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D859" s="72"/>
+      <c r="D859" s="67"/>
     </row>
     <row r="860" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D860" s="72"/>
+      <c r="D860" s="67"/>
     </row>
     <row r="861" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D861" s="72"/>
+      <c r="D861" s="67"/>
     </row>
     <row r="862" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D862" s="72"/>
+      <c r="D862" s="67"/>
     </row>
     <row r="863" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D863" s="72"/>
+      <c r="D863" s="67"/>
     </row>
     <row r="864" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D864" s="72"/>
+      <c r="D864" s="67"/>
     </row>
     <row r="865" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D865" s="72"/>
+      <c r="D865" s="67"/>
     </row>
     <row r="866" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D866" s="72"/>
+      <c r="D866" s="67"/>
     </row>
     <row r="867" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D867" s="72"/>
+      <c r="D867" s="67"/>
     </row>
     <row r="868" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D868" s="72"/>
+      <c r="D868" s="67"/>
     </row>
     <row r="869" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D869" s="72"/>
+      <c r="D869" s="67"/>
     </row>
     <row r="870" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D870" s="72"/>
+      <c r="D870" s="67"/>
     </row>
     <row r="871" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D871" s="72"/>
+      <c r="D871" s="67"/>
     </row>
     <row r="872" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D872" s="72"/>
+      <c r="D872" s="67"/>
     </row>
     <row r="873" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D873" s="72"/>
+      <c r="D873" s="67"/>
     </row>
     <row r="874" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D874" s="72"/>
+      <c r="D874" s="67"/>
     </row>
     <row r="875" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D875" s="72"/>
+      <c r="D875" s="67"/>
     </row>
     <row r="876" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D876" s="72"/>
+      <c r="D876" s="67"/>
     </row>
     <row r="877" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D877" s="72"/>
+      <c r="D877" s="67"/>
     </row>
     <row r="878" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D878" s="72"/>
+      <c r="D878" s="67"/>
     </row>
     <row r="879" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D879" s="72"/>
+      <c r="D879" s="67"/>
     </row>
     <row r="880" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D880" s="72"/>
+      <c r="D880" s="67"/>
     </row>
     <row r="881" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D881" s="72"/>
+      <c r="D881" s="67"/>
     </row>
     <row r="882" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D882" s="72"/>
+      <c r="D882" s="67"/>
     </row>
     <row r="883" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D883" s="72"/>
+      <c r="D883" s="67"/>
     </row>
     <row r="884" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D884" s="72"/>
+      <c r="D884" s="67"/>
     </row>
     <row r="885" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D885" s="72"/>
+      <c r="D885" s="67"/>
     </row>
     <row r="886" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D886" s="72"/>
+      <c r="D886" s="67"/>
     </row>
     <row r="887" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D887" s="72"/>
+      <c r="D887" s="67"/>
     </row>
     <row r="888" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D888" s="72"/>
+      <c r="D888" s="67"/>
     </row>
     <row r="889" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D889" s="72"/>
+      <c r="D889" s="67"/>
     </row>
     <row r="890" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D890" s="72"/>
+      <c r="D890" s="67"/>
     </row>
     <row r="891" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D891" s="72"/>
+      <c r="D891" s="67"/>
     </row>
     <row r="892" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D892" s="72"/>
+      <c r="D892" s="67"/>
     </row>
     <row r="893" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D893" s="72"/>
+      <c r="D893" s="67"/>
     </row>
     <row r="894" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D894" s="72"/>
+      <c r="D894" s="67"/>
     </row>
     <row r="895" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D895" s="72"/>
+      <c r="D895" s="67"/>
     </row>
     <row r="896" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D896" s="72"/>
+      <c r="D896" s="67"/>
     </row>
     <row r="897" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D897" s="72"/>
+      <c r="D897" s="67"/>
     </row>
     <row r="898" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D898" s="72"/>
+      <c r="D898" s="67"/>
     </row>
     <row r="899" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D899" s="72"/>
+      <c r="D899" s="67"/>
     </row>
     <row r="900" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D900" s="72"/>
+      <c r="D900" s="67"/>
     </row>
     <row r="901" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D901" s="72"/>
+      <c r="D901" s="67"/>
     </row>
     <row r="902" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D902" s="72"/>
+      <c r="D902" s="67"/>
     </row>
     <row r="903" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D903" s="72"/>
+      <c r="D903" s="67"/>
     </row>
     <row r="904" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D904" s="72"/>
+      <c r="D904" s="67"/>
     </row>
     <row r="905" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D905" s="72"/>
+      <c r="D905" s="67"/>
     </row>
     <row r="906" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D906" s="72"/>
+      <c r="D906" s="67"/>
     </row>
     <row r="907" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D907" s="72"/>
+      <c r="D907" s="67"/>
     </row>
     <row r="908" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D908" s="72"/>
+      <c r="D908" s="67"/>
     </row>
     <row r="909" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D909" s="72"/>
+      <c r="D909" s="67"/>
     </row>
     <row r="910" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D910" s="72"/>
+      <c r="D910" s="67"/>
     </row>
     <row r="911" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D911" s="72"/>
+      <c r="D911" s="67"/>
     </row>
     <row r="912" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D912" s="72"/>
+      <c r="D912" s="67"/>
     </row>
     <row r="913" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D913" s="72"/>
+      <c r="D913" s="67"/>
     </row>
     <row r="914" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D914" s="72"/>
+      <c r="D914" s="67"/>
     </row>
     <row r="915" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D915" s="72"/>
+      <c r="D915" s="67"/>
     </row>
     <row r="916" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D916" s="72"/>
+      <c r="D916" s="67"/>
     </row>
     <row r="917" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D917" s="72"/>
+      <c r="D917" s="67"/>
     </row>
     <row r="918" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D918" s="72"/>
+      <c r="D918" s="67"/>
     </row>
     <row r="919" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D919" s="72"/>
+      <c r="D919" s="67"/>
     </row>
     <row r="920" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D920" s="72"/>
+      <c r="D920" s="67"/>
     </row>
     <row r="921" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D921" s="72"/>
+      <c r="D921" s="67"/>
     </row>
     <row r="922" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D922" s="72"/>
+      <c r="D922" s="67"/>
     </row>
     <row r="923" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D923" s="72"/>
+      <c r="D923" s="67"/>
     </row>
     <row r="924" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D924" s="72"/>
+      <c r="D924" s="67"/>
     </row>
     <row r="925" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D925" s="72"/>
+      <c r="D925" s="67"/>
     </row>
     <row r="926" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D926" s="72"/>
+      <c r="D926" s="67"/>
     </row>
     <row r="927" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D927" s="72"/>
+      <c r="D927" s="67"/>
     </row>
     <row r="928" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D928" s="72"/>
+      <c r="D928" s="67"/>
     </row>
     <row r="929" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D929" s="72"/>
+      <c r="D929" s="67"/>
     </row>
     <row r="930" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D930" s="72"/>
+      <c r="D930" s="67"/>
     </row>
     <row r="931" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D931" s="72"/>
+      <c r="D931" s="67"/>
     </row>
     <row r="932" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D932" s="72"/>
+      <c r="D932" s="67"/>
     </row>
     <row r="933" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D933" s="72"/>
+      <c r="D933" s="67"/>
     </row>
     <row r="934" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D934" s="72"/>
+      <c r="D934" s="67"/>
     </row>
     <row r="935" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D935" s="72"/>
+      <c r="D935" s="67"/>
     </row>
     <row r="936" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D936" s="72"/>
+      <c r="D936" s="67"/>
     </row>
     <row r="937" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D937" s="72"/>
+      <c r="D937" s="67"/>
     </row>
     <row r="938" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D938" s="72"/>
+      <c r="D938" s="67"/>
     </row>
     <row r="939" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D939" s="72"/>
+      <c r="D939" s="67"/>
     </row>
     <row r="940" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D940" s="72"/>
+      <c r="D940" s="67"/>
     </row>
     <row r="941" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D941" s="72"/>
+      <c r="D941" s="67"/>
     </row>
     <row r="942" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D942" s="72"/>
+      <c r="D942" s="67"/>
     </row>
     <row r="943" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D943" s="72"/>
+      <c r="D943" s="67"/>
     </row>
     <row r="944" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D944" s="72"/>
+      <c r="D944" s="67"/>
     </row>
     <row r="945" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D945" s="72"/>
+      <c r="D945" s="67"/>
     </row>
     <row r="946" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D946" s="72"/>
+      <c r="D946" s="67"/>
     </row>
     <row r="947" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D947" s="72"/>
+      <c r="D947" s="67"/>
     </row>
     <row r="948" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D948" s="72"/>
+      <c r="D948" s="67"/>
     </row>
     <row r="949" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D949" s="72"/>
+      <c r="D949" s="67"/>
     </row>
     <row r="950" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D950" s="72"/>
+      <c r="D950" s="67"/>
     </row>
     <row r="951" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D951" s="72"/>
+      <c r="D951" s="67"/>
     </row>
     <row r="952" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D952" s="72"/>
+      <c r="D952" s="67"/>
     </row>
     <row r="953" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D953" s="72"/>
+      <c r="D953" s="67"/>
     </row>
     <row r="954" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D954" s="72"/>
+      <c r="D954" s="67"/>
     </row>
     <row r="955" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D955" s="72"/>
+      <c r="D955" s="67"/>
     </row>
     <row r="956" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D956" s="72"/>
+      <c r="D956" s="67"/>
     </row>
     <row r="957" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D957" s="72"/>
+      <c r="D957" s="67"/>
     </row>
     <row r="958" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D958" s="72"/>
+      <c r="D958" s="67"/>
     </row>
     <row r="959" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D959" s="72"/>
+      <c r="D959" s="67"/>
     </row>
     <row r="960" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D960" s="72"/>
+      <c r="D960" s="67"/>
     </row>
     <row r="961" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D961" s="72"/>
+      <c r="D961" s="67"/>
     </row>
     <row r="962" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D962" s="72"/>
+      <c r="D962" s="67"/>
     </row>
     <row r="963" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D963" s="72"/>
+      <c r="D963" s="67"/>
     </row>
     <row r="964" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D964" s="72"/>
+      <c r="D964" s="67"/>
     </row>
     <row r="965" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D965" s="72"/>
+      <c r="D965" s="67"/>
     </row>
     <row r="966" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D966" s="72"/>
+      <c r="D966" s="67"/>
     </row>
     <row r="967" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D967" s="72"/>
+      <c r="D967" s="67"/>
     </row>
     <row r="968" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D968" s="72"/>
+      <c r="D968" s="67"/>
     </row>
     <row r="969" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D969" s="72"/>
+      <c r="D969" s="67"/>
     </row>
     <row r="970" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D970" s="72"/>
+      <c r="D970" s="67"/>
     </row>
     <row r="971" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D971" s="72"/>
+      <c r="D971" s="67"/>
     </row>
     <row r="972" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D972" s="72"/>
+      <c r="D972" s="67"/>
     </row>
     <row r="973" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D973" s="72"/>
+      <c r="D973" s="67"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10219,19 +10240,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6956C556-3A37-4B72-AFDC-C20EB71A0CB6}">
   <dimension ref="A1:J986"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="33"/>
-    <col min="7" max="7" width="18.28515625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="85" customWidth="1"/>
     <col min="9" max="9" width="57.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" style="33" customWidth="1"/>
   </cols>
@@ -10255,7 +10276,7 @@
       <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -10275,13 +10296,13 @@
       <c r="D2" s="10"/>
       <c r="E2" s="22"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="25"/>
       <c r="I2" s="10"/>
       <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="73">
         <v>1</v>
       </c>
       <c r="B3" s="16"/>
@@ -10297,7 +10318,7 @@
       <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="80">
         <v>0</v>
       </c>
       <c r="H3" s="26">
@@ -10311,8 +10332,8 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+    <row r="4" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>7</v>
@@ -10326,7 +10347,7 @@
       <c r="F4" s="14">
         <v>1</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="80">
         <v>0</v>
       </c>
       <c r="H4" s="19">
@@ -10341,7 +10362,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
         <v>17</v>
@@ -10355,7 +10376,7 @@
       <c r="F5" s="14">
         <v>1</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="80">
         <v>0</v>
       </c>
       <c r="H5" s="26">
@@ -10370,19 +10391,19 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="22"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="25"/>
       <c r="I6" s="10"/>
       <c r="J6" s="45"/>
     </row>
     <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
@@ -10396,7 +10417,7 @@
       <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="80">
         <v>0</v>
       </c>
       <c r="H7" s="27">
@@ -10411,7 +10432,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16" t="s">
         <v>11</v>
@@ -10425,7 +10446,7 @@
       <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="80">
         <v>0</v>
       </c>
       <c r="H8" s="27">
@@ -10440,7 +10461,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
         <v>34</v>
@@ -10454,7 +10475,7 @@
       <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="80">
         <v>0</v>
       </c>
       <c r="H9" s="27">
@@ -10469,7 +10490,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
         <v>36</v>
@@ -10483,7 +10504,7 @@
       <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="80">
         <v>0</v>
       </c>
       <c r="H10" s="27">
@@ -10498,19 +10519,19 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="22"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="25"/>
       <c r="I11" s="10"/>
       <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
         <v>25</v>
@@ -10524,7 +10545,7 @@
       <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="80">
         <v>18</v>
       </c>
       <c r="H12" s="27">
@@ -10539,19 +10560,19 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="22"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="25"/>
       <c r="I13" s="10"/>
       <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
         <v>24</v>
@@ -10565,7 +10586,7 @@
       <c r="F14" s="14">
         <v>4</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="27">
         <f t="shared" ref="H14:H19" si="0">E14*F14</f>
         <v>13.92</v>
@@ -10578,7 +10599,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
         <v>23</v>
@@ -10592,7 +10613,7 @@
       <c r="F15" s="14">
         <v>1</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="80">
         <v>20</v>
       </c>
       <c r="H15" s="27">
@@ -10607,19 +10628,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="22"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="25"/>
       <c r="I16" s="10"/>
       <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
         <v>26</v>
@@ -10633,7 +10654,7 @@
       <c r="F17" s="14">
         <v>1</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="80">
         <v>6.95</v>
       </c>
       <c r="H17" s="27">
@@ -10646,19 +10667,19 @@
       <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="22"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="25"/>
       <c r="I18" s="10"/>
       <c r="J18" s="45"/>
     </row>
     <row r="19" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
         <v>30</v>
@@ -10672,7 +10693,7 @@
       <c r="F19" s="14">
         <v>1</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="80">
         <v>3.58</v>
       </c>
       <c r="H19" s="37">
@@ -10685,19 +10706,19 @@
       <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="52"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53">
+      <c r="A21" s="76">
         <v>2</v>
       </c>
       <c r="B21" s="12"/>
@@ -10707,24 +10728,24 @@
       <c r="D21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="50">
         <v>3.83</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="51">
         <v>1</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57">
+      <c r="G21" s="53"/>
+      <c r="H21" s="53">
         <f>E21*F21</f>
         <v>3.83</v>
       </c>
-      <c r="I21" s="58" t="s">
+      <c r="I21" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="58"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
         <v>48</v>
@@ -10732,16 +10753,16 @@
       <c r="D22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="55">
         <v>9.99</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="51">
         <v>1</v>
       </c>
-      <c r="G22" s="61">
-        <v>18</v>
-      </c>
-      <c r="H22" s="57">
+      <c r="G22" s="82">
+        <v>30</v>
+      </c>
+      <c r="H22" s="53">
         <f>E22*F22</f>
         <v>9.99</v>
       </c>
@@ -10751,19 +10772,19 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-    </row>
-    <row r="24" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="77"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
         <v>30</v>
@@ -10771,20 +10792,20 @@
       <c r="D24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="57">
         <v>20.37</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="51">
         <v>2</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="82">
         <v>3.58</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="58">
         <f t="shared" ref="H24" si="1">E24*F24</f>
         <v>40.74</v>
       </c>
-      <c r="I24" s="64" t="s">
+      <c r="I24" s="59" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="9"/>
@@ -10793,9 +10814,9 @@
       <c r="F25" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="83">
         <f>SUM(G2:G24)</f>
-        <v>70.11</v>
+        <v>82.11</v>
       </c>
       <c r="H25" s="38">
         <f>+SUM(H2:H24)</f>
@@ -10818,7 +10839,7 @@
       </c>
       <c r="G28" s="29">
         <f>G25+H25</f>
-        <v>609.80999999999995</v>
+        <v>621.80999999999995</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -10827,7 +10848,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+      <c r="G33" s="84"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="31"/>
@@ -10837,7 +10858,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="G34" s="84"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="31"/>
@@ -10847,7 +10868,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="G35" s="84"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="31"/>
@@ -10857,7 +10878,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
+      <c r="G36" s="84"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="31"/>
@@ -10895,7 +10916,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
+      <c r="G41" s="84"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="31"/>
@@ -10905,7 +10926,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
       <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
+      <c r="G42" s="84"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="31"/>
@@ -10915,7 +10936,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
       <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="31"/>
@@ -10925,7 +10946,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
+      <c r="G44" s="84"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="31"/>
@@ -10935,7 +10956,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
       <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
+      <c r="G45" s="84"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="31"/>
@@ -10945,7 +10966,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
+      <c r="G46" s="84"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="31"/>
@@ -10955,7 +10976,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
       <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
+      <c r="G47" s="84"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="31"/>
@@ -10965,7 +10986,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
       <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
+      <c r="G48" s="84"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="31"/>
@@ -10975,7 +10996,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
+      <c r="G49" s="84"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="31"/>
@@ -10985,7 +11006,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
       <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
+      <c r="G50" s="84"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="31"/>
@@ -10995,7 +11016,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
       <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
+      <c r="G51" s="84"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="31"/>
@@ -11005,7 +11026,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
       <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
+      <c r="G52" s="84"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="31"/>
@@ -11015,7 +11036,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="4"/>
       <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
+      <c r="G53" s="84"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="31"/>
@@ -11025,7 +11046,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
+      <c r="G54" s="84"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="31"/>
@@ -11035,7 +11056,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
       <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
+      <c r="G55" s="84"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="31"/>
@@ -11045,7 +11066,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
       <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
+      <c r="G56" s="84"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="31"/>
@@ -11055,7 +11076,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
       <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
+      <c r="G57" s="84"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="31"/>
@@ -11065,7 +11086,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
       <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
+      <c r="G58" s="84"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="31"/>
@@ -11075,7 +11096,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
       <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
+      <c r="G59" s="84"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="31"/>
@@ -11085,7 +11106,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
       <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
+      <c r="G60" s="84"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="31"/>
@@ -11095,7 +11116,7 @@
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
       <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
+      <c r="G61" s="84"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="31"/>
@@ -11105,7 +11126,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
       <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
+      <c r="G62" s="84"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="31"/>
@@ -11115,7 +11136,7 @@
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
       <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
+      <c r="G63" s="84"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="31"/>
@@ -11125,7 +11146,7 @@
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
       <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
+      <c r="G64" s="84"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="31"/>
@@ -11135,7 +11156,7 @@
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
       <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
+      <c r="G65" s="84"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="31"/>
@@ -11145,7 +11166,7 @@
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
       <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
+      <c r="G66" s="84"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="31"/>
@@ -11155,7 +11176,7 @@
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
       <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
+      <c r="G67" s="84"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="31"/>
@@ -11165,7 +11186,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
       <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
+      <c r="G68" s="84"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="31"/>
@@ -11175,7 +11196,7 @@
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
       <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
+      <c r="G69" s="84"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="31"/>
@@ -11185,7 +11206,7 @@
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
       <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
+      <c r="G70" s="84"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="31"/>
@@ -11195,7 +11216,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
       <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
+      <c r="G71" s="84"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="31"/>
@@ -11205,7 +11226,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="4"/>
       <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
+      <c r="G72" s="84"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="31"/>
@@ -11215,7 +11236,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
       <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
+      <c r="G73" s="84"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="31"/>
@@ -11225,7 +11246,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
       <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
+      <c r="G74" s="84"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="31"/>
@@ -11235,7 +11256,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="4"/>
       <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
+      <c r="G75" s="84"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="31"/>
@@ -11245,7 +11266,7 @@
       <c r="D76" s="3"/>
       <c r="E76" s="4"/>
       <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
+      <c r="G76" s="84"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="31"/>
@@ -11255,7 +11276,7 @@
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
       <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
+      <c r="G77" s="84"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="31"/>
@@ -11265,7 +11286,7 @@
       <c r="D78" s="3"/>
       <c r="E78" s="4"/>
       <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
+      <c r="G78" s="84"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="31"/>
@@ -11275,7 +11296,7 @@
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
       <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
+      <c r="G79" s="84"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="31"/>
@@ -11285,7 +11306,7 @@
       <c r="D80" s="3"/>
       <c r="E80" s="4"/>
       <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
+      <c r="G80" s="84"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="31"/>
@@ -11295,7 +11316,7 @@
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
       <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
+      <c r="G81" s="84"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="31"/>
@@ -11305,7 +11326,7 @@
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
       <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
+      <c r="G82" s="84"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="31"/>
@@ -11315,7 +11336,7 @@
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
       <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
+      <c r="G83" s="84"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="31"/>
@@ -11325,7 +11346,7 @@
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
       <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
+      <c r="G84" s="84"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="31"/>
@@ -11335,7 +11356,7 @@
       <c r="D85" s="3"/>
       <c r="E85" s="4"/>
       <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
+      <c r="G85" s="84"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="31"/>
@@ -11345,7 +11366,7 @@
       <c r="D86" s="3"/>
       <c r="E86" s="4"/>
       <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
+      <c r="G86" s="84"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="31"/>
@@ -11355,7 +11376,7 @@
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
       <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
+      <c r="G87" s="84"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="31"/>
@@ -11365,7 +11386,7 @@
       <c r="D88" s="3"/>
       <c r="E88" s="4"/>
       <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
+      <c r="G88" s="84"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="31"/>
@@ -11375,7 +11396,7 @@
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
       <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
+      <c r="G89" s="84"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="31"/>
@@ -11385,7 +11406,7 @@
       <c r="D90" s="3"/>
       <c r="E90" s="4"/>
       <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
+      <c r="G90" s="84"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="31"/>
@@ -11395,7 +11416,7 @@
       <c r="D91" s="3"/>
       <c r="E91" s="4"/>
       <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
+      <c r="G91" s="84"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="31"/>
@@ -11405,7 +11426,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="4"/>
       <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
+      <c r="G92" s="84"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="31"/>
@@ -11415,7 +11436,7 @@
       <c r="D93" s="3"/>
       <c r="E93" s="4"/>
       <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
+      <c r="G93" s="84"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="31"/>
@@ -11425,7 +11446,7 @@
       <c r="D94" s="3"/>
       <c r="E94" s="4"/>
       <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
+      <c r="G94" s="84"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="31"/>
@@ -11435,7 +11456,7 @@
       <c r="D95" s="3"/>
       <c r="E95" s="4"/>
       <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
+      <c r="G95" s="84"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="31"/>
@@ -11445,7 +11466,7 @@
       <c r="D96" s="3"/>
       <c r="E96" s="4"/>
       <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
+      <c r="G96" s="84"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="31"/>
@@ -11455,7 +11476,7 @@
       <c r="D97" s="3"/>
       <c r="E97" s="4"/>
       <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
+      <c r="G97" s="84"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="31"/>
@@ -11465,7 +11486,7 @@
       <c r="D98" s="3"/>
       <c r="E98" s="4"/>
       <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
+      <c r="G98" s="84"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="31"/>
@@ -11475,7 +11496,7 @@
       <c r="D99" s="3"/>
       <c r="E99" s="4"/>
       <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
+      <c r="G99" s="84"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="31"/>
@@ -11485,7 +11506,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="4"/>
       <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
+      <c r="G100" s="84"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="31"/>
@@ -11495,7 +11516,7 @@
       <c r="D101" s="3"/>
       <c r="E101" s="4"/>
       <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
+      <c r="G101" s="84"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="31"/>
@@ -11505,7 +11526,7 @@
       <c r="D102" s="3"/>
       <c r="E102" s="4"/>
       <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
+      <c r="G102" s="84"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="31"/>
@@ -11515,7 +11536,7 @@
       <c r="D103" s="3"/>
       <c r="E103" s="4"/>
       <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
+      <c r="G103" s="84"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="31"/>
@@ -11525,7 +11546,7 @@
       <c r="D104" s="3"/>
       <c r="E104" s="4"/>
       <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
+      <c r="G104" s="84"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="31"/>
@@ -11535,7 +11556,7 @@
       <c r="D105" s="3"/>
       <c r="E105" s="4"/>
       <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
+      <c r="G105" s="84"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="31"/>
@@ -11545,7 +11566,7 @@
       <c r="D106" s="3"/>
       <c r="E106" s="4"/>
       <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
+      <c r="G106" s="84"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="31"/>
@@ -11555,7 +11576,7 @@
       <c r="D107" s="3"/>
       <c r="E107" s="4"/>
       <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
+      <c r="G107" s="84"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="31"/>
@@ -11565,7 +11586,7 @@
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
       <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
+      <c r="G108" s="84"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="31"/>
@@ -11575,7 +11596,7 @@
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
       <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
+      <c r="G109" s="84"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="31"/>
@@ -11585,7 +11606,7 @@
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
       <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
+      <c r="G110" s="84"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="31"/>
@@ -11595,7 +11616,7 @@
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
       <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
+      <c r="G111" s="84"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="31"/>
@@ -11605,7 +11626,7 @@
       <c r="D112" s="3"/>
       <c r="E112" s="4"/>
       <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
+      <c r="G112" s="84"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="31"/>
@@ -11615,7 +11636,7 @@
       <c r="D113" s="3"/>
       <c r="E113" s="4"/>
       <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
+      <c r="G113" s="84"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="31"/>
@@ -11625,7 +11646,7 @@
       <c r="D114" s="3"/>
       <c r="E114" s="4"/>
       <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
+      <c r="G114" s="84"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="31"/>
@@ -11635,7 +11656,7 @@
       <c r="D115" s="3"/>
       <c r="E115" s="4"/>
       <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
+      <c r="G115" s="84"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="31"/>
@@ -11645,7 +11666,7 @@
       <c r="D116" s="3"/>
       <c r="E116" s="4"/>
       <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
+      <c r="G116" s="84"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="31"/>
@@ -11655,7 +11676,7 @@
       <c r="D117" s="3"/>
       <c r="E117" s="4"/>
       <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
+      <c r="G117" s="84"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="31"/>
@@ -11665,7 +11686,7 @@
       <c r="D118" s="3"/>
       <c r="E118" s="4"/>
       <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
+      <c r="G118" s="84"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="31"/>
@@ -11675,7 +11696,7 @@
       <c r="D119" s="3"/>
       <c r="E119" s="4"/>
       <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
+      <c r="G119" s="84"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="31"/>
@@ -11685,7 +11706,7 @@
       <c r="D120" s="3"/>
       <c r="E120" s="4"/>
       <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
+      <c r="G120" s="84"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="31"/>
@@ -11695,7 +11716,7 @@
       <c r="D121" s="3"/>
       <c r="E121" s="4"/>
       <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
+      <c r="G121" s="84"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="31"/>
@@ -11705,7 +11726,7 @@
       <c r="D122" s="3"/>
       <c r="E122" s="4"/>
       <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
+      <c r="G122" s="84"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="31"/>
@@ -11715,7 +11736,7 @@
       <c r="D123" s="3"/>
       <c r="E123" s="4"/>
       <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
+      <c r="G123" s="84"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="31"/>
@@ -11725,7 +11746,7 @@
       <c r="D124" s="3"/>
       <c r="E124" s="4"/>
       <c r="F124" s="31"/>
-      <c r="G124" s="31"/>
+      <c r="G124" s="84"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="31"/>
@@ -11735,7 +11756,7 @@
       <c r="D125" s="3"/>
       <c r="E125" s="4"/>
       <c r="F125" s="31"/>
-      <c r="G125" s="31"/>
+      <c r="G125" s="84"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="31"/>
@@ -11745,7 +11766,7 @@
       <c r="D126" s="3"/>
       <c r="E126" s="4"/>
       <c r="F126" s="31"/>
-      <c r="G126" s="31"/>
+      <c r="G126" s="84"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="31"/>
@@ -11755,7 +11776,7 @@
       <c r="D127" s="3"/>
       <c r="E127" s="4"/>
       <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
+      <c r="G127" s="84"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="31"/>
@@ -11765,7 +11786,7 @@
       <c r="D128" s="3"/>
       <c r="E128" s="4"/>
       <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
+      <c r="G128" s="84"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="31"/>
@@ -11775,7 +11796,7 @@
       <c r="D129" s="3"/>
       <c r="E129" s="4"/>
       <c r="F129" s="31"/>
-      <c r="G129" s="31"/>
+      <c r="G129" s="84"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="31"/>
@@ -11785,7 +11806,7 @@
       <c r="D130" s="3"/>
       <c r="E130" s="4"/>
       <c r="F130" s="31"/>
-      <c r="G130" s="31"/>
+      <c r="G130" s="84"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="31"/>
@@ -11795,7 +11816,7 @@
       <c r="D131" s="3"/>
       <c r="E131" s="4"/>
       <c r="F131" s="31"/>
-      <c r="G131" s="31"/>
+      <c r="G131" s="84"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="31"/>
@@ -11805,7 +11826,7 @@
       <c r="D132" s="3"/>
       <c r="E132" s="4"/>
       <c r="F132" s="31"/>
-      <c r="G132" s="31"/>
+      <c r="G132" s="84"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="31"/>
@@ -11815,7 +11836,7 @@
       <c r="D133" s="3"/>
       <c r="E133" s="4"/>
       <c r="F133" s="31"/>
-      <c r="G133" s="31"/>
+      <c r="G133" s="84"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="31"/>
@@ -11825,7 +11846,7 @@
       <c r="D134" s="3"/>
       <c r="E134" s="4"/>
       <c r="F134" s="31"/>
-      <c r="G134" s="31"/>
+      <c r="G134" s="84"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="31"/>
@@ -11835,7 +11856,7 @@
       <c r="D135" s="3"/>
       <c r="E135" s="4"/>
       <c r="F135" s="31"/>
-      <c r="G135" s="31"/>
+      <c r="G135" s="84"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="31"/>
@@ -11845,7 +11866,7 @@
       <c r="D136" s="3"/>
       <c r="E136" s="4"/>
       <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
+      <c r="G136" s="84"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="31"/>
@@ -11855,7 +11876,7 @@
       <c r="D137" s="3"/>
       <c r="E137" s="4"/>
       <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
+      <c r="G137" s="84"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="31"/>
@@ -11865,7 +11886,7 @@
       <c r="D138" s="3"/>
       <c r="E138" s="4"/>
       <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
+      <c r="G138" s="84"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="31"/>
@@ -11875,7 +11896,7 @@
       <c r="D139" s="3"/>
       <c r="E139" s="4"/>
       <c r="F139" s="31"/>
-      <c r="G139" s="31"/>
+      <c r="G139" s="84"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="31"/>
@@ -11885,7 +11906,7 @@
       <c r="D140" s="3"/>
       <c r="E140" s="4"/>
       <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
+      <c r="G140" s="84"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="31"/>
@@ -11895,7 +11916,7 @@
       <c r="D141" s="3"/>
       <c r="E141" s="4"/>
       <c r="F141" s="31"/>
-      <c r="G141" s="31"/>
+      <c r="G141" s="84"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="31"/>
@@ -11905,7 +11926,7 @@
       <c r="D142" s="3"/>
       <c r="E142" s="4"/>
       <c r="F142" s="31"/>
-      <c r="G142" s="31"/>
+      <c r="G142" s="84"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="31"/>
@@ -11915,7 +11936,7 @@
       <c r="D143" s="3"/>
       <c r="E143" s="4"/>
       <c r="F143" s="31"/>
-      <c r="G143" s="31"/>
+      <c r="G143" s="84"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="31"/>
@@ -11925,7 +11946,7 @@
       <c r="D144" s="3"/>
       <c r="E144" s="4"/>
       <c r="F144" s="31"/>
-      <c r="G144" s="31"/>
+      <c r="G144" s="84"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="31"/>
@@ -11935,7 +11956,7 @@
       <c r="D145" s="3"/>
       <c r="E145" s="4"/>
       <c r="F145" s="31"/>
-      <c r="G145" s="31"/>
+      <c r="G145" s="84"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="31"/>
@@ -11945,7 +11966,7 @@
       <c r="D146" s="3"/>
       <c r="E146" s="4"/>
       <c r="F146" s="31"/>
-      <c r="G146" s="31"/>
+      <c r="G146" s="84"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="31"/>
@@ -11955,7 +11976,7 @@
       <c r="D147" s="3"/>
       <c r="E147" s="4"/>
       <c r="F147" s="31"/>
-      <c r="G147" s="31"/>
+      <c r="G147" s="84"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="31"/>
@@ -11965,7 +11986,7 @@
       <c r="D148" s="3"/>
       <c r="E148" s="4"/>
       <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
+      <c r="G148" s="84"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="31"/>
@@ -11975,7 +11996,7 @@
       <c r="D149" s="3"/>
       <c r="E149" s="4"/>
       <c r="F149" s="31"/>
-      <c r="G149" s="31"/>
+      <c r="G149" s="84"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="31"/>
@@ -11985,7 +12006,7 @@
       <c r="D150" s="3"/>
       <c r="E150" s="4"/>
       <c r="F150" s="31"/>
-      <c r="G150" s="31"/>
+      <c r="G150" s="84"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="31"/>
@@ -11995,7 +12016,7 @@
       <c r="D151" s="3"/>
       <c r="E151" s="4"/>
       <c r="F151" s="31"/>
-      <c r="G151" s="31"/>
+      <c r="G151" s="84"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="31"/>
@@ -12005,7 +12026,7 @@
       <c r="D152" s="3"/>
       <c r="E152" s="4"/>
       <c r="F152" s="31"/>
-      <c r="G152" s="31"/>
+      <c r="G152" s="84"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="31"/>
@@ -12015,7 +12036,7 @@
       <c r="D153" s="3"/>
       <c r="E153" s="4"/>
       <c r="F153" s="31"/>
-      <c r="G153" s="31"/>
+      <c r="G153" s="84"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="31"/>
@@ -12025,7 +12046,7 @@
       <c r="D154" s="3"/>
       <c r="E154" s="4"/>
       <c r="F154" s="31"/>
-      <c r="G154" s="31"/>
+      <c r="G154" s="84"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="31"/>
@@ -12035,7 +12056,7 @@
       <c r="D155" s="3"/>
       <c r="E155" s="4"/>
       <c r="F155" s="31"/>
-      <c r="G155" s="31"/>
+      <c r="G155" s="84"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="31"/>
@@ -12045,7 +12066,7 @@
       <c r="D156" s="3"/>
       <c r="E156" s="4"/>
       <c r="F156" s="31"/>
-      <c r="G156" s="31"/>
+      <c r="G156" s="84"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="31"/>
@@ -12055,7 +12076,7 @@
       <c r="D157" s="3"/>
       <c r="E157" s="4"/>
       <c r="F157" s="31"/>
-      <c r="G157" s="31"/>
+      <c r="G157" s="84"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="31"/>
@@ -12065,7 +12086,7 @@
       <c r="D158" s="3"/>
       <c r="E158" s="4"/>
       <c r="F158" s="31"/>
-      <c r="G158" s="31"/>
+      <c r="G158" s="84"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="31"/>
@@ -12075,7 +12096,7 @@
       <c r="D159" s="3"/>
       <c r="E159" s="4"/>
       <c r="F159" s="31"/>
-      <c r="G159" s="31"/>
+      <c r="G159" s="84"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="31"/>
@@ -12085,7 +12106,7 @@
       <c r="D160" s="3"/>
       <c r="E160" s="4"/>
       <c r="F160" s="31"/>
-      <c r="G160" s="31"/>
+      <c r="G160" s="84"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="31"/>
@@ -12095,7 +12116,7 @@
       <c r="D161" s="3"/>
       <c r="E161" s="4"/>
       <c r="F161" s="31"/>
-      <c r="G161" s="31"/>
+      <c r="G161" s="84"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="31"/>
@@ -12105,7 +12126,7 @@
       <c r="D162" s="3"/>
       <c r="E162" s="4"/>
       <c r="F162" s="31"/>
-      <c r="G162" s="31"/>
+      <c r="G162" s="84"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="31"/>
@@ -12115,7 +12136,7 @@
       <c r="D163" s="3"/>
       <c r="E163" s="4"/>
       <c r="F163" s="31"/>
-      <c r="G163" s="31"/>
+      <c r="G163" s="84"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="31"/>
@@ -12125,7 +12146,7 @@
       <c r="D164" s="3"/>
       <c r="E164" s="4"/>
       <c r="F164" s="31"/>
-      <c r="G164" s="31"/>
+      <c r="G164" s="84"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="31"/>
@@ -12135,7 +12156,7 @@
       <c r="D165" s="3"/>
       <c r="E165" s="4"/>
       <c r="F165" s="31"/>
-      <c r="G165" s="31"/>
+      <c r="G165" s="84"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="31"/>
@@ -12145,7 +12166,7 @@
       <c r="D166" s="3"/>
       <c r="E166" s="4"/>
       <c r="F166" s="31"/>
-      <c r="G166" s="31"/>
+      <c r="G166" s="84"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="31"/>
@@ -12155,7 +12176,7 @@
       <c r="D167" s="3"/>
       <c r="E167" s="4"/>
       <c r="F167" s="31"/>
-      <c r="G167" s="31"/>
+      <c r="G167" s="84"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="31"/>
@@ -12165,7 +12186,7 @@
       <c r="D168" s="3"/>
       <c r="E168" s="4"/>
       <c r="F168" s="31"/>
-      <c r="G168" s="31"/>
+      <c r="G168" s="84"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="31"/>
@@ -12175,7 +12196,7 @@
       <c r="D169" s="3"/>
       <c r="E169" s="4"/>
       <c r="F169" s="31"/>
-      <c r="G169" s="31"/>
+      <c r="G169" s="84"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="31"/>
@@ -12185,7 +12206,7 @@
       <c r="D170" s="3"/>
       <c r="E170" s="4"/>
       <c r="F170" s="31"/>
-      <c r="G170" s="31"/>
+      <c r="G170" s="84"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="31"/>
@@ -12195,7 +12216,7 @@
       <c r="D171" s="3"/>
       <c r="E171" s="4"/>
       <c r="F171" s="31"/>
-      <c r="G171" s="31"/>
+      <c r="G171" s="84"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="31"/>
@@ -12205,7 +12226,7 @@
       <c r="D172" s="3"/>
       <c r="E172" s="4"/>
       <c r="F172" s="31"/>
-      <c r="G172" s="31"/>
+      <c r="G172" s="84"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="31"/>
@@ -12215,7 +12236,7 @@
       <c r="D173" s="3"/>
       <c r="E173" s="4"/>
       <c r="F173" s="31"/>
-      <c r="G173" s="31"/>
+      <c r="G173" s="84"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="31"/>
@@ -12225,7 +12246,7 @@
       <c r="D174" s="3"/>
       <c r="E174" s="4"/>
       <c r="F174" s="31"/>
-      <c r="G174" s="31"/>
+      <c r="G174" s="84"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="31"/>
@@ -12235,7 +12256,7 @@
       <c r="D175" s="3"/>
       <c r="E175" s="4"/>
       <c r="F175" s="31"/>
-      <c r="G175" s="31"/>
+      <c r="G175" s="84"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="31"/>
@@ -12245,7 +12266,7 @@
       <c r="D176" s="3"/>
       <c r="E176" s="4"/>
       <c r="F176" s="31"/>
-      <c r="G176" s="31"/>
+      <c r="G176" s="84"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="31"/>
@@ -12255,7 +12276,7 @@
       <c r="D177" s="3"/>
       <c r="E177" s="4"/>
       <c r="F177" s="31"/>
-      <c r="G177" s="31"/>
+      <c r="G177" s="84"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="31"/>
@@ -12265,7 +12286,7 @@
       <c r="D178" s="3"/>
       <c r="E178" s="4"/>
       <c r="F178" s="31"/>
-      <c r="G178" s="31"/>
+      <c r="G178" s="84"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="31"/>
@@ -12275,7 +12296,7 @@
       <c r="D179" s="3"/>
       <c r="E179" s="4"/>
       <c r="F179" s="31"/>
-      <c r="G179" s="31"/>
+      <c r="G179" s="84"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="31"/>
@@ -12285,7 +12306,7 @@
       <c r="D180" s="3"/>
       <c r="E180" s="4"/>
       <c r="F180" s="31"/>
-      <c r="G180" s="31"/>
+      <c r="G180" s="84"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="31"/>
@@ -12295,7 +12316,7 @@
       <c r="D181" s="3"/>
       <c r="E181" s="4"/>
       <c r="F181" s="31"/>
-      <c r="G181" s="31"/>
+      <c r="G181" s="84"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="31"/>
@@ -12305,7 +12326,7 @@
       <c r="D182" s="3"/>
       <c r="E182" s="4"/>
       <c r="F182" s="31"/>
-      <c r="G182" s="31"/>
+      <c r="G182" s="84"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="31"/>
@@ -12315,7 +12336,7 @@
       <c r="D183" s="3"/>
       <c r="E183" s="4"/>
       <c r="F183" s="31"/>
-      <c r="G183" s="31"/>
+      <c r="G183" s="84"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="31"/>
@@ -12325,7 +12346,7 @@
       <c r="D184" s="3"/>
       <c r="E184" s="4"/>
       <c r="F184" s="31"/>
-      <c r="G184" s="31"/>
+      <c r="G184" s="84"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="31"/>
@@ -12335,7 +12356,7 @@
       <c r="D185" s="3"/>
       <c r="E185" s="4"/>
       <c r="F185" s="31"/>
-      <c r="G185" s="31"/>
+      <c r="G185" s="84"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="31"/>
@@ -12345,7 +12366,7 @@
       <c r="D186" s="3"/>
       <c r="E186" s="4"/>
       <c r="F186" s="31"/>
-      <c r="G186" s="31"/>
+      <c r="G186" s="84"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="31"/>
@@ -12355,7 +12376,7 @@
       <c r="D187" s="3"/>
       <c r="E187" s="4"/>
       <c r="F187" s="31"/>
-      <c r="G187" s="31"/>
+      <c r="G187" s="84"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="31"/>
@@ -12365,7 +12386,7 @@
       <c r="D188" s="3"/>
       <c r="E188" s="4"/>
       <c r="F188" s="31"/>
-      <c r="G188" s="31"/>
+      <c r="G188" s="84"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="31"/>
@@ -12375,7 +12396,7 @@
       <c r="D189" s="3"/>
       <c r="E189" s="4"/>
       <c r="F189" s="31"/>
-      <c r="G189" s="31"/>
+      <c r="G189" s="84"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="31"/>
@@ -12385,7 +12406,7 @@
       <c r="D190" s="3"/>
       <c r="E190" s="4"/>
       <c r="F190" s="31"/>
-      <c r="G190" s="31"/>
+      <c r="G190" s="84"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="31"/>
@@ -12395,7 +12416,7 @@
       <c r="D191" s="3"/>
       <c r="E191" s="4"/>
       <c r="F191" s="31"/>
-      <c r="G191" s="31"/>
+      <c r="G191" s="84"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="31"/>
@@ -12405,7 +12426,7 @@
       <c r="D192" s="3"/>
       <c r="E192" s="4"/>
       <c r="F192" s="31"/>
-      <c r="G192" s="31"/>
+      <c r="G192" s="84"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="31"/>
@@ -12415,7 +12436,7 @@
       <c r="D193" s="3"/>
       <c r="E193" s="4"/>
       <c r="F193" s="31"/>
-      <c r="G193" s="31"/>
+      <c r="G193" s="84"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="31"/>
@@ -12425,7 +12446,7 @@
       <c r="D194" s="3"/>
       <c r="E194" s="4"/>
       <c r="F194" s="31"/>
-      <c r="G194" s="31"/>
+      <c r="G194" s="84"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="31"/>
@@ -12435,7 +12456,7 @@
       <c r="D195" s="3"/>
       <c r="E195" s="4"/>
       <c r="F195" s="31"/>
-      <c r="G195" s="31"/>
+      <c r="G195" s="84"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="31"/>
@@ -12445,7 +12466,7 @@
       <c r="D196" s="3"/>
       <c r="E196" s="4"/>
       <c r="F196" s="31"/>
-      <c r="G196" s="31"/>
+      <c r="G196" s="84"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="31"/>
@@ -12455,7 +12476,7 @@
       <c r="D197" s="3"/>
       <c r="E197" s="4"/>
       <c r="F197" s="31"/>
-      <c r="G197" s="31"/>
+      <c r="G197" s="84"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="31"/>
@@ -12465,7 +12486,7 @@
       <c r="D198" s="3"/>
       <c r="E198" s="4"/>
       <c r="F198" s="31"/>
-      <c r="G198" s="31"/>
+      <c r="G198" s="84"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="31"/>
@@ -12475,7 +12496,7 @@
       <c r="D199" s="3"/>
       <c r="E199" s="4"/>
       <c r="F199" s="31"/>
-      <c r="G199" s="31"/>
+      <c r="G199" s="84"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="31"/>
@@ -12485,7 +12506,7 @@
       <c r="D200" s="3"/>
       <c r="E200" s="4"/>
       <c r="F200" s="31"/>
-      <c r="G200" s="31"/>
+      <c r="G200" s="84"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="31"/>
@@ -12495,7 +12516,7 @@
       <c r="D201" s="3"/>
       <c r="E201" s="4"/>
       <c r="F201" s="31"/>
-      <c r="G201" s="31"/>
+      <c r="G201" s="84"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="31"/>
@@ -12505,7 +12526,7 @@
       <c r="D202" s="3"/>
       <c r="E202" s="4"/>
       <c r="F202" s="31"/>
-      <c r="G202" s="31"/>
+      <c r="G202" s="84"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="31"/>
@@ -12515,7 +12536,7 @@
       <c r="D203" s="3"/>
       <c r="E203" s="4"/>
       <c r="F203" s="31"/>
-      <c r="G203" s="31"/>
+      <c r="G203" s="84"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="31"/>
@@ -12525,7 +12546,7 @@
       <c r="D204" s="3"/>
       <c r="E204" s="4"/>
       <c r="F204" s="31"/>
-      <c r="G204" s="31"/>
+      <c r="G204" s="84"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="31"/>
@@ -12535,7 +12556,7 @@
       <c r="D205" s="3"/>
       <c r="E205" s="4"/>
       <c r="F205" s="31"/>
-      <c r="G205" s="31"/>
+      <c r="G205" s="84"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="31"/>
@@ -12545,7 +12566,7 @@
       <c r="D206" s="3"/>
       <c r="E206" s="4"/>
       <c r="F206" s="31"/>
-      <c r="G206" s="31"/>
+      <c r="G206" s="84"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="31"/>
@@ -12555,7 +12576,7 @@
       <c r="D207" s="3"/>
       <c r="E207" s="4"/>
       <c r="F207" s="31"/>
-      <c r="G207" s="31"/>
+      <c r="G207" s="84"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="31"/>
@@ -12565,7 +12586,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="4"/>
       <c r="F208" s="31"/>
-      <c r="G208" s="31"/>
+      <c r="G208" s="84"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="31"/>
@@ -12575,7 +12596,7 @@
       <c r="D209" s="3"/>
       <c r="E209" s="4"/>
       <c r="F209" s="31"/>
-      <c r="G209" s="31"/>
+      <c r="G209" s="84"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="31"/>
@@ -12585,7 +12606,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="5"/>
       <c r="F210" s="32"/>
-      <c r="G210" s="32"/>
+      <c r="G210" s="86"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="32"/>
@@ -12595,7 +12616,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="5"/>
       <c r="F211" s="32"/>
-      <c r="G211" s="32"/>
+      <c r="G211" s="86"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="32"/>
@@ -12605,7 +12626,7 @@
       <c r="D212" s="1"/>
       <c r="E212" s="5"/>
       <c r="F212" s="32"/>
-      <c r="G212" s="32"/>
+      <c r="G212" s="86"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="32"/>
@@ -12615,7 +12636,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="5"/>
       <c r="F213" s="32"/>
-      <c r="G213" s="32"/>
+      <c r="G213" s="86"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="32"/>
@@ -12625,7 +12646,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="5"/>
       <c r="F214" s="32"/>
-      <c r="G214" s="32"/>
+      <c r="G214" s="86"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="32"/>
@@ -12635,7 +12656,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="5"/>
       <c r="F215" s="32"/>
-      <c r="G215" s="32"/>
+      <c r="G215" s="86"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="32"/>
@@ -12645,7 +12666,7 @@
       <c r="D216" s="1"/>
       <c r="E216" s="5"/>
       <c r="F216" s="32"/>
-      <c r="G216" s="32"/>
+      <c r="G216" s="86"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="32"/>
@@ -12655,7 +12676,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="5"/>
       <c r="F217" s="32"/>
-      <c r="G217" s="32"/>
+      <c r="G217" s="86"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="32"/>
@@ -12665,7 +12686,7 @@
       <c r="D218" s="1"/>
       <c r="E218" s="5"/>
       <c r="F218" s="32"/>
-      <c r="G218" s="32"/>
+      <c r="G218" s="86"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="32"/>
@@ -12675,7 +12696,7 @@
       <c r="D219" s="1"/>
       <c r="E219" s="5"/>
       <c r="F219" s="32"/>
-      <c r="G219" s="32"/>
+      <c r="G219" s="86"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="32"/>
@@ -12685,7 +12706,7 @@
       <c r="D220" s="1"/>
       <c r="E220" s="5"/>
       <c r="F220" s="32"/>
-      <c r="G220" s="32"/>
+      <c r="G220" s="86"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="32"/>
@@ -12695,7 +12716,7 @@
       <c r="D221" s="1"/>
       <c r="E221" s="5"/>
       <c r="F221" s="32"/>
-      <c r="G221" s="32"/>
+      <c r="G221" s="86"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="32"/>
